--- a/3C/ITSIT/PRE_ENTREGA_12DIC/CTI3.xlsx
+++ b/3C/ITSIT/PRE_ENTREGA_12DIC/CTI3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="504" documentId="13_ncr:1_{BCABF17B-4915-49D3-973F-BDBDC320AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CE2950-0BD8-4F33-8B2A-07F5474F9BAD}"/>
+  <xr:revisionPtr revIDLastSave="893" documentId="13_ncr:1_{BCABF17B-4915-49D3-973F-BDBDC320AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BEC26D2-BFA3-4AC2-8600-EF07DBB822DA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4347C519-B6F4-4BE5-85E3-94D0FBA9924D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="208">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -652,6 +652,15 @@
   </si>
   <si>
     <t>IF (margin of 30 dB)</t>
+  </si>
+  <si>
+    <t>100 MHz</t>
+  </si>
+  <si>
+    <t>230 MHz</t>
+  </si>
+  <si>
+    <t>470 MHz</t>
   </si>
 </sst>
 </file>
@@ -1447,25 +1456,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,6 +1478,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1502,6 +1511,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555848AA-6603-4FF7-9150-EEA00320E63B}">
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E247" sqref="E247"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2171,6 +2184,15 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="H18" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="K18" s="84" t="s">
         <v>61</v>
       </c>
@@ -2192,8 +2214,20 @@
         <v>7</v>
       </c>
       <c r="G19" s="58">
-        <f>(D19*G$6)+G$11+(E$19*G$5)+G$13</f>
+        <f>($D19*G$6)+G$11+($E19*G$5)+G$13</f>
         <v>12.420999999999999</v>
+      </c>
+      <c r="H19" s="58">
+        <f>($D19*H$6)+H$11+(E$19*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I19" s="58">
+        <f>($D19*I$6)+I$11+(E$19*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J19" s="58">
+        <f>($D19*J$6)+J$11+($E19*J$5)+J$13</f>
+        <v>15.06</v>
       </c>
       <c r="K19" s="58">
         <f>(D19*K$6)+K$11+(E$19*K$5)+K$13</f>
@@ -2227,6 +2261,18 @@
         <f>(D20*G$6)+G$11+(E$19*G$5)+G$13</f>
         <v>12.274000000000001</v>
       </c>
+      <c r="H20" s="58">
+        <f>($D20*H$6)+H$11+(E$19*H$5)+H$13</f>
+        <v>12.69</v>
+      </c>
+      <c r="I20" s="58">
+        <f t="shared" ref="I20:I23" si="0">($D20*I$6)+I$11+(E$19*I$5)+I$13</f>
+        <v>13.469999999999999</v>
+      </c>
+      <c r="J20" s="58">
+        <f t="shared" ref="J20:J23" si="1">($D20*J$6)+J$11+($E20*J$5)+J$13</f>
+        <v>13.66</v>
+      </c>
       <c r="K20" s="58">
         <f>(D20*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>16.096</v>
@@ -2236,7 +2282,7 @@
         <v>18.96</v>
       </c>
       <c r="M20" s="58">
-        <f t="shared" ref="M20:M23" si="0">(D20*M$6)+M$11+(E$19*M$5)+M$13</f>
+        <f t="shared" ref="M20:M23" si="2">(D20*M$6)+M$11+(E$19*M$5)+M$13</f>
         <v>21.95</v>
       </c>
       <c r="N20" s="96">
@@ -2259,6 +2305,18 @@
         <f>(D21*G$6)+G$11+(E$19*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H21" s="58">
+        <f>($D21*H$6)+H$11+(E$19*H$5)+H$13</f>
+        <v>12.43</v>
+      </c>
+      <c r="I21" s="58">
+        <f t="shared" si="0"/>
+        <v>13.09</v>
+      </c>
+      <c r="J21" s="58">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
       <c r="K21" s="58">
         <f>(D21*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>15.311999999999999</v>
@@ -2268,7 +2326,7 @@
         <v>18.12</v>
       </c>
       <c r="M21" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.65</v>
       </c>
       <c r="N21" s="96">
@@ -2291,16 +2349,28 @@
         <f>(D22*G$6)+G$11+(E$19*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H22" s="58">
+        <f>($D22*H$6)+H$11+(E$19*H$5)+H$13</f>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I22" s="58">
+        <f t="shared" si="0"/>
+        <v>11.855</v>
+      </c>
+      <c r="J22" s="58">
+        <f t="shared" si="1"/>
+        <v>11.28</v>
+      </c>
       <c r="K22" s="58">
         <f>(D22*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L22" s="58">
-        <f t="shared" ref="L22:L23" si="1">(D22*L$6)+L$11+(E$19*L$5)+L$13</f>
+        <f t="shared" ref="L22:L23" si="3">(D22*L$6)+L$11+(E$19*L$5)+L$13</f>
         <v>15.39</v>
       </c>
       <c r="M22" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N22" s="96">
@@ -2308,7 +2378,7 @@
         <v>2.823</v>
       </c>
       <c r="O22" s="96">
-        <f t="shared" ref="O22:O23" si="2">($D22*O$6)+D$11+(E$19*O$5)+D$13</f>
+        <f t="shared" ref="O22:O23" si="4">($D22*O$6)+D$11+(E$19*O$5)+D$13</f>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -2323,16 +2393,28 @@
         <f>(D23*G$6)+G$11+(E$19*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H23" s="63">
+        <f>($D23*H$6)+H$11+(E$19*H$5)+H$13</f>
+        <v>12.56</v>
+      </c>
+      <c r="I23" s="63">
+        <f t="shared" si="0"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J23" s="63">
+        <f t="shared" si="1"/>
+        <v>13.38</v>
+      </c>
       <c r="K23" s="63">
         <f>(D23*K$6)+K$11+(E$19*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L23" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.54</v>
       </c>
       <c r="M23" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N23" s="96">
@@ -2340,7 +2422,7 @@
         <v>5.0279999999999996</v>
       </c>
       <c r="O23" s="96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.76</v>
       </c>
     </row>
@@ -2360,8 +2442,20 @@
         <v>7</v>
       </c>
       <c r="G25" s="58">
-        <f>(D25*G$6)+G$11+(E$25*G$5)+G$13</f>
+        <f>($D25*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.420999999999999</v>
+      </c>
+      <c r="H25" s="58">
+        <f>($D25*H$6)+H$11+(E$25*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I25" s="58">
+        <f>($D25*I$6)+I$11+(E$25*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J25" s="58">
+        <f>($D25*J$6)+J$11+(E$25*J$5)+J$13</f>
+        <v>15.06</v>
       </c>
       <c r="K25" s="88">
         <f>(D25*K$6)+K$11+(E$25*K$5)+K$13</f>
@@ -2395,6 +2489,18 @@
         <f>(D26*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H26" s="58">
+        <f>($D26*H$6)+H$11+(E$25*H$5)+H$13</f>
+        <v>12.43</v>
+      </c>
+      <c r="I26" s="58">
+        <f t="shared" ref="I26:I29" si="5">($D26*I$6)+I$11+(E$25*I$5)+I$13</f>
+        <v>13.09</v>
+      </c>
+      <c r="J26" s="58">
+        <f t="shared" ref="J26:J29" si="6">($D26*J$6)+J$11+(E$25*J$5)+J$13</f>
+        <v>14.08</v>
+      </c>
       <c r="K26" s="88">
         <f>(D26*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
@@ -2404,15 +2510,15 @@
         <v>18.12</v>
       </c>
       <c r="M26" s="88">
-        <f t="shared" ref="M26:M29" si="3">(D26*M$6)+M$11+(E$25*M$5)+M$13</f>
+        <f t="shared" ref="M26:M29" si="7">(D26*M$6)+M$11+(E$25*M$5)+M$13</f>
         <v>20.65</v>
       </c>
       <c r="N26" s="96">
-        <f t="shared" ref="N26:N29" si="4">($D26*N$6)+C$11+(E$25*N$5)+C$13</f>
+        <f t="shared" ref="N26:N29" si="8">($D26*N$6)+C$11+(E$25*N$5)+C$13</f>
         <v>4.734</v>
       </c>
       <c r="O26" s="96">
-        <f t="shared" ref="O26:O29" si="5">($D26*O$6)+D$11+(E$25*O$5)+D$13</f>
+        <f t="shared" ref="O26:O29" si="9">($D26*O$6)+D$11+(E$25*O$5)+D$13</f>
         <v>4.53</v>
       </c>
     </row>
@@ -2427,24 +2533,36 @@
         <f>(D27*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H27" s="58">
+        <f>($D27*H$6)+H$11+(E$25*H$5)+H$13</f>
+        <v>12.43</v>
+      </c>
+      <c r="I27" s="58">
+        <f t="shared" si="5"/>
+        <v>13.09</v>
+      </c>
+      <c r="J27" s="58">
+        <f t="shared" si="6"/>
+        <v>14.08</v>
+      </c>
       <c r="K27" s="88">
         <f>(D27*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L27" s="88">
-        <f t="shared" ref="L27:L29" si="6">(D27*L$6)+L$11+(E$25*L$5)+L$13</f>
+        <f t="shared" ref="L27:L29" si="10">(D27*L$6)+L$11+(E$25*L$5)+L$13</f>
         <v>18.12</v>
       </c>
       <c r="M27" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.65</v>
       </c>
       <c r="N27" s="96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.734</v>
       </c>
       <c r="O27" s="96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.53</v>
       </c>
     </row>
@@ -2459,24 +2577,36 @@
         <f>(D28*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H28" s="58">
+        <f>($D28*H$6)+H$11+(E$25*H$5)+H$13</f>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I28" s="58">
+        <f t="shared" si="5"/>
+        <v>11.855</v>
+      </c>
+      <c r="J28" s="58">
+        <f t="shared" si="6"/>
+        <v>12.26</v>
+      </c>
       <c r="K28" s="88">
         <f>(D28*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L28" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>15.39</v>
       </c>
       <c r="M28" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N28" s="96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.823</v>
       </c>
       <c r="O28" s="96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -2491,24 +2621,36 @@
         <f>(D29*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H29" s="63">
+        <f t="shared" ref="H29" si="11">($D29*H$6)+H$11+(E$25*H$5)+H$13</f>
+        <v>12.56</v>
+      </c>
+      <c r="I29" s="63">
+        <f t="shared" si="5"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J29" s="63">
+        <f t="shared" si="6"/>
+        <v>14.360000000000001</v>
+      </c>
       <c r="K29" s="89">
         <f>(D29*K$6)+K$11+(E$25*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L29" s="89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.54</v>
       </c>
       <c r="M29" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N29" s="96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.0279999999999996</v>
       </c>
       <c r="O29" s="96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.76</v>
       </c>
     </row>
@@ -2531,6 +2673,18 @@
         <f>(D31*G$6)+G$12+(E$31*G$5)+G$13</f>
         <v>13.98</v>
       </c>
+      <c r="H31" s="58">
+        <f>($D31*H$6)+H$12+(E$31*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I31" s="58">
+        <f>($D31*I$6)+I$12+(E$31*I$5)+I$13</f>
+        <v>14.9</v>
+      </c>
+      <c r="J31" s="58">
+        <f>($D31*J$6)+J$12+(E$31*J$5)+J$13</f>
+        <v>15.8</v>
+      </c>
       <c r="K31" s="88">
         <f>(D31*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>16.920000000000002</v>
@@ -2560,19 +2714,31 @@
         <v>32</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" ref="G32:G36" si="7">(D32*G$6)+G$12+(E$31*G$5)+G$13</f>
+        <f t="shared" ref="G32:G36" si="12">(D32*G$6)+G$12+(E$31*G$5)+G$13</f>
         <v>14.862</v>
       </c>
+      <c r="H32" s="58">
+        <f>($D32*H$6)+H$12+(E$31*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I32" s="58">
+        <f>($D32*I$6)+I$12+(E$31*I$5)+I$13</f>
+        <v>16.61</v>
+      </c>
+      <c r="J32" s="58">
+        <f t="shared" ref="J32:J36" si="13">($D32*J$6)+J$12+(E$31*J$5)+J$13</f>
+        <v>18.32</v>
+      </c>
       <c r="K32" s="88">
-        <f t="shared" ref="K32:K36" si="8">(D32*K$6)+K$12+(E$31*K$5)+K$13</f>
+        <f t="shared" ref="K32:K36" si="14">(D32*K$6)+K$12+(E$31*K$5)+K$13</f>
         <v>20.448</v>
       </c>
       <c r="L32" s="88">
-        <f t="shared" ref="L32:L36" si="9">(D32*L$6)+L$12+(E$31*L$5)+L$13</f>
+        <f t="shared" ref="L32:L36" si="15">(D32*L$6)+L$12+(E$31*L$5)+L$13</f>
         <v>24.48</v>
       </c>
       <c r="M32" s="88">
-        <f t="shared" ref="M32:M36" si="10">(D32*M$6)+M$12+(E$31*M$5)+M$13</f>
+        <f t="shared" ref="M32:M36" si="16">(D32*M$6)+M$12+(E$31*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N32" s="96">
@@ -2593,19 +2759,31 @@
       </c>
       <c r="E33" s="62"/>
       <c r="G33" s="58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H33" s="58">
+        <f t="shared" ref="H33:H36" si="17">($D33*H$6)+H$12+(E$31*H$5)+H$13</f>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I33" s="58">
+        <f>($D33*I$6)+I$12+(E$31*I$5)+I$13</f>
+        <v>14.805</v>
+      </c>
+      <c r="J33" s="58">
+        <f t="shared" si="13"/>
+        <v>15.66</v>
+      </c>
       <c r="K33" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16.724</v>
       </c>
       <c r="L33" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M33" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N33" s="96">
@@ -2613,7 +2791,7 @@
         <v>4.2929999999999993</v>
       </c>
       <c r="O33" s="96">
-        <f t="shared" ref="O33:O36" si="11">($D33*O$6)+D$12+(E$31*O$5)+D$13</f>
+        <f t="shared" ref="O33:O36" si="18">($D33*O$6)+D$12+(E$31*O$5)+D$13</f>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -2625,19 +2803,31 @@
         <v>34</v>
       </c>
       <c r="G34" s="58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14.96</v>
       </c>
+      <c r="H34" s="58">
+        <f t="shared" si="17"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I34" s="58">
+        <f t="shared" ref="I34:I36" si="19">($D34*I$6)+I$12+(E$31*I$5)+I$13</f>
+        <v>16.8</v>
+      </c>
+      <c r="J34" s="58">
+        <f t="shared" si="13"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="K34" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>20.840000000000003</v>
       </c>
       <c r="L34" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>24.900000000000002</v>
       </c>
       <c r="M34" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>29.5</v>
       </c>
       <c r="N34" s="96">
@@ -2645,7 +2835,7 @@
         <v>7.379999999999999</v>
       </c>
       <c r="O34" s="96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.6000000000000005</v>
       </c>
     </row>
@@ -2657,19 +2847,31 @@
         <v>13</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H35" s="58">
+        <f t="shared" si="17"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I35" s="58">
+        <f t="shared" si="19"/>
+        <v>14.805</v>
+      </c>
+      <c r="J35" s="58">
+        <f t="shared" si="13"/>
+        <v>15.66</v>
+      </c>
       <c r="K35" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16.724</v>
       </c>
       <c r="L35" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M35" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N35" s="96">
@@ -2677,7 +2879,7 @@
         <v>4.2929999999999993</v>
       </c>
       <c r="O35" s="96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -2689,27 +2891,39 @@
         <v>4</v>
       </c>
       <c r="G36" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13.49</v>
       </c>
+      <c r="H36" s="63">
+        <f t="shared" si="17"/>
+        <v>13.65</v>
+      </c>
+      <c r="I36" s="63">
+        <f t="shared" si="19"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="J36" s="63">
+        <f t="shared" si="13"/>
+        <v>14.4</v>
+      </c>
       <c r="K36" s="89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14.96</v>
       </c>
       <c r="L36" s="89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M36" s="89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.75</v>
       </c>
       <c r="N36" s="96">
-        <f t="shared" ref="N36" si="12">($D36*N$6)+C$12+(E$31*N$5)+C$13</f>
+        <f t="shared" ref="N36" si="20">($D36*N$6)+C$12+(E$31*N$5)+C$13</f>
         <v>2.9699999999999998</v>
       </c>
       <c r="O36" s="96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.15</v>
       </c>
     </row>
@@ -2732,6 +2946,18 @@
         <f>(D38*G$6)+G$12+(E$38*G$5)+G$13</f>
         <v>13.98</v>
       </c>
+      <c r="H38" s="58">
+        <f>($D38*H$6)+H$12+(E$38*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I38" s="58">
+        <f t="shared" ref="I38:J43" si="21">(F38*I$6)+I$12+(G$38*I$5)+I$13</f>
+        <v>14.328099999999999</v>
+      </c>
+      <c r="J38" s="58">
+        <f t="shared" si="21"/>
+        <v>16.959200000000003</v>
+      </c>
       <c r="K38" s="58">
         <f>(D38*K$6)+K$12+(E$38*K$5)+K$13</f>
         <v>16.920000000000002</v>
@@ -2761,11 +2987,23 @@
         <v>32</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" ref="G39:G43" si="13">(D39*G$6)+G$12+(E$38*G$5)+G$13</f>
+        <f t="shared" ref="G39:G43" si="22">(D39*G$6)+G$12+(E$38*G$5)+G$13</f>
         <v>14.862</v>
       </c>
+      <c r="H39" s="58">
+        <f t="shared" ref="H39:H43" si="23">($D39*H$6)+H$12+(E$38*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I39" s="58">
+        <f t="shared" si="21"/>
+        <v>14.328099999999999</v>
+      </c>
+      <c r="J39" s="58">
+        <f t="shared" si="21"/>
+        <v>17.08268</v>
+      </c>
       <c r="K39" s="58">
-        <f t="shared" ref="K39:K43" si="14">(D39*K$6)+K$12+(E$38*K$5)+K$13</f>
+        <f t="shared" ref="K39:K43" si="24">(D39*K$6)+K$12+(E$38*K$5)+K$13</f>
         <v>20.448</v>
       </c>
       <c r="L39" s="58">
@@ -2773,7 +3011,7 @@
         <v>24.48</v>
       </c>
       <c r="M39" s="58">
-        <f t="shared" ref="M39:M43" si="15">(D39*M$6)+M$12+(E$38*M$5)+M$13</f>
+        <f t="shared" ref="M39:M43" si="25">(D39*M$6)+M$12+(E$38*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N39" s="96">
@@ -2781,7 +3019,7 @@
         <v>7.0859999999999994</v>
       </c>
       <c r="O39" s="96">
-        <f t="shared" ref="O39:O43" si="16">($D39*O$6)+D$12+(E$38*O$5)+D$13</f>
+        <f t="shared" ref="O39:O43" si="26">($D39*O$6)+D$12+(E$38*O$5)+D$13</f>
         <v>6.37</v>
       </c>
     </row>
@@ -2793,19 +3031,31 @@
         <v>13</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H40" s="58">
+        <f>($D40*H$6)+H$12+(E$38*H$5)+H$13</f>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I40" s="58">
+        <f t="shared" si="21"/>
+        <v>14.328099999999999</v>
+      </c>
+      <c r="J40" s="58">
+        <f t="shared" si="21"/>
+        <v>16.95234</v>
+      </c>
       <c r="K40" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>16.724</v>
       </c>
       <c r="L40" s="58">
-        <f t="shared" ref="L40:L43" si="17">(D40*L$6)+L$12+(E$38*L$5)+L$13</f>
+        <f t="shared" ref="L40:L43" si="27">(D40*L$6)+L$12+(E$38*L$5)+L$13</f>
         <v>20.490000000000002</v>
       </c>
       <c r="M40" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N40" s="96">
@@ -2813,7 +3063,7 @@
         <v>4.2929999999999993</v>
       </c>
       <c r="O40" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -2825,27 +3075,39 @@
         <v>34</v>
       </c>
       <c r="G41" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>14.96</v>
       </c>
+      <c r="H41" s="58">
+        <f>($D41*H$6)+H$12+(E$38*H$5)+H$13</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I41" s="58">
+        <f t="shared" si="21"/>
+        <v>14.328099999999999</v>
+      </c>
+      <c r="J41" s="58">
+        <f t="shared" si="21"/>
+        <v>17.096399999999999</v>
+      </c>
       <c r="K41" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>20.840000000000003</v>
       </c>
       <c r="L41" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>24.900000000000002</v>
       </c>
       <c r="M41" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>29.5</v>
       </c>
       <c r="N41" s="96">
-        <f t="shared" ref="N41:N43" si="18">($D41*N$6)+C$12+(E$38*N$5)+C$13</f>
+        <f t="shared" ref="N41:N43" si="28">($D41*N$6)+C$12+(E$38*N$5)+C$13</f>
         <v>7.379999999999999</v>
       </c>
       <c r="O41" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.6000000000000005</v>
       </c>
     </row>
@@ -2857,27 +3119,39 @@
         <v>13</v>
       </c>
       <c r="G42" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H42" s="58">
+        <f>($D42*H$6)+H$12+(E$38*H$5)+H$13</f>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I42" s="58">
+        <f t="shared" si="21"/>
+        <v>14.328099999999999</v>
+      </c>
+      <c r="J42" s="58">
+        <f t="shared" si="21"/>
+        <v>16.95234</v>
+      </c>
       <c r="K42" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>16.724</v>
       </c>
       <c r="L42" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M42" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N42" s="96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O42" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -2889,27 +3163,39 @@
         <v>4</v>
       </c>
       <c r="G43" s="63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>13.49</v>
       </c>
+      <c r="H43" s="63">
+        <f t="shared" si="23"/>
+        <v>13.65</v>
+      </c>
+      <c r="I43" s="63">
+        <f t="shared" si="21"/>
+        <v>14.328099999999999</v>
+      </c>
+      <c r="J43" s="63">
+        <f t="shared" si="21"/>
+        <v>16.890599999999999</v>
+      </c>
       <c r="K43" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>14.96</v>
       </c>
       <c r="L43" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M43" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>19.75</v>
       </c>
       <c r="N43" s="96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="O43" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.15</v>
       </c>
     </row>
@@ -2929,8 +3215,20 @@
         <v>7</v>
       </c>
       <c r="G45" s="58">
-        <f>(D45*G$6)+G$11+(E$45*G$5)+G$13</f>
+        <f>($D45*G$6)+G$11+(E$45*G$5)+G$13</f>
         <v>12.420999999999999</v>
+      </c>
+      <c r="H45" s="58">
+        <f>(D45*H$6)+H$11+(E$45*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I45" s="58">
+        <f>(D45*I$6)+I$11+(E$45*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J45" s="58">
+        <f>(D45*J$6)+J$11+(E$45*J$5)+J$13</f>
+        <v>15.06</v>
       </c>
       <c r="K45" s="58">
         <f>(D45*K$6)+K$11+(E$45*K$5)+K$13</f>
@@ -2964,24 +3262,36 @@
         <f>(D46*G$6)+G$11+(E$45*G$5)+G$13</f>
         <v>12.274000000000001</v>
       </c>
+      <c r="H46" s="58">
+        <f t="shared" ref="H46:H48" si="29">(D46*H$6)+H$11+(E$45*H$5)+H$13</f>
+        <v>12.69</v>
+      </c>
+      <c r="I46" s="58">
+        <f t="shared" ref="I46:I49" si="30">(D46*I$6)+I$11+(E$45*I$5)+I$13</f>
+        <v>13.469999999999999</v>
+      </c>
+      <c r="J46" s="58">
+        <f t="shared" ref="J46:J49" si="31">(D46*J$6)+J$11+(E$45*J$5)+J$13</f>
+        <v>14.64</v>
+      </c>
       <c r="K46" s="58">
         <f>(D46*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>16.096</v>
       </c>
       <c r="L46" s="58">
-        <f t="shared" ref="L46:L49" si="19">(D46*L$6)+L$11+(E$45*L$5)+L$13</f>
+        <f t="shared" ref="L46:L49" si="32">(D46*L$6)+L$11+(E$45*L$5)+L$13</f>
         <v>18.96</v>
       </c>
       <c r="M46" s="58">
-        <f t="shared" ref="M46:M49" si="20">(D46*M$6)+M$11+(E$45*M$5)+M$13</f>
+        <f t="shared" ref="M46:M49" si="33">(D46*M$6)+M$11+(E$45*M$5)+M$13</f>
         <v>21.95</v>
       </c>
       <c r="N46" s="96">
-        <f t="shared" ref="N46:N48" si="21">($D46*N$6)+C$11+(E$45*N$5)+C$13</f>
+        <f t="shared" ref="N46:N48" si="34">($D46*N$6)+C$11+(E$45*N$5)+C$13</f>
         <v>5.3219999999999992</v>
       </c>
       <c r="O46" s="96">
-        <f t="shared" ref="O46:O49" si="22">($D46*O$6)+D$11+(E$45*O$5)+D$13</f>
+        <f t="shared" ref="O46:O49" si="35">($D46*O$6)+D$11+(E$45*O$5)+D$13</f>
         <v>4.99</v>
       </c>
     </row>
@@ -2996,24 +3306,36 @@
         <f>(D47*G$6)+G$11+(E$45*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H47" s="58">
+        <f t="shared" si="29"/>
+        <v>12.43</v>
+      </c>
+      <c r="I47" s="58">
+        <f t="shared" si="30"/>
+        <v>13.09</v>
+      </c>
+      <c r="J47" s="58">
+        <f t="shared" si="31"/>
+        <v>14.08</v>
+      </c>
       <c r="K47" s="58">
         <f>(D47*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L47" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>18.12</v>
       </c>
       <c r="M47" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>20.65</v>
       </c>
       <c r="N47" s="96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>4.734</v>
       </c>
       <c r="O47" s="96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>4.53</v>
       </c>
     </row>
@@ -3028,24 +3350,36 @@
         <f>(D48*G$6)+G$11+(E$45*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H48" s="58">
+        <f t="shared" si="29"/>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I48" s="58">
+        <f t="shared" si="30"/>
+        <v>11.855</v>
+      </c>
+      <c r="J48" s="58">
+        <f t="shared" si="31"/>
+        <v>12.26</v>
+      </c>
       <c r="K48" s="58">
         <f>(D48*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L48" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>15.39</v>
       </c>
       <c r="M48" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N48" s="96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>2.823</v>
       </c>
       <c r="O48" s="96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -3060,16 +3394,28 @@
         <f>(D49*G$6)+G$11+(E$45*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H49" s="63">
+        <f>(D49*H$6)+H$11+(E$45*H$5)+H$13</f>
+        <v>12.56</v>
+      </c>
+      <c r="I49" s="63">
+        <f t="shared" si="30"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J49" s="63">
+        <f t="shared" si="31"/>
+        <v>14.360000000000001</v>
+      </c>
       <c r="K49" s="63">
         <f>(D49*K$6)+K$11+(E$45*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L49" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>18.54</v>
       </c>
       <c r="M49" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N49" s="96">
@@ -3077,7 +3423,7 @@
         <v>5.0279999999999996</v>
       </c>
       <c r="O49" s="96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>4.76</v>
       </c>
     </row>
@@ -3100,6 +3446,18 @@
         <f>(D51*G$6)+G$11+(E$51*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
+      <c r="H51" s="58">
+        <f>(D51*H$6)+H$11+(E$51*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I51" s="58">
+        <f>(D51*I$6)+I$11+(E$51*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J51" s="58">
+        <f>(D51*J$6)+J$11+(E$51*J$5)+J$13</f>
+        <v>15.06</v>
+      </c>
       <c r="K51" s="58">
         <f>(D51*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>16.684000000000001</v>
@@ -3132,24 +3490,36 @@
         <f>(D52*G$6)+G$11+(E$51*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H52" s="58">
+        <f t="shared" ref="H52:H55" si="36">(D52*H$6)+H$11+(E$51*H$5)+H$13</f>
+        <v>12.43</v>
+      </c>
+      <c r="I52" s="58">
+        <f t="shared" ref="I52:I55" si="37">(D52*I$6)+I$11+(E$51*I$5)+I$13</f>
+        <v>13.09</v>
+      </c>
+      <c r="J52" s="58">
+        <f t="shared" ref="J52:J55" si="38">(D52*J$6)+J$11+(E$51*J$5)+J$13</f>
+        <v>14.08</v>
+      </c>
       <c r="K52" s="58">
         <f>(D52*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L52" s="58">
-        <f t="shared" ref="L52:L55" si="23">(D52*L$6)+L$11+(E$51*L$5)+L$13</f>
+        <f t="shared" ref="L52:L55" si="39">(D52*L$6)+L$11+(E$51*L$5)+L$13</f>
         <v>18.12</v>
       </c>
       <c r="M52" s="58">
-        <f t="shared" ref="M52:M55" si="24">(D52*M$6)+M$11+(E$51*M$5)+M$13</f>
+        <f t="shared" ref="M52:M55" si="40">(D52*M$6)+M$11+(E$51*M$5)+M$13</f>
         <v>20.65</v>
       </c>
       <c r="N52" s="96">
-        <f t="shared" ref="N52:N55" si="25">($D52*N$6)+C$11+(E$51*N$5)+C$13</f>
+        <f t="shared" ref="N52:N55" si="41">($D52*N$6)+C$11+(E$51*N$5)+C$13</f>
         <v>4.734</v>
       </c>
       <c r="O52" s="96">
-        <f t="shared" ref="O52:O55" si="26">($D52*O$6)+D$11+(E$51*O$5)+D$13</f>
+        <f t="shared" ref="O52:O55" si="42">($D52*O$6)+D$11+(E$51*O$5)+D$13</f>
         <v>4.53</v>
       </c>
     </row>
@@ -3164,24 +3534,36 @@
         <f>(D53*G$6)+G$11+(E$51*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H53" s="58">
+        <f t="shared" si="36"/>
+        <v>12.43</v>
+      </c>
+      <c r="I53" s="58">
+        <f t="shared" si="37"/>
+        <v>13.09</v>
+      </c>
+      <c r="J53" s="58">
+        <f t="shared" si="38"/>
+        <v>14.08</v>
+      </c>
       <c r="K53" s="58">
         <f>(D53*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L53" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>18.12</v>
       </c>
       <c r="M53" s="58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>20.65</v>
       </c>
       <c r="N53" s="96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>4.734</v>
       </c>
       <c r="O53" s="96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>4.53</v>
       </c>
     </row>
@@ -3196,24 +3578,36 @@
         <f>(D54*G$6)+G$11+(E$51*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H54" s="58">
+        <f t="shared" si="36"/>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I54" s="58">
+        <f t="shared" si="37"/>
+        <v>11.855</v>
+      </c>
+      <c r="J54" s="58">
+        <f t="shared" si="38"/>
+        <v>12.26</v>
+      </c>
       <c r="K54" s="58">
         <f>(D54*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L54" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>15.39</v>
       </c>
       <c r="M54" s="58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N54" s="96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>2.823</v>
       </c>
       <c r="O54" s="96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -3228,24 +3622,36 @@
         <f>(D55*G$6)+G$11+(E$51*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H55" s="63">
+        <f t="shared" si="36"/>
+        <v>12.56</v>
+      </c>
+      <c r="I55" s="63">
+        <f t="shared" si="37"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J55" s="63">
+        <f t="shared" si="38"/>
+        <v>14.360000000000001</v>
+      </c>
       <c r="K55" s="63">
         <f>(D55*K$6)+K$11+(E$51*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L55" s="63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>18.54</v>
       </c>
       <c r="M55" s="63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N55" s="96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>5.0279999999999996</v>
       </c>
       <c r="O55" s="96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>4.76</v>
       </c>
     </row>
@@ -3265,11 +3671,23 @@
         <v>6</v>
       </c>
       <c r="G57" s="58">
-        <f t="shared" ref="G57:G62" si="27">(D57*G$6)+G$12+(E$57*G$5)+G$13</f>
+        <f t="shared" ref="G57:G62" si="43">(D57*G$6)+G$12+(E$57*G$5)+G$13</f>
         <v>13.98</v>
       </c>
+      <c r="H57" s="58">
+        <f>(D57*H$6)+H$12+(E$57*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I57" s="58">
+        <f>(D57*I$6)+I$12+(E$57*I$5)+I$13</f>
+        <v>14.9</v>
+      </c>
+      <c r="J57" s="58">
+        <f>(D57*J$6)+J$12+(E$57*J$5)+J$13</f>
+        <v>15.8</v>
+      </c>
       <c r="K57" s="58">
-        <f t="shared" ref="K57:K62" si="28">(D57*K$6)+K$12+(E$57*K$5)+K$13</f>
+        <f t="shared" ref="K57:K62" si="44">(D57*K$6)+K$12+(E$57*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
       <c r="L57" s="58">
@@ -3297,27 +3715,39 @@
         <v>32</v>
       </c>
       <c r="G58" s="58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>14.862</v>
       </c>
+      <c r="H58" s="58">
+        <f t="shared" ref="H58:H62" si="45">(D58*H$6)+H$12+(E$57*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I58" s="58">
+        <f t="shared" ref="I58:I62" si="46">(D58*I$6)+I$12+(E$57*I$5)+I$13</f>
+        <v>16.61</v>
+      </c>
+      <c r="J58" s="58">
+        <f t="shared" ref="J58:J62" si="47">(D58*J$6)+J$12+(E$57*J$5)+J$13</f>
+        <v>18.32</v>
+      </c>
       <c r="K58" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>20.448</v>
       </c>
       <c r="L58" s="58">
-        <f t="shared" ref="L58:L62" si="29">(D58*L$6)+L$12+(E$57*L$5)+L$13</f>
+        <f t="shared" ref="L58:L62" si="48">(D58*L$6)+L$12+(E$57*L$5)+L$13</f>
         <v>24.48</v>
       </c>
       <c r="M58" s="58">
-        <f t="shared" ref="M58:M62" si="30">(D58*M$6)+M$12+(E$57*M$5)+M$13</f>
+        <f t="shared" ref="M58:M62" si="49">(D58*M$6)+M$12+(E$57*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N58" s="96">
-        <f t="shared" ref="N58:N62" si="31">($D58*N$6)+C$12+(E$57*N$5)+C$13</f>
+        <f t="shared" ref="N58:N62" si="50">($D58*N$6)+C$12+(E$57*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
       <c r="O58" s="96">
-        <f t="shared" ref="O58:O62" si="32">($D58*O$6)+D$12+(E$57*O$5)+D$13</f>
+        <f t="shared" ref="O58:O62" si="51">($D58*O$6)+D$12+(E$57*O$5)+D$13</f>
         <v>6.37</v>
       </c>
     </row>
@@ -3329,27 +3759,39 @@
         <v>13</v>
       </c>
       <c r="G59" s="58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H59" s="58">
+        <f t="shared" si="45"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I59" s="58">
+        <f t="shared" si="46"/>
+        <v>14.805</v>
+      </c>
+      <c r="J59" s="58">
+        <f t="shared" si="47"/>
+        <v>15.66</v>
+      </c>
       <c r="K59" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>16.724</v>
       </c>
       <c r="L59" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M59" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="49"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N59" s="96">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O59" s="96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -3361,23 +3803,35 @@
         <v>34</v>
       </c>
       <c r="G60" s="58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>14.96</v>
       </c>
+      <c r="H60" s="58">
+        <f t="shared" si="45"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I60" s="58">
+        <f t="shared" si="46"/>
+        <v>16.8</v>
+      </c>
+      <c r="J60" s="58">
+        <f t="shared" si="47"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="K60" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>20.840000000000003</v>
       </c>
       <c r="L60" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>24.900000000000002</v>
       </c>
       <c r="M60" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="49"/>
         <v>29.5</v>
       </c>
       <c r="N60" s="96">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>7.379999999999999</v>
       </c>
       <c r="O60" s="96">
@@ -3393,27 +3847,39 @@
         <v>13</v>
       </c>
       <c r="G61" s="58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H61" s="58">
+        <f t="shared" si="45"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I61" s="58">
+        <f t="shared" si="46"/>
+        <v>14.805</v>
+      </c>
+      <c r="J61" s="58">
+        <f t="shared" si="47"/>
+        <v>15.66</v>
+      </c>
       <c r="K61" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>16.724</v>
       </c>
       <c r="L61" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M61" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="49"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N61" s="96">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O61" s="96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -3425,27 +3891,39 @@
         <v>4</v>
       </c>
       <c r="G62" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>13.49</v>
       </c>
+      <c r="H62" s="63">
+        <f t="shared" si="45"/>
+        <v>13.65</v>
+      </c>
+      <c r="I62" s="63">
+        <f t="shared" si="46"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="J62" s="63">
+        <f t="shared" si="47"/>
+        <v>14.4</v>
+      </c>
       <c r="K62" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>14.96</v>
       </c>
       <c r="L62" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M62" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="49"/>
         <v>19.75</v>
       </c>
       <c r="N62" s="96">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="O62" s="96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>3.15</v>
       </c>
     </row>
@@ -3465,11 +3943,23 @@
         <v>6</v>
       </c>
       <c r="G64" s="58">
-        <f t="shared" ref="G64:G69" si="33">(D64*G$6)+G$12+(E$64*G$5)+G$13</f>
+        <f t="shared" ref="G64:G69" si="52">(D64*G$6)+G$12+(E$64*G$5)+G$13</f>
         <v>13.98</v>
       </c>
+      <c r="H64" s="58">
+        <f>(D64*H$6)+H$12+(E$64*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I64" s="58">
+        <f>(D64*I$6)+I$12+(E$64*I$5)+I$13</f>
+        <v>14.9</v>
+      </c>
+      <c r="J64" s="58">
+        <f>(D64*J$6)+J$12+(E$64*J$5)+J$13</f>
+        <v>15.8</v>
+      </c>
       <c r="K64" s="58">
-        <f t="shared" ref="K64:K69" si="34">(D64*K$6)+K$12+(E$64*K$5)+K$13</f>
+        <f t="shared" ref="K64:K69" si="53">(D64*K$6)+K$12+(E$64*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
       <c r="L64" s="58">
@@ -3497,27 +3987,39 @@
         <v>32</v>
       </c>
       <c r="G65" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>14.862</v>
       </c>
+      <c r="H65" s="58">
+        <f t="shared" ref="H65:H68" si="54">(D65*H$6)+H$12+(E$64*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I65" s="58">
+        <f t="shared" ref="I65:I69" si="55">(D65*I$6)+I$12+(E$64*I$5)+I$13</f>
+        <v>16.61</v>
+      </c>
+      <c r="J65" s="58">
+        <f t="shared" ref="J65:J69" si="56">(D65*J$6)+J$12+(E$64*J$5)+J$13</f>
+        <v>18.32</v>
+      </c>
       <c r="K65" s="58">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>20.448</v>
       </c>
       <c r="L65" s="58">
-        <f t="shared" ref="L65:L69" si="35">(D65*L$6)+L$12+(E$64*L$5)+L$13</f>
+        <f t="shared" ref="L65:L69" si="57">(D65*L$6)+L$12+(E$64*L$5)+L$13</f>
         <v>24.48</v>
       </c>
       <c r="M65" s="58">
-        <f t="shared" ref="M65:M69" si="36">(D65*M$6)+M$12+(E$64*M$5)+M$13</f>
+        <f t="shared" ref="M65:M69" si="58">(D65*M$6)+M$12+(E$64*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N65" s="96">
-        <f t="shared" ref="N65:N69" si="37">($D65*N$6)+C$12+(E$64*N$5)+C$13</f>
+        <f t="shared" ref="N65:N69" si="59">($D65*N$6)+C$12+(E$64*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
       <c r="O65" s="96">
-        <f t="shared" ref="O65:O69" si="38">($D65*O$6)+D$12+(E$64*O$5)+D$13</f>
+        <f t="shared" ref="O65:O69" si="60">($D65*O$6)+D$12+(E$64*O$5)+D$13</f>
         <v>6.37</v>
       </c>
     </row>
@@ -3529,27 +4031,39 @@
         <v>13</v>
       </c>
       <c r="G66" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H66" s="58">
+        <f t="shared" si="54"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I66" s="58">
+        <f t="shared" si="55"/>
+        <v>14.805</v>
+      </c>
+      <c r="J66" s="58">
+        <f t="shared" si="56"/>
+        <v>15.66</v>
+      </c>
       <c r="K66" s="58">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>16.724</v>
       </c>
       <c r="L66" s="58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M66" s="58">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N66" s="96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O66" s="96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -3561,27 +4075,39 @@
         <v>32</v>
       </c>
       <c r="G67" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>14.862</v>
       </c>
+      <c r="H67" s="58">
+        <f t="shared" si="54"/>
+        <v>15.47</v>
+      </c>
+      <c r="I67" s="58">
+        <f t="shared" si="55"/>
+        <v>16.61</v>
+      </c>
+      <c r="J67" s="58">
+        <f t="shared" si="56"/>
+        <v>18.32</v>
+      </c>
       <c r="K67" s="58">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>20.448</v>
       </c>
       <c r="L67" s="58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>24.48</v>
       </c>
       <c r="M67" s="58">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>28.849999999999998</v>
       </c>
       <c r="N67" s="96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>7.0859999999999994</v>
       </c>
       <c r="O67" s="96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>6.37</v>
       </c>
     </row>
@@ -3593,27 +4119,39 @@
         <v>13</v>
       </c>
       <c r="G68" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H68" s="58">
+        <f t="shared" si="54"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I68" s="58">
+        <f t="shared" si="55"/>
+        <v>14.805</v>
+      </c>
+      <c r="J68" s="58">
+        <f t="shared" si="56"/>
+        <v>15.66</v>
+      </c>
       <c r="K68" s="58">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>16.724</v>
       </c>
       <c r="L68" s="58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M68" s="58">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N68" s="96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O68" s="96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -3625,27 +4163,39 @@
         <v>4</v>
       </c>
       <c r="G69" s="63">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>13.49</v>
       </c>
+      <c r="H69" s="63">
+        <f>(D69*H$6)+H$12+(E$64*H$5)+H$13</f>
+        <v>13.65</v>
+      </c>
+      <c r="I69" s="63">
+        <f t="shared" si="55"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="J69" s="63">
+        <f t="shared" si="56"/>
+        <v>14.4</v>
+      </c>
       <c r="K69" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>14.96</v>
       </c>
       <c r="L69" s="58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="57"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M69" s="58">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>19.75</v>
       </c>
       <c r="N69" s="96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="59"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="O69" s="96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>3.15</v>
       </c>
     </row>
@@ -3668,6 +4218,18 @@
         <f>(D71*G$6)+G$11+(E$71*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
+      <c r="H71" s="58">
+        <f>(D71*H$6)+H$11+(E$71*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I71" s="58">
+        <f>(D71*I$6)+I$11+(E$71*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J71" s="58">
+        <f>(D71*J$6)+J$11+(E$71*J$5)+J$13</f>
+        <v>15.06</v>
+      </c>
       <c r="K71" s="58">
         <f>(D71*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>16.684000000000001</v>
@@ -3700,24 +4262,36 @@
         <f>(D72*G$6)+G$11+(E$71*G$5)+G$13</f>
         <v>12.274000000000001</v>
       </c>
+      <c r="H72" s="58">
+        <f t="shared" ref="H72:H75" si="61">(D72*H$6)+H$11+(E$71*H$5)+H$13</f>
+        <v>12.69</v>
+      </c>
+      <c r="I72" s="58">
+        <f t="shared" ref="I72:I75" si="62">(D72*I$6)+I$11+(E$71*I$5)+I$13</f>
+        <v>13.469999999999999</v>
+      </c>
+      <c r="J72" s="58">
+        <f t="shared" ref="J72:J75" si="63">(D72*J$6)+J$11+(E$71*J$5)+J$13</f>
+        <v>14.64</v>
+      </c>
       <c r="K72" s="58">
         <f>(D72*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>16.096</v>
       </c>
       <c r="L72" s="58">
-        <f t="shared" ref="L72:L75" si="39">(D72*L$6)+L$11+(E$71*L$5)+L$13</f>
+        <f t="shared" ref="L72:L75" si="64">(D72*L$6)+L$11+(E$71*L$5)+L$13</f>
         <v>18.96</v>
       </c>
       <c r="M72" s="58">
-        <f t="shared" ref="M72:M75" si="40">(D72*M$6)+M$11+(E$71*M$5)+M$13</f>
+        <f t="shared" ref="M72:M75" si="65">(D72*M$6)+M$11+(E$71*M$5)+M$13</f>
         <v>21.95</v>
       </c>
       <c r="N72" s="96">
-        <f t="shared" ref="N72:N75" si="41">($D72*N$6)+C$11+(E$71*N$5)+C$13</f>
+        <f t="shared" ref="N72:N75" si="66">($D72*N$6)+C$11+(E$71*N$5)+C$13</f>
         <v>5.3219999999999992</v>
       </c>
       <c r="O72" s="96">
-        <f t="shared" ref="O72:O75" si="42">($D72*O$6)+D$11+(E$71*O$5)+D$13</f>
+        <f t="shared" ref="O72:O75" si="67">($D72*O$6)+D$11+(E$71*O$5)+D$13</f>
         <v>4.99</v>
       </c>
     </row>
@@ -3732,24 +4306,36 @@
         <f>(D73*G$6)+G$11+(E$71*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H73" s="58">
+        <f t="shared" si="61"/>
+        <v>12.43</v>
+      </c>
+      <c r="I73" s="58">
+        <f t="shared" si="62"/>
+        <v>13.09</v>
+      </c>
+      <c r="J73" s="58">
+        <f t="shared" si="63"/>
+        <v>14.08</v>
+      </c>
       <c r="K73" s="58">
         <f>(D73*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L73" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="64"/>
         <v>18.12</v>
       </c>
       <c r="M73" s="58">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>20.65</v>
       </c>
       <c r="N73" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="66"/>
         <v>4.734</v>
       </c>
       <c r="O73" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="67"/>
         <v>4.53</v>
       </c>
     </row>
@@ -3764,24 +4350,36 @@
         <f>(D74*G$6)+G$11+(E$71*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H74" s="58">
+        <f t="shared" si="61"/>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I74" s="58">
+        <f t="shared" si="62"/>
+        <v>11.855</v>
+      </c>
+      <c r="J74" s="58">
+        <f t="shared" si="63"/>
+        <v>12.26</v>
+      </c>
       <c r="K74" s="58">
         <f>(D74*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L74" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="64"/>
         <v>15.39</v>
       </c>
       <c r="M74" s="58">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N74" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="66"/>
         <v>2.823</v>
       </c>
       <c r="O74" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="67"/>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -3796,24 +4394,36 @@
         <f>(D75*G$6)+G$11+(E$71*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H75" s="63">
+        <f t="shared" si="61"/>
+        <v>12.56</v>
+      </c>
+      <c r="I75" s="63">
+        <f t="shared" si="62"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J75" s="63">
+        <f t="shared" si="63"/>
+        <v>14.360000000000001</v>
+      </c>
       <c r="K75" s="63">
         <f>(D75*K$6)+K$11+(E$71*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L75" s="58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="64"/>
         <v>18.54</v>
       </c>
       <c r="M75" s="58">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N75" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="66"/>
         <v>5.0279999999999996</v>
       </c>
       <c r="O75" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="67"/>
         <v>4.76</v>
       </c>
     </row>
@@ -3836,6 +4446,18 @@
         <f>(D25*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
+      <c r="H77" s="58">
+        <f>(D25*H$6)+H$11+(E$25*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I77" s="58">
+        <f>(D25*I$6)+I$11+(E$25*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J77" s="58">
+        <f>(D25*J$6)+J$11+(E$25*J$5)+J$13</f>
+        <v>15.06</v>
+      </c>
       <c r="K77" s="58">
         <f>(D77*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>16.684000000000001</v>
@@ -3868,24 +4490,36 @@
         <f>(D26*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H78" s="58">
+        <f t="shared" ref="H78:H81" si="68">(D26*H$6)+H$11+(E$25*H$5)+H$13</f>
+        <v>12.43</v>
+      </c>
+      <c r="I78" s="58">
+        <f t="shared" ref="I78:I81" si="69">(D26*I$6)+I$11+(E$25*I$5)+I$13</f>
+        <v>13.09</v>
+      </c>
+      <c r="J78" s="58">
+        <f t="shared" ref="J78:J81" si="70">(D26*J$6)+J$11+(E$25*J$5)+J$13</f>
+        <v>14.08</v>
+      </c>
       <c r="K78" s="58">
         <f>(D78*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L78" s="58">
-        <f t="shared" ref="L78:L81" si="43">(D78*L$6)+L$11+(E$77*L$5)+L$13</f>
+        <f t="shared" ref="L78:L81" si="71">(D78*L$6)+L$11+(E$77*L$5)+L$13</f>
         <v>18.12</v>
       </c>
       <c r="M78" s="58">
-        <f t="shared" ref="M78:M81" si="44">(D78*M$6)+M$11+(E$77*M$5)+M$13</f>
+        <f t="shared" ref="M78:M81" si="72">(D78*M$6)+M$11+(E$77*M$5)+M$13</f>
         <v>20.65</v>
       </c>
       <c r="N78" s="96">
-        <f t="shared" ref="N78:N81" si="45">($D78*N$6)+C$11+(E$77*N$5)+C$13</f>
+        <f t="shared" ref="N78:N81" si="73">($D78*N$6)+C$11+(E$77*N$5)+C$13</f>
         <v>4.734</v>
       </c>
       <c r="O78" s="96">
-        <f t="shared" ref="O78:O81" si="46">($D78*O$6)+D$11+(E$77*O$5)+D$13</f>
+        <f t="shared" ref="O78:O81" si="74">($D78*O$6)+D$11+(E$77*O$5)+D$13</f>
         <v>4.53</v>
       </c>
     </row>
@@ -3900,24 +4534,36 @@
         <f>(D27*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H79" s="58">
+        <f t="shared" si="68"/>
+        <v>12.43</v>
+      </c>
+      <c r="I79" s="58">
+        <f t="shared" si="69"/>
+        <v>13.09</v>
+      </c>
+      <c r="J79" s="58">
+        <f t="shared" si="70"/>
+        <v>14.08</v>
+      </c>
       <c r="K79" s="58">
         <f>(D79*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L79" s="58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>18.12</v>
       </c>
       <c r="M79" s="58">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>20.65</v>
       </c>
       <c r="N79" s="96">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>4.734</v>
       </c>
       <c r="O79" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>4.53</v>
       </c>
     </row>
@@ -3932,24 +4578,36 @@
         <f>(D28*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H80" s="58">
+        <f t="shared" si="68"/>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I80" s="58">
+        <f t="shared" si="69"/>
+        <v>11.855</v>
+      </c>
+      <c r="J80" s="58">
+        <f t="shared" si="70"/>
+        <v>12.26</v>
+      </c>
       <c r="K80" s="58">
         <f>(D80*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L80" s="58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>15.39</v>
       </c>
       <c r="M80" s="58">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N80" s="96">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>2.823</v>
       </c>
       <c r="O80" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -3964,24 +4622,36 @@
         <f>(D29*G$6)+G$11+(E$25*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H81" s="63">
+        <f t="shared" si="68"/>
+        <v>12.56</v>
+      </c>
+      <c r="I81" s="63">
+        <f t="shared" si="69"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J81" s="63">
+        <f t="shared" si="70"/>
+        <v>14.360000000000001</v>
+      </c>
       <c r="K81" s="63">
         <f>(D81*K$6)+K$11+(E$77*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L81" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>18.54</v>
       </c>
       <c r="M81" s="63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N81" s="96">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>5.0279999999999996</v>
       </c>
       <c r="O81" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>4.76</v>
       </c>
     </row>
@@ -4001,11 +4671,23 @@
         <v>6</v>
       </c>
       <c r="G83" s="58">
-        <f t="shared" ref="G83:G88" si="47">(D83*G$6)+G$12+(E$83*G$5)+G$13</f>
+        <f t="shared" ref="G83:G88" si="75">(D83*G$6)+G$12+(E$83*G$5)+G$13</f>
         <v>13.98</v>
       </c>
+      <c r="H83" s="58">
+        <f>(D83*H$6)+H$12+(E$83*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I83" s="58">
+        <f>(D83*I$6)+I$12+(E$83*I$5)+I$13</f>
+        <v>14.9</v>
+      </c>
+      <c r="J83" s="58">
+        <f>(D83*J$6)+J$12+(E$83*J$5)+J$13</f>
+        <v>15.8</v>
+      </c>
       <c r="K83" s="58">
-        <f t="shared" ref="K83:K88" si="48">(D83*K$6)+K$12+(E$83*K$5)+K$13</f>
+        <f t="shared" ref="K83:K88" si="76">(D83*K$6)+K$12+(E$83*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
       <c r="L83" s="58">
@@ -4033,27 +4715,39 @@
         <v>32</v>
       </c>
       <c r="G84" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>14.862</v>
       </c>
+      <c r="H84" s="58">
+        <f t="shared" ref="H84:H88" si="77">(D84*H$6)+H$12+(E$83*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I84" s="58">
+        <f t="shared" ref="I84:I88" si="78">(D84*I$6)+I$12+(E$83*I$5)+I$13</f>
+        <v>16.61</v>
+      </c>
+      <c r="J84" s="58">
+        <f t="shared" ref="J84:J88" si="79">(D84*J$6)+J$12+(E$83*J$5)+J$13</f>
+        <v>18.32</v>
+      </c>
       <c r="K84" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>20.448</v>
       </c>
       <c r="L84" s="58">
-        <f t="shared" ref="L84:L88" si="49">(D84*L$6)+L$12+(E$83*L$5)+L$13</f>
+        <f t="shared" ref="L84:L88" si="80">(D84*L$6)+L$12+(E$83*L$5)+L$13</f>
         <v>24.48</v>
       </c>
       <c r="M84" s="58">
-        <f t="shared" ref="M84:M88" si="50">(D84*M$6)+M$12+(E$83*M$5)+M$13</f>
+        <f t="shared" ref="M84:M88" si="81">(D84*M$6)+M$12+(E$83*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N84" s="96">
-        <f t="shared" ref="N84:N88" si="51">($D84*N$6)+C$12+(E$83*N$5)+C$13</f>
+        <f t="shared" ref="N84:N88" si="82">($D84*N$6)+C$12+(E$83*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
       <c r="O84" s="96">
-        <f t="shared" ref="O84:O87" si="52">($D84*O$6)+D$12+(E$83*O$5)+D$13</f>
+        <f t="shared" ref="O84:O87" si="83">($D84*O$6)+D$12+(E$83*O$5)+D$13</f>
         <v>6.37</v>
       </c>
     </row>
@@ -4069,30 +4763,39 @@
       <c r="E85" s="52"/>
       <c r="F85" s="52"/>
       <c r="G85" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
+      <c r="H85" s="58">
+        <f t="shared" si="77"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I85" s="58">
+        <f t="shared" si="78"/>
+        <v>14.805</v>
+      </c>
+      <c r="J85" s="58">
+        <f t="shared" si="79"/>
+        <v>15.66</v>
+      </c>
       <c r="K85" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>16.724</v>
       </c>
       <c r="L85" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M85" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="81"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N85" s="96">
-        <f t="shared" si="51"/>
+        <f t="shared" si="82"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O85" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -4108,30 +4811,39 @@
       <c r="E86" s="52"/>
       <c r="F86" s="52"/>
       <c r="G86" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>14.96</v>
       </c>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
+      <c r="H86" s="58">
+        <f t="shared" si="77"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I86" s="58">
+        <f t="shared" si="78"/>
+        <v>16.8</v>
+      </c>
+      <c r="J86" s="58">
+        <f t="shared" si="79"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="K86" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>20.840000000000003</v>
       </c>
       <c r="L86" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>24.900000000000002</v>
       </c>
       <c r="M86" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="81"/>
         <v>29.5</v>
       </c>
       <c r="N86" s="96">
-        <f t="shared" si="51"/>
+        <f t="shared" si="82"/>
         <v>7.379999999999999</v>
       </c>
       <c r="O86" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>6.6000000000000005</v>
       </c>
     </row>
@@ -4147,30 +4859,39 @@
       <c r="E87" s="52"/>
       <c r="F87" s="52"/>
       <c r="G87" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>13.931000000000001</v>
       </c>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
+      <c r="H87" s="58">
+        <f t="shared" si="77"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I87" s="58">
+        <f t="shared" si="78"/>
+        <v>14.805</v>
+      </c>
+      <c r="J87" s="58">
+        <f t="shared" si="79"/>
+        <v>15.66</v>
+      </c>
       <c r="K87" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>16.724</v>
       </c>
       <c r="L87" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M87" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="81"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N87" s="96">
-        <f t="shared" si="51"/>
+        <f t="shared" si="82"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O87" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -4186,26 +4907,35 @@
       <c r="E88" s="52"/>
       <c r="F88" s="52"/>
       <c r="G88" s="63">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>13.49</v>
       </c>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
+      <c r="H88" s="63">
+        <f t="shared" si="77"/>
+        <v>13.65</v>
+      </c>
+      <c r="I88" s="63">
+        <f t="shared" si="78"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="J88" s="63">
+        <f t="shared" si="79"/>
+        <v>14.4</v>
+      </c>
       <c r="K88" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>14.96</v>
       </c>
       <c r="L88" s="63">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M88" s="63">
-        <f t="shared" si="50"/>
+        <f t="shared" si="81"/>
         <v>19.75</v>
       </c>
       <c r="N88" s="96">
-        <f t="shared" si="51"/>
+        <f t="shared" si="82"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="O88" s="96">
@@ -4243,14 +4973,23 @@
       </c>
       <c r="F90" s="52"/>
       <c r="G90" s="58">
-        <f t="shared" ref="G90:G95" si="53">(D90*G$6)+G$12+(E$90*G$5)+G$13</f>
+        <f t="shared" ref="G90:G95" si="84">(D90*G$6)+G$12+(E$90*G$5)+G$13</f>
         <v>13.98</v>
       </c>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
+      <c r="H90" s="58">
+        <f>(D90*H$6)+H$12+(E$90*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I90" s="58">
+        <f>(D90*I$6)+I$12+(E$90*I$5)+I$13</f>
+        <v>14.9</v>
+      </c>
+      <c r="J90" s="58">
+        <f>(D90*J$6)+J$12+(E$90*J$5)+J$13</f>
+        <v>15.8</v>
+      </c>
       <c r="K90" s="58">
-        <f t="shared" ref="K90:K95" si="54">(D90*K$6)+K$12+(E$90*K$5)+K$13</f>
+        <f t="shared" ref="K90:K95" si="85">(D90*K$6)+K$12+(E$90*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
       <c r="L90" s="58">
@@ -4282,30 +5021,39 @@
       <c r="E91" s="52"/>
       <c r="F91" s="52"/>
       <c r="G91" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>14.862</v>
       </c>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
+      <c r="H91" s="58">
+        <f t="shared" ref="H91:H95" si="86">(D91*H$6)+H$12+(E$90*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I91" s="58">
+        <f t="shared" ref="I91:I95" si="87">(D91*I$6)+I$12+(E$90*I$5)+I$13</f>
+        <v>16.61</v>
+      </c>
+      <c r="J91" s="58">
+        <f t="shared" ref="J91:J95" si="88">(D91*J$6)+J$12+(E$90*J$5)+J$13</f>
+        <v>18.32</v>
+      </c>
       <c r="K91" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>20.448</v>
       </c>
       <c r="L91" s="58">
-        <f t="shared" ref="L91:L95" si="55">(D91*L$6)+L$12+(E$90*L$5)+L$13</f>
+        <f t="shared" ref="L91:L95" si="89">(D91*L$6)+L$12+(E$90*L$5)+L$13</f>
         <v>24.48</v>
       </c>
       <c r="M91" s="58">
-        <f t="shared" ref="M91:M95" si="56">(D91*M$6)+M$12+(E$90*M$5)+M$13</f>
+        <f t="shared" ref="M91:M95" si="90">(D91*M$6)+M$12+(E$90*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N91" s="96">
-        <f t="shared" ref="N91:N95" si="57">($D91*N$6)+C$12+(E$90*N$5)+C$13</f>
+        <f t="shared" ref="N91:N95" si="91">($D91*N$6)+C$12+(E$90*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
       <c r="O91" s="96">
-        <f t="shared" ref="O91:O95" si="58">($D91*O$6)+D$12+(E$90*O$5)+D$13</f>
+        <f t="shared" ref="O91:O95" si="92">($D91*O$6)+D$12+(E$90*O$5)+D$13</f>
         <v>6.37</v>
       </c>
     </row>
@@ -4317,27 +5065,39 @@
         <v>13</v>
       </c>
       <c r="G92" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H92" s="58">
+        <f t="shared" si="86"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I92" s="58">
+        <f t="shared" si="87"/>
+        <v>14.805</v>
+      </c>
+      <c r="J92" s="58">
+        <f t="shared" si="88"/>
+        <v>15.66</v>
+      </c>
       <c r="K92" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>16.724</v>
       </c>
       <c r="L92" s="58">
-        <f t="shared" si="55"/>
+        <f t="shared" si="89"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M92" s="58">
-        <f t="shared" si="56"/>
+        <f t="shared" si="90"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N92" s="96">
-        <f t="shared" si="57"/>
+        <f t="shared" si="91"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O92" s="96">
-        <f t="shared" si="58"/>
+        <f t="shared" si="92"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -4349,27 +5109,39 @@
         <v>32</v>
       </c>
       <c r="G93" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>14.862</v>
       </c>
+      <c r="H93" s="58">
+        <f t="shared" si="86"/>
+        <v>15.47</v>
+      </c>
+      <c r="I93" s="58">
+        <f t="shared" si="87"/>
+        <v>16.61</v>
+      </c>
+      <c r="J93" s="58">
+        <f t="shared" si="88"/>
+        <v>18.32</v>
+      </c>
       <c r="K93" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>20.448</v>
       </c>
       <c r="L93" s="58">
-        <f t="shared" si="55"/>
+        <f t="shared" si="89"/>
         <v>24.48</v>
       </c>
       <c r="M93" s="58">
-        <f t="shared" si="56"/>
+        <f t="shared" si="90"/>
         <v>28.849999999999998</v>
       </c>
       <c r="N93" s="96">
-        <f t="shared" si="57"/>
+        <f t="shared" si="91"/>
         <v>7.0859999999999994</v>
       </c>
       <c r="O93" s="96">
-        <f t="shared" si="58"/>
+        <f t="shared" si="92"/>
         <v>6.37</v>
       </c>
     </row>
@@ -4381,27 +5153,39 @@
         <v>13</v>
       </c>
       <c r="G94" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H94" s="58">
+        <f t="shared" si="86"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I94" s="58">
+        <f t="shared" si="87"/>
+        <v>14.805</v>
+      </c>
+      <c r="J94" s="58">
+        <f t="shared" si="88"/>
+        <v>15.66</v>
+      </c>
       <c r="K94" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>16.724</v>
       </c>
       <c r="L94" s="58">
-        <f t="shared" si="55"/>
+        <f t="shared" si="89"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M94" s="58">
-        <f t="shared" si="56"/>
+        <f t="shared" si="90"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N94" s="96">
-        <f t="shared" si="57"/>
+        <f t="shared" si="91"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O94" s="96">
-        <f t="shared" si="58"/>
+        <f t="shared" si="92"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -4413,27 +5197,39 @@
         <v>4</v>
       </c>
       <c r="G95" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>13.49</v>
       </c>
+      <c r="H95" s="63">
+        <f t="shared" si="86"/>
+        <v>13.65</v>
+      </c>
+      <c r="I95" s="63">
+        <f t="shared" si="87"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="J95" s="63">
+        <f t="shared" si="88"/>
+        <v>14.4</v>
+      </c>
       <c r="K95" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>14.96</v>
       </c>
       <c r="L95" s="58">
-        <f t="shared" si="55"/>
+        <f t="shared" si="89"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M95" s="58">
-        <f t="shared" si="56"/>
+        <f t="shared" si="90"/>
         <v>19.75</v>
       </c>
       <c r="N95" s="96">
-        <f t="shared" si="57"/>
+        <f t="shared" si="91"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="O95" s="96">
-        <f t="shared" si="58"/>
+        <f t="shared" si="92"/>
         <v>3.15</v>
       </c>
     </row>
@@ -4455,6 +5251,18 @@
         <f>(D97*G$6)+G$11+(E$97*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
+      <c r="H97" s="58">
+        <f>(D97*H$6)+H$11+(E$97*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I97" s="58">
+        <f>(D97*I$6)+I$11+(E$97*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J97" s="58">
+        <f>(D97*J$6)+J$11+(E$97*J$5)+J$13</f>
+        <v>15.06</v>
+      </c>
       <c r="K97" s="58">
         <f>(D97*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>16.684000000000001</v>
@@ -4487,24 +5295,36 @@
         <f>(D98*G$6)+G$11+(E$97*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H98" s="58">
+        <f t="shared" ref="H98:H101" si="93">(D98*H$6)+H$11+(E$97*H$5)+H$13</f>
+        <v>12.43</v>
+      </c>
+      <c r="I98" s="58">
+        <f t="shared" ref="I98:I101" si="94">(D98*I$6)+I$11+(E$97*I$5)+I$13</f>
+        <v>13.09</v>
+      </c>
+      <c r="J98" s="58">
+        <f t="shared" ref="J98:J101" si="95">(D98*J$6)+J$11+(E$97*J$5)+J$13</f>
+        <v>14.08</v>
+      </c>
       <c r="K98" s="58">
         <f>(D98*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L98" s="58">
-        <f t="shared" ref="L98:L101" si="59">(D98*L$6)+L$11+(E$97*L$5)+L$13</f>
+        <f t="shared" ref="L98:L101" si="96">(D98*L$6)+L$11+(E$97*L$5)+L$13</f>
         <v>18.12</v>
       </c>
       <c r="M98" s="58">
-        <f t="shared" ref="M98:M101" si="60">(D98*M$6)+M$11+(E$97*M$5)+M$13</f>
+        <f t="shared" ref="M98:M101" si="97">(D98*M$6)+M$11+(E$97*M$5)+M$13</f>
         <v>20.65</v>
       </c>
       <c r="N98" s="96">
-        <f t="shared" ref="N98:N101" si="61">($D98*N$6)+C$11+(E$97*N$5)+C$13</f>
+        <f t="shared" ref="N98:N101" si="98">($D98*N$6)+C$11+(E$97*N$5)+C$13</f>
         <v>4.734</v>
       </c>
       <c r="O98" s="96">
-        <f t="shared" ref="O98:O101" si="62">($D98*O$6)+D$11+(E$97*O$5)+D$13</f>
+        <f t="shared" ref="O98:O101" si="99">($D98*O$6)+D$11+(E$97*O$5)+D$13</f>
         <v>4.53</v>
       </c>
     </row>
@@ -4519,24 +5339,36 @@
         <f>(D99*G$6)+G$11+(E$97*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H99" s="58">
+        <f t="shared" si="93"/>
+        <v>12.43</v>
+      </c>
+      <c r="I99" s="58">
+        <f t="shared" si="94"/>
+        <v>13.09</v>
+      </c>
+      <c r="J99" s="58">
+        <f t="shared" si="95"/>
+        <v>14.08</v>
+      </c>
       <c r="K99" s="58">
         <f>(D99*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L99" s="58">
-        <f t="shared" si="59"/>
+        <f t="shared" si="96"/>
         <v>18.12</v>
       </c>
       <c r="M99" s="58">
-        <f t="shared" si="60"/>
+        <f t="shared" si="97"/>
         <v>20.65</v>
       </c>
       <c r="N99" s="96">
-        <f t="shared" si="61"/>
+        <f t="shared" si="98"/>
         <v>4.734</v>
       </c>
       <c r="O99" s="96">
-        <f t="shared" si="62"/>
+        <f t="shared" si="99"/>
         <v>4.53</v>
       </c>
     </row>
@@ -4551,24 +5383,36 @@
         <f>(D100*G$6)+G$11+(E$97*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H100" s="58">
+        <f t="shared" si="93"/>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I100" s="58">
+        <f t="shared" si="94"/>
+        <v>11.855</v>
+      </c>
+      <c r="J100" s="58">
+        <f t="shared" si="95"/>
+        <v>12.26</v>
+      </c>
       <c r="K100" s="58">
         <f>(D100*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L100" s="58">
-        <f t="shared" si="59"/>
+        <f t="shared" si="96"/>
         <v>15.39</v>
       </c>
       <c r="M100" s="58">
-        <f t="shared" si="60"/>
+        <f t="shared" si="97"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N100" s="96">
-        <f t="shared" si="61"/>
+        <f t="shared" si="98"/>
         <v>2.823</v>
       </c>
       <c r="O100" s="96">
-        <f t="shared" si="62"/>
+        <f t="shared" si="99"/>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -4583,24 +5427,36 @@
         <f>(D101*G$6)+G$11+(E$97*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H101" s="63">
+        <f t="shared" si="93"/>
+        <v>12.56</v>
+      </c>
+      <c r="I101" s="63">
+        <f t="shared" si="94"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J101" s="63">
+        <f t="shared" si="95"/>
+        <v>14.360000000000001</v>
+      </c>
       <c r="K101" s="63">
         <f>(D101*K$6)+K$11+(E$97*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L101" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" si="96"/>
         <v>18.54</v>
       </c>
       <c r="M101" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="97"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N101" s="96">
-        <f t="shared" si="61"/>
+        <f t="shared" si="98"/>
         <v>5.0279999999999996</v>
       </c>
       <c r="O101" s="96">
-        <f t="shared" si="62"/>
+        <f t="shared" si="99"/>
         <v>4.76</v>
       </c>
     </row>
@@ -4622,6 +5478,18 @@
         <f>(D103*G$6)+G$11+(E$103*G$5)+G$13</f>
         <v>12.420999999999999</v>
       </c>
+      <c r="H103" s="58">
+        <f>(D103*H$6)+H$11+(E$103*H$5)+H$13</f>
+        <v>12.885</v>
+      </c>
+      <c r="I103" s="58">
+        <f>(D103*I$6)+I$11+(E$103*I$5)+I$13</f>
+        <v>13.754999999999999</v>
+      </c>
+      <c r="J103" s="58">
+        <f>(D103*J$6)+J$11+(E$103*J$5)+J$13</f>
+        <v>15.06</v>
+      </c>
       <c r="K103" s="58">
         <f>(D103*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>16.684000000000001</v>
@@ -4654,24 +5522,36 @@
         <f>(D104*G$6)+G$11+(E$103*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H104" s="58">
+        <f t="shared" ref="H104:H107" si="100">(D104*H$6)+H$11+(E$103*H$5)+H$13</f>
+        <v>12.43</v>
+      </c>
+      <c r="I104" s="58">
+        <f t="shared" ref="I104:I107" si="101">(D104*I$6)+I$11+(E$103*I$5)+I$13</f>
+        <v>13.09</v>
+      </c>
+      <c r="J104" s="58">
+        <f t="shared" ref="J104:J107" si="102">(D104*J$6)+J$11+(E$103*J$5)+J$13</f>
+        <v>14.08</v>
+      </c>
       <c r="K104" s="58">
         <f>(D104*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L104" s="58">
-        <f t="shared" ref="L104:L107" si="63">(D104*L$6)+L$11+(E$103*L$5)+L$13</f>
+        <f t="shared" ref="L104:L107" si="103">(D104*L$6)+L$11+(E$103*L$5)+L$13</f>
         <v>18.12</v>
       </c>
       <c r="M104" s="58">
-        <f t="shared" ref="M104:M107" si="64">(D104*M$6)+M$11+(E$103*M$5)+M$13</f>
+        <f t="shared" ref="M104:M107" si="104">(D104*M$6)+M$11+(E$103*M$5)+M$13</f>
         <v>20.65</v>
       </c>
       <c r="N104" s="96">
-        <f t="shared" ref="N104:N107" si="65">($D104*N$6)+C$11+(E$103*N$5)+C$13</f>
+        <f t="shared" ref="N104:N107" si="105">($D104*N$6)+C$11+(E$103*N$5)+C$13</f>
         <v>4.734</v>
       </c>
       <c r="O104" s="96">
-        <f t="shared" ref="O104:O107" si="66">($D104*O$6)+D$11+(E$103*O$5)+D$13</f>
+        <f t="shared" ref="O104:O107" si="106">($D104*O$6)+D$11+(E$103*O$5)+D$13</f>
         <v>4.53</v>
       </c>
     </row>
@@ -4686,24 +5566,36 @@
         <f>(D105*G$6)+G$11+(E$103*G$5)+G$13</f>
         <v>12.077999999999999</v>
       </c>
+      <c r="H105" s="58">
+        <f t="shared" si="100"/>
+        <v>12.43</v>
+      </c>
+      <c r="I105" s="58">
+        <f t="shared" si="101"/>
+        <v>13.09</v>
+      </c>
+      <c r="J105" s="58">
+        <f t="shared" si="102"/>
+        <v>14.08</v>
+      </c>
       <c r="K105" s="58">
         <f>(D105*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>15.311999999999999</v>
       </c>
       <c r="L105" s="58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="103"/>
         <v>18.12</v>
       </c>
       <c r="M105" s="58">
-        <f t="shared" si="64"/>
+        <f t="shared" si="104"/>
         <v>20.65</v>
       </c>
       <c r="N105" s="96">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>4.734</v>
       </c>
       <c r="O105" s="96">
-        <f t="shared" si="66"/>
+        <f t="shared" si="106"/>
         <v>4.53</v>
       </c>
     </row>
@@ -4718,24 +5610,36 @@
         <f>(D106*G$6)+G$11+(E$103*G$5)+G$13</f>
         <v>11.441000000000001</v>
       </c>
+      <c r="H106" s="58">
+        <f t="shared" si="100"/>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="I106" s="58">
+        <f t="shared" si="101"/>
+        <v>11.855</v>
+      </c>
+      <c r="J106" s="58">
+        <f t="shared" si="102"/>
+        <v>12.26</v>
+      </c>
       <c r="K106" s="58">
         <f>(D106*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>12.763999999999999</v>
       </c>
       <c r="L106" s="58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="103"/>
         <v>15.39</v>
       </c>
       <c r="M106" s="58">
-        <f t="shared" si="64"/>
+        <f t="shared" si="104"/>
         <v>16.425000000000001</v>
       </c>
       <c r="N106" s="96">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>2.823</v>
       </c>
       <c r="O106" s="96">
-        <f t="shared" si="66"/>
+        <f t="shared" si="106"/>
         <v>3.0350000000000001</v>
       </c>
     </row>
@@ -4750,24 +5654,36 @@
         <f>(D107*G$6)+G$11+(E$103*G$5)+G$13</f>
         <v>12.176</v>
       </c>
+      <c r="H107" s="63">
+        <f t="shared" si="100"/>
+        <v>12.56</v>
+      </c>
+      <c r="I107" s="63">
+        <f t="shared" si="101"/>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="J107" s="63">
+        <f t="shared" si="102"/>
+        <v>14.360000000000001</v>
+      </c>
       <c r="K107" s="63">
         <f>(D107*K$6)+K$11+(E$103*K$5)+K$13</f>
         <v>15.704000000000001</v>
       </c>
       <c r="L107" s="58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="103"/>
         <v>18.54</v>
       </c>
       <c r="M107" s="58">
-        <f t="shared" si="64"/>
+        <f t="shared" si="104"/>
         <v>21.299999999999997</v>
       </c>
       <c r="N107" s="96">
-        <f t="shared" si="65"/>
+        <f t="shared" si="105"/>
         <v>5.0279999999999996</v>
       </c>
       <c r="O107" s="96">
-        <f t="shared" si="66"/>
+        <f t="shared" si="106"/>
         <v>4.76</v>
       </c>
     </row>
@@ -4786,11 +5702,23 @@
         <v>6</v>
       </c>
       <c r="G109" s="58">
-        <f t="shared" ref="G109:G114" si="67">(D109*G$6)+G$12+(E$109*G$5)+G$13</f>
+        <f t="shared" ref="G109:G114" si="107">(D109*G$6)+G$12+(E$109*G$5)+G$13</f>
         <v>13.98</v>
       </c>
+      <c r="H109" s="58">
+        <f>(D109*H$6)+H$12+(E$109*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I109" s="58">
+        <f>(D109*I$6)+I$12+(E$109*I$5)+I$13</f>
+        <v>14.9</v>
+      </c>
+      <c r="J109" s="58">
+        <f>(D109*J$6)+J$12+(E$109*J$5)+J$13</f>
+        <v>15.8</v>
+      </c>
       <c r="K109" s="58">
-        <f t="shared" ref="K109:K114" si="68">(D109*K$6)+K$12+(E$109*K$5)+K$13</f>
+        <f t="shared" ref="K109:K114" si="108">(D109*K$6)+K$12+(E$109*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
       <c r="L109" s="58">
@@ -4818,27 +5746,39 @@
         <v>32</v>
       </c>
       <c r="G110" s="58">
-        <f t="shared" si="67"/>
+        <f t="shared" si="107"/>
         <v>14.862</v>
       </c>
+      <c r="H110" s="58">
+        <f t="shared" ref="H110:H114" si="109">(D110*H$6)+H$12+(E$109*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I110" s="58">
+        <f t="shared" ref="I110:I114" si="110">(D110*I$6)+I$12+(E$109*I$5)+I$13</f>
+        <v>16.61</v>
+      </c>
+      <c r="J110" s="58">
+        <f t="shared" ref="J110:J114" si="111">(D110*J$6)+J$12+(E$109*J$5)+J$13</f>
+        <v>18.32</v>
+      </c>
       <c r="K110" s="58">
-        <f t="shared" si="68"/>
+        <f t="shared" si="108"/>
         <v>20.448</v>
       </c>
       <c r="L110" s="58">
-        <f t="shared" ref="L110:L114" si="69">(D110*L$6)+L$12+(E$109*L$5)+L$13</f>
+        <f t="shared" ref="L110:L114" si="112">(D110*L$6)+L$12+(E$109*L$5)+L$13</f>
         <v>24.48</v>
       </c>
       <c r="M110" s="58">
-        <f t="shared" ref="M110:M114" si="70">(D110*M$6)+M$12+(E$109*M$5)+M$13</f>
+        <f t="shared" ref="M110:M114" si="113">(D110*M$6)+M$12+(E$109*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N110" s="96">
-        <f t="shared" ref="N110:N114" si="71">($D110*N$6)+C$12+(E$109*N$5)+C$13</f>
+        <f t="shared" ref="N110:N114" si="114">($D110*N$6)+C$12+(E$109*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
       <c r="O110" s="96">
-        <f t="shared" ref="O110:O114" si="72">($D110*O$6)+D$12+(E$109*O$5)+D$13</f>
+        <f t="shared" ref="O110:O114" si="115">($D110*O$6)+D$12+(E$109*O$5)+D$13</f>
         <v>6.37</v>
       </c>
     </row>
@@ -4850,27 +5790,39 @@
         <v>13</v>
       </c>
       <c r="G111" s="58">
-        <f t="shared" si="67"/>
+        <f t="shared" si="107"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H111" s="58">
+        <f t="shared" si="109"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I111" s="58">
+        <f t="shared" si="110"/>
+        <v>14.805</v>
+      </c>
+      <c r="J111" s="58">
+        <f t="shared" si="111"/>
+        <v>15.66</v>
+      </c>
       <c r="K111" s="58">
-        <f t="shared" si="68"/>
+        <f t="shared" si="108"/>
         <v>16.724</v>
       </c>
       <c r="L111" s="58">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M111" s="58">
-        <f t="shared" si="70"/>
+        <f t="shared" si="113"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N111" s="96">
-        <f t="shared" si="71"/>
+        <f t="shared" si="114"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O111" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="115"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -4882,27 +5834,39 @@
         <v>34</v>
       </c>
       <c r="G112" s="58">
-        <f t="shared" si="67"/>
+        <f t="shared" si="107"/>
         <v>14.96</v>
       </c>
+      <c r="H112" s="58">
+        <f t="shared" si="109"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I112" s="58">
+        <f t="shared" si="110"/>
+        <v>16.8</v>
+      </c>
+      <c r="J112" s="58">
+        <f t="shared" si="111"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="K112" s="58">
-        <f t="shared" si="68"/>
+        <f t="shared" si="108"/>
         <v>20.840000000000003</v>
       </c>
       <c r="L112" s="58">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>24.900000000000002</v>
       </c>
       <c r="M112" s="58">
-        <f t="shared" si="70"/>
+        <f t="shared" si="113"/>
         <v>29.5</v>
       </c>
       <c r="N112" s="96">
-        <f t="shared" si="71"/>
+        <f t="shared" si="114"/>
         <v>7.379999999999999</v>
       </c>
       <c r="O112" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="115"/>
         <v>6.6000000000000005</v>
       </c>
     </row>
@@ -4914,27 +5878,39 @@
         <v>13</v>
       </c>
       <c r="G113" s="58">
-        <f t="shared" si="67"/>
+        <f t="shared" si="107"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H113" s="58">
+        <f t="shared" si="109"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I113" s="58">
+        <f t="shared" si="110"/>
+        <v>14.805</v>
+      </c>
+      <c r="J113" s="58">
+        <f t="shared" si="111"/>
+        <v>15.66</v>
+      </c>
       <c r="K113" s="58">
-        <f t="shared" si="68"/>
+        <f t="shared" si="108"/>
         <v>16.724</v>
       </c>
       <c r="L113" s="58">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M113" s="58">
-        <f t="shared" si="70"/>
+        <f t="shared" si="113"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N113" s="96">
-        <f t="shared" si="71"/>
+        <f t="shared" si="114"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O113" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="115"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -4946,27 +5922,39 @@
         <v>4</v>
       </c>
       <c r="G114" s="63">
-        <f t="shared" si="67"/>
+        <f t="shared" si="107"/>
         <v>13.49</v>
       </c>
+      <c r="H114" s="63">
+        <f t="shared" si="109"/>
+        <v>13.65</v>
+      </c>
+      <c r="I114" s="63">
+        <f t="shared" si="110"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="J114" s="63">
+        <f t="shared" si="111"/>
+        <v>14.4</v>
+      </c>
       <c r="K114" s="63">
-        <f t="shared" si="68"/>
+        <f t="shared" si="108"/>
         <v>14.96</v>
       </c>
       <c r="L114" s="63">
-        <f t="shared" si="69"/>
+        <f t="shared" si="112"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M114" s="63">
-        <f t="shared" si="70"/>
+        <f t="shared" si="113"/>
         <v>19.75</v>
       </c>
       <c r="N114" s="96">
-        <f t="shared" si="71"/>
+        <f t="shared" si="114"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="O114" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="115"/>
         <v>3.15</v>
       </c>
     </row>
@@ -4985,11 +5973,23 @@
         <v>6</v>
       </c>
       <c r="G116" s="58">
-        <f t="shared" ref="G116:G121" si="73">(D116*G$6)+G$12+(E$116*G$5)+G$13</f>
+        <f t="shared" ref="G116:G121" si="116">(D116*G$6)+G$12+(E$116*G$5)+G$13</f>
         <v>13.98</v>
       </c>
+      <c r="H116" s="58">
+        <f>(D116*H$6)+H$12+(E$116*H$5)+H$13</f>
+        <v>14.3</v>
+      </c>
+      <c r="I116" s="58">
+        <f>(D116*I$6)+I$12+(E$116*I$5)+I$13</f>
+        <v>14.9</v>
+      </c>
+      <c r="J116" s="58">
+        <f>(D116*J$6)+J$12+(E$116*J$5)+J$13</f>
+        <v>15.8</v>
+      </c>
       <c r="K116" s="58">
-        <f t="shared" ref="K116:K121" si="74">(D116*K$6)+K$12+(E$116*K$5)+K$13</f>
+        <f t="shared" ref="K116:K121" si="117">(D116*K$6)+K$12+(E$116*K$5)+K$13</f>
         <v>16.920000000000002</v>
       </c>
       <c r="L116" s="58">
@@ -5017,27 +6017,39 @@
         <v>32</v>
       </c>
       <c r="G117" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="116"/>
         <v>14.862</v>
       </c>
+      <c r="H117" s="58">
+        <f t="shared" ref="H117:H121" si="118">(D117*H$6)+H$12+(E$116*H$5)+H$13</f>
+        <v>15.47</v>
+      </c>
+      <c r="I117" s="58">
+        <f t="shared" ref="I117:I121" si="119">(D117*I$6)+I$12+(E$116*I$5)+I$13</f>
+        <v>16.61</v>
+      </c>
+      <c r="J117" s="58">
+        <f t="shared" ref="J117:J121" si="120">(D117*J$6)+J$12+(E$116*J$5)+J$13</f>
+        <v>18.32</v>
+      </c>
       <c r="K117" s="58">
-        <f t="shared" si="74"/>
+        <f t="shared" si="117"/>
         <v>20.448</v>
       </c>
       <c r="L117" s="58">
-        <f t="shared" ref="L117:L121" si="75">(D117*L$6)+L$12+(E$116*L$5)+L$13</f>
+        <f t="shared" ref="L117:L121" si="121">(D117*L$6)+L$12+(E$116*L$5)+L$13</f>
         <v>24.48</v>
       </c>
       <c r="M117" s="58">
-        <f t="shared" ref="M117:M121" si="76">(D117*M$6)+M$12+(E$116*M$5)+M$13</f>
+        <f t="shared" ref="M117:M121" si="122">(D117*M$6)+M$12+(E$116*M$5)+M$13</f>
         <v>28.849999999999998</v>
       </c>
       <c r="N117" s="96">
-        <f t="shared" ref="N117:N121" si="77">($D117*N$6)+C$12+(E$116*N$5)+C$13</f>
+        <f t="shared" ref="N117:N121" si="123">($D117*N$6)+C$12+(E$116*N$5)+C$13</f>
         <v>7.0859999999999994</v>
       </c>
       <c r="O117" s="96">
-        <f t="shared" ref="O117:O121" si="78">($D117*O$6)+D$12+(E$116*O$5)+D$13</f>
+        <f t="shared" ref="O117:O121" si="124">($D117*O$6)+D$12+(E$116*O$5)+D$13</f>
         <v>6.37</v>
       </c>
     </row>
@@ -5049,27 +6061,39 @@
         <v>13</v>
       </c>
       <c r="G118" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="116"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H118" s="58">
+        <f t="shared" si="118"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I118" s="58">
+        <f t="shared" si="119"/>
+        <v>14.805</v>
+      </c>
+      <c r="J118" s="58">
+        <f t="shared" si="120"/>
+        <v>15.66</v>
+      </c>
       <c r="K118" s="58">
-        <f t="shared" si="74"/>
+        <f t="shared" si="117"/>
         <v>16.724</v>
       </c>
       <c r="L118" s="58">
-        <f t="shared" si="75"/>
+        <f t="shared" si="121"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M118" s="58">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N118" s="96">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O118" s="96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="124"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -5081,27 +6105,39 @@
         <v>34</v>
       </c>
       <c r="G119" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="116"/>
         <v>14.96</v>
       </c>
+      <c r="H119" s="58">
+        <f t="shared" si="118"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I119" s="58">
+        <f t="shared" si="119"/>
+        <v>16.8</v>
+      </c>
+      <c r="J119" s="58">
+        <f t="shared" si="120"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="K119" s="58">
-        <f t="shared" si="74"/>
+        <f t="shared" si="117"/>
         <v>20.840000000000003</v>
       </c>
       <c r="L119" s="58">
-        <f t="shared" si="75"/>
+        <f t="shared" si="121"/>
         <v>24.900000000000002</v>
       </c>
       <c r="M119" s="58">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>29.5</v>
       </c>
       <c r="N119" s="96">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>7.379999999999999</v>
       </c>
       <c r="O119" s="96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="124"/>
         <v>6.6000000000000005</v>
       </c>
     </row>
@@ -5113,27 +6149,39 @@
         <v>13</v>
       </c>
       <c r="G120" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="116"/>
         <v>13.931000000000001</v>
       </c>
+      <c r="H120" s="58">
+        <f t="shared" si="118"/>
+        <v>14.235000000000001</v>
+      </c>
+      <c r="I120" s="58">
+        <f t="shared" si="119"/>
+        <v>14.805</v>
+      </c>
+      <c r="J120" s="58">
+        <f t="shared" si="120"/>
+        <v>15.66</v>
+      </c>
       <c r="K120" s="58">
-        <f t="shared" si="74"/>
+        <f t="shared" si="117"/>
         <v>16.724</v>
       </c>
       <c r="L120" s="58">
-        <f t="shared" si="75"/>
+        <f t="shared" si="121"/>
         <v>20.490000000000002</v>
       </c>
       <c r="M120" s="58">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>22.675000000000001</v>
       </c>
       <c r="N120" s="96">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>4.2929999999999993</v>
       </c>
       <c r="O120" s="96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="124"/>
         <v>4.1850000000000005</v>
       </c>
     </row>
@@ -5145,27 +6193,39 @@
         <v>4</v>
       </c>
       <c r="G121" s="63">
-        <f t="shared" si="73"/>
+        <f t="shared" si="116"/>
         <v>13.49</v>
       </c>
+      <c r="H121" s="63">
+        <f t="shared" si="118"/>
+        <v>13.65</v>
+      </c>
+      <c r="I121" s="63">
+        <f t="shared" si="119"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="J121" s="63">
+        <f t="shared" si="120"/>
+        <v>14.4</v>
+      </c>
       <c r="K121" s="63">
-        <f t="shared" si="74"/>
+        <f t="shared" si="117"/>
         <v>14.96</v>
       </c>
       <c r="L121" s="63">
-        <f t="shared" si="75"/>
+        <f t="shared" si="121"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M121" s="63">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>19.75</v>
       </c>
       <c r="N121" s="96">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="O121" s="96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="124"/>
         <v>3.15</v>
       </c>
     </row>
@@ -5187,6 +6247,18 @@
         <f>(D123*G6)+G11+(E123*G5)+G14</f>
         <v>14.735000000000001</v>
       </c>
+      <c r="H123" s="65">
+        <f>(D23*H6)+H11+(E123*H5)+H14</f>
+        <v>15.950000000000001</v>
+      </c>
+      <c r="I123" s="65">
+        <f>(D123*I6)+I11+(E123*I5)+I14</f>
+        <v>15.424999999999999</v>
+      </c>
+      <c r="J123" s="65">
+        <f>(D123*J6)+J11+(E123*J5)+J14</f>
+        <v>16.100000000000001</v>
+      </c>
       <c r="K123" s="76">
         <f>(D123*K$6)+K$12+(E$123*K$5)+K$14</f>
         <v>18.939999999999998</v>
@@ -5222,16 +6294,28 @@
         <f>(D124*G6)+G11+(E124*G5)+G14</f>
         <v>14.930999999999999</v>
       </c>
+      <c r="H124" s="67">
+        <f>(D124*H6)+H11+(E124*H5)+H14</f>
+        <v>15.234999999999999</v>
+      </c>
+      <c r="I124" s="67">
+        <f>(D124*I6)+I11+(E124*I5)+I14</f>
+        <v>15.805</v>
+      </c>
+      <c r="J124" s="67">
+        <f>(D124*J6)+J11+(E124*J5)+J14</f>
+        <v>16.66</v>
+      </c>
       <c r="K124" s="66">
         <f>(D124*K$6)+K$12+(E$124*K$5)+K$14</f>
         <v>19.724</v>
       </c>
       <c r="L124" s="76">
-        <f t="shared" ref="L124:L125" si="79">(D124*L$6)+L$12+(E$123*L$5)+L$14</f>
+        <f t="shared" ref="L124:L125" si="125">(D124*L$6)+L$12+(E$123*L$5)+L$14</f>
         <v>25.67</v>
       </c>
       <c r="M124" s="93">
-        <f t="shared" ref="M124:M125" si="80">(D124*M$6)+M$12+(E$123*M$5)+M$14</f>
+        <f t="shared" ref="M124:M125" si="126">(D124*M$6)+M$12+(E$123*M$5)+M$14</f>
         <v>28.775000000000002</v>
       </c>
       <c r="N124" s="96">
@@ -5255,16 +6339,28 @@
         <f>(D125*G6)+G11+(E124*G5)+G14</f>
         <v>15.077999999999999</v>
       </c>
+      <c r="H125" s="68">
+        <f>(D125*H6)+H11+(E124*H5)+H14</f>
+        <v>15.43</v>
+      </c>
+      <c r="I125" s="68">
+        <f>(D125*I6)+I11+(E124*I5)+I14</f>
+        <v>16.09</v>
+      </c>
+      <c r="J125" s="68">
+        <f>(D125*J6)+J11+(E124*J5)+J14</f>
+        <v>17.079999999999998</v>
+      </c>
       <c r="K125" s="75">
         <f>(D125*K$6)+K$12+(E$124*K$5)+K$14</f>
         <v>20.312000000000001</v>
       </c>
       <c r="L125" s="66">
-        <f t="shared" si="79"/>
+        <f t="shared" si="125"/>
         <v>26.3</v>
       </c>
       <c r="M125" s="94">
-        <f t="shared" si="80"/>
+        <f t="shared" si="126"/>
         <v>29.75</v>
       </c>
       <c r="N125" s="96">
@@ -5890,23 +6986,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H149" s="22">
-        <f t="shared" ref="H149:L149" si="81">$C149*H$7</f>
+        <f t="shared" ref="H149:L149" si="127">$C149*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I149" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>0.24</v>
       </c>
       <c r="J149" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>0.498</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M149" s="99">
@@ -6005,23 +7101,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H152" s="22">
-        <f t="shared" ref="H152:L152" si="82">$C152*H$7</f>
+        <f t="shared" ref="H152:L152" si="128">$C152*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I152" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="128"/>
         <v>0.24</v>
       </c>
       <c r="J152" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="128"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="128"/>
         <v>0.498</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="128"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M152" s="99">
@@ -6121,23 +7217,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H155" s="22">
-        <f t="shared" ref="H155:L155" si="83">$C155*H$7</f>
+        <f t="shared" ref="H155:L155" si="129">$C155*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I155" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="129"/>
         <v>0.24</v>
       </c>
       <c r="J155" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="129"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="129"/>
         <v>0.498</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="129"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M155" s="99">
@@ -6237,23 +7333,23 @@
         <v>0.11099999999999999</v>
       </c>
       <c r="H158" s="22">
-        <f t="shared" ref="H158:L158" si="84">$C158*H$7</f>
+        <f t="shared" ref="H158:L158" si="130">$C158*H$7</f>
         <v>0.159</v>
       </c>
       <c r="I158" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="130"/>
         <v>0.24</v>
       </c>
       <c r="J158" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="130"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="130"/>
         <v>0.498</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="130"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M158" s="99">
@@ -6349,31 +7445,31 @@
         <v>3</v>
       </c>
       <c r="G161" s="22">
-        <f t="shared" ref="G161:M161" si="85">$C161*G$7</f>
+        <f t="shared" ref="G161:M161" si="131">$C161*G$7</f>
         <v>0.11099999999999999</v>
       </c>
       <c r="H161" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="131"/>
         <v>0.159</v>
       </c>
       <c r="I161" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="131"/>
         <v>0.24</v>
       </c>
       <c r="J161" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="131"/>
         <v>0.35699999999999998</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="131"/>
         <v>0.498</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="131"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="M161" s="99">
-        <f t="shared" si="85"/>
+        <f t="shared" si="131"/>
         <v>0.82500000000000007</v>
       </c>
       <c r="N161" s="23">
@@ -6427,6 +7523,15 @@
       <c r="G166" s="77" t="s">
         <v>60</v>
       </c>
+      <c r="H166" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="I166" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J166" s="77" t="s">
+        <v>207</v>
+      </c>
       <c r="K166" s="8" t="s">
         <v>61</v>
       </c>
@@ -6451,6 +7556,18 @@
         <f>SUM(G161:G162)+G160+G123</f>
         <v>43.545999999999999</v>
       </c>
+      <c r="H167" s="112">
+        <f>SUM(H$161:H$162)+H$160+H$123</f>
+        <v>44.809000000000005</v>
+      </c>
+      <c r="I167" s="112">
+        <f>SUM(I$161:I$162)+$I160+$I123</f>
+        <v>44.365000000000002</v>
+      </c>
+      <c r="J167" s="112">
+        <f>SUM(J$161:J$162)+J160+J123</f>
+        <v>45.157000000000004</v>
+      </c>
       <c r="K167" s="112">
         <f>SUM(K$161:K$162)+K$160+K123</f>
         <v>48.137999999999998</v>
@@ -6480,16 +7597,28 @@
         <f>SUM(G162,G161)+G160+G124</f>
         <v>43.741999999999997</v>
       </c>
+      <c r="H168" s="112">
+        <f>SUM(H$161:H$162)+H$160+H$123</f>
+        <v>44.809000000000005</v>
+      </c>
+      <c r="I168" s="112">
+        <f>SUM(I$161:I$162)+$I160+$I124</f>
+        <v>44.745000000000005</v>
+      </c>
+      <c r="J168" s="112">
+        <f>SUM(J$161:J$162)+J160+J124</f>
+        <v>45.716999999999999</v>
+      </c>
       <c r="K168" s="112">
-        <f t="shared" ref="K168:M169" si="86">SUM(K$161:K$162)+K$160+K124</f>
+        <f t="shared" ref="K168:M169" si="132">SUM(K$161:K$162)+K$160+K124</f>
         <v>48.921999999999997</v>
       </c>
       <c r="L168" s="112">
-        <f t="shared" si="86"/>
+        <f t="shared" si="132"/>
         <v>52.695</v>
       </c>
       <c r="M168" s="114">
-        <f t="shared" si="86"/>
+        <f t="shared" si="132"/>
         <v>56.1</v>
       </c>
       <c r="N168" s="100">
@@ -6509,16 +7638,28 @@
         <f>SUM(G161:G162)+G160+G125</f>
         <v>43.888999999999996</v>
       </c>
+      <c r="H169" s="113">
+        <f t="shared" ref="H169" si="133">SUM(H$161:H$162)+H$160+H$123</f>
+        <v>44.809000000000005</v>
+      </c>
+      <c r="I169" s="113">
+        <f>SUM(I$161:I$162)+$I160+$I125</f>
+        <v>45.03</v>
+      </c>
+      <c r="J169" s="113">
+        <f>SUM(J$161:J$162)+J160+J125</f>
+        <v>46.137</v>
+      </c>
       <c r="K169" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="132"/>
         <v>49.510000000000005</v>
       </c>
       <c r="L169" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="132"/>
         <v>53.325000000000003</v>
       </c>
       <c r="M169" s="111">
-        <f t="shared" si="86"/>
+        <f t="shared" si="132"/>
         <v>57.075000000000003</v>
       </c>
       <c r="N169" s="100">
@@ -6539,6 +7680,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G19</f>
         <v>36.242999999999995</v>
       </c>
+      <c r="H171" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$G19</f>
+        <v>36.338999999999999</v>
+      </c>
+      <c r="I171" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I19</f>
+        <v>37.835000000000001</v>
+      </c>
+      <c r="J171" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$I19</f>
+        <v>38.069000000000003</v>
+      </c>
       <c r="K171" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K19</f>
         <v>41.28</v>
@@ -6568,16 +7721,28 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G20</f>
         <v>36.096000000000004</v>
       </c>
+      <c r="H172" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$G20</f>
+        <v>36.192</v>
+      </c>
+      <c r="I172" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I20</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="J172" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J20</f>
+        <v>37.974000000000004</v>
+      </c>
       <c r="K172" s="58">
-        <f t="shared" ref="K172:K175" si="87">SUM(K$161:K$162)+K$159+K$158+K$157+$K20</f>
+        <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K20</f>
         <v>40.692</v>
       </c>
       <c r="L172" s="58">
-        <f t="shared" ref="L172:L174" si="88">SUM(L$161:L$162)+L$159+L$158+L$157+$L20</f>
+        <f t="shared" ref="L172:L174" si="134">SUM(L$161:L$162)+L$159+L$158+L$157+$L20</f>
         <v>43.61</v>
       </c>
       <c r="M172" s="58">
-        <f t="shared" ref="M172:M175" si="89">SUM(G$161:G$162)+G$159+G$158+G$157+$G20</f>
+        <f t="shared" ref="M172:M175" si="135">SUM(G$161:G$162)+G$159+G$158+G$157+$G20</f>
         <v>36.096000000000004</v>
       </c>
       <c r="N172" s="100">
@@ -6597,16 +7762,28 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G21</f>
         <v>35.9</v>
       </c>
+      <c r="H173" s="58">
+        <f t="shared" ref="H173:J175" si="136">SUM(H$161:H$162)+H$159+H$158+H$157+$G21</f>
+        <v>35.995999999999995</v>
+      </c>
+      <c r="I173" s="58">
+        <f t="shared" si="136"/>
+        <v>36.158000000000001</v>
+      </c>
+      <c r="J173" s="58">
+        <f t="shared" si="136"/>
+        <v>36.391999999999996</v>
+      </c>
       <c r="K173" s="58">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="K173:K174" si="137">SUM(K$161:K$162)+K$159+K$158+K$157+$K21</f>
         <v>39.908000000000001</v>
       </c>
       <c r="L173" s="58">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>42.769999999999996</v>
       </c>
       <c r="M173" s="58">
-        <f t="shared" si="89"/>
+        <f t="shared" si="135"/>
         <v>35.9</v>
       </c>
       <c r="N173" s="100">
@@ -6626,16 +7803,28 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+$G22</f>
         <v>35.262999999999998</v>
       </c>
+      <c r="H174" s="58">
+        <f t="shared" si="136"/>
+        <v>35.359000000000002</v>
+      </c>
+      <c r="I174" s="58">
+        <f t="shared" si="136"/>
+        <v>35.521000000000001</v>
+      </c>
+      <c r="J174" s="58">
+        <f t="shared" si="136"/>
+        <v>35.755000000000003</v>
+      </c>
       <c r="K174" s="58">
-        <f t="shared" si="87"/>
+        <f t="shared" si="137"/>
         <v>37.36</v>
       </c>
       <c r="L174" s="58">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>40.04</v>
       </c>
       <c r="M174" s="58">
-        <f t="shared" si="89"/>
+        <f t="shared" si="135"/>
         <v>35.262999999999998</v>
       </c>
       <c r="N174" s="100">
@@ -6652,8 +7841,20 @@
         <v>159</v>
       </c>
       <c r="G175" s="63">
-        <f t="shared" ref="G175" si="90">SUM(G$161:G$162)+G$159+G$158+G$157+$G23</f>
+        <f t="shared" ref="G175" si="138">SUM(G$161:G$162)+G$159+G$158+G$157+$G23</f>
         <v>35.997999999999998</v>
+      </c>
+      <c r="H175" s="58">
+        <f t="shared" si="136"/>
+        <v>36.094000000000001</v>
+      </c>
+      <c r="I175" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I23</f>
+        <v>37.36</v>
+      </c>
+      <c r="J175" s="58">
+        <f t="shared" si="136"/>
+        <v>36.49</v>
       </c>
       <c r="K175" s="63">
         <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K23</f>
@@ -6664,7 +7865,7 @@
         <v>43.19</v>
       </c>
       <c r="M175" s="63">
-        <f t="shared" si="89"/>
+        <f t="shared" si="135"/>
         <v>35.997999999999998</v>
       </c>
       <c r="N175" s="100">
@@ -6687,6 +7888,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G25</f>
         <v>36.242999999999995</v>
       </c>
+      <c r="H177" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H25</f>
+        <v>36.802999999999997</v>
+      </c>
+      <c r="I177" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I25</f>
+        <v>37.835000000000001</v>
+      </c>
+      <c r="J177" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J25</f>
+        <v>39.374000000000002</v>
+      </c>
       <c r="K177" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K25</f>
         <v>41.28</v>
@@ -6716,16 +7929,28 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G26</f>
         <v>35.9</v>
       </c>
+      <c r="H178" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H26</f>
+        <v>36.347999999999999</v>
+      </c>
+      <c r="I178" s="58">
+        <f t="shared" ref="I178:I181" si="139">SUM(I$161:I$162)+I$159+I$158+I$157+$I26</f>
+        <v>37.17</v>
+      </c>
+      <c r="J178" s="58">
+        <f t="shared" ref="J178:J181" si="140">SUM(J$161:J$162)+J$159+J$158+J$157+$J26</f>
+        <v>38.393999999999998</v>
+      </c>
       <c r="K178" s="58">
-        <f t="shared" ref="K178:K181" si="91">SUM(K$161:K$162)+K$159+K$158+K$157+$K26</f>
+        <f t="shared" ref="K178:K181" si="141">SUM(K$161:K$162)+K$159+K$158+K$157+$K26</f>
         <v>39.908000000000001</v>
       </c>
       <c r="L178" s="58">
-        <f t="shared" ref="L178:L181" si="92">SUM(L$161:L$162)+L$159+L$158+L$157+$L26</f>
+        <f t="shared" ref="L178:L181" si="142">SUM(L$161:L$162)+L$159+L$158+L$157+$L26</f>
         <v>42.769999999999996</v>
       </c>
       <c r="M178" s="58">
-        <f t="shared" ref="M178:M181" si="93">SUM(L$161:L$162)+L$159+L$158+L$157+$L26</f>
+        <f t="shared" ref="M178:M181" si="143">SUM(L$161:L$162)+L$159+L$158+L$157+$L26</f>
         <v>42.769999999999996</v>
       </c>
       <c r="N178" s="100">
@@ -6745,16 +7970,28 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G27</f>
         <v>35.9</v>
       </c>
+      <c r="H179" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H27</f>
+        <v>36.347999999999999</v>
+      </c>
+      <c r="I179" s="58">
+        <f t="shared" si="139"/>
+        <v>37.17</v>
+      </c>
+      <c r="J179" s="58">
+        <f t="shared" si="140"/>
+        <v>38.393999999999998</v>
+      </c>
       <c r="K179" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="141"/>
         <v>39.908000000000001</v>
       </c>
       <c r="L179" s="58">
-        <f t="shared" si="92"/>
+        <f t="shared" si="142"/>
         <v>42.769999999999996</v>
       </c>
       <c r="M179" s="58">
-        <f t="shared" si="93"/>
+        <f t="shared" si="143"/>
         <v>42.769999999999996</v>
       </c>
       <c r="N179" s="100">
@@ -6771,19 +8008,31 @@
         <v>164</v>
       </c>
       <c r="G180" s="58">
-        <f t="shared" ref="G180:G181" si="94">SUM(G$161:G$162)+G$159+G$158+G$157+G28</f>
+        <f t="shared" ref="G180:G181" si="144">SUM(G$161:G$162)+G$159+G$158+G$157+G28</f>
         <v>35.262999999999998</v>
       </c>
+      <c r="H180" s="58">
+        <f t="shared" ref="H180:H181" si="145">SUM(H$161:H$162)+H$159+H$158+H$157+$H28</f>
+        <v>35.503</v>
+      </c>
+      <c r="I180" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I28</f>
+        <v>35.935000000000002</v>
+      </c>
+      <c r="J180" s="58">
+        <f t="shared" si="140"/>
+        <v>36.573999999999998</v>
+      </c>
       <c r="K180" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="141"/>
         <v>37.36</v>
       </c>
       <c r="L180" s="58">
-        <f t="shared" si="92"/>
+        <f t="shared" si="142"/>
         <v>40.04</v>
       </c>
       <c r="M180" s="58">
-        <f t="shared" si="93"/>
+        <f t="shared" si="143"/>
         <v>40.04</v>
       </c>
       <c r="N180" s="100">
@@ -6800,19 +8049,31 @@
         <v>155</v>
       </c>
       <c r="G181" s="63">
-        <f t="shared" si="94"/>
+        <f t="shared" si="144"/>
         <v>35.997999999999998</v>
       </c>
+      <c r="H181" s="58">
+        <f t="shared" si="145"/>
+        <v>36.478000000000002</v>
+      </c>
+      <c r="I181" s="58">
+        <f t="shared" si="139"/>
+        <v>37.36</v>
+      </c>
+      <c r="J181" s="58">
+        <f t="shared" si="140"/>
+        <v>38.673999999999999</v>
+      </c>
       <c r="K181" s="63">
-        <f t="shared" si="91"/>
+        <f t="shared" si="141"/>
         <v>40.299999999999997</v>
       </c>
       <c r="L181" s="63">
-        <f t="shared" si="92"/>
+        <f t="shared" si="142"/>
         <v>43.19</v>
       </c>
       <c r="M181" s="63">
-        <f t="shared" si="93"/>
+        <f t="shared" si="143"/>
         <v>43.19</v>
       </c>
       <c r="N181" s="100">
@@ -6835,6 +8096,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G31</f>
         <v>37.802</v>
       </c>
+      <c r="H183" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H31</f>
+        <v>38.218000000000004</v>
+      </c>
+      <c r="I183" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I31</f>
+        <v>38.980000000000004</v>
+      </c>
+      <c r="J183" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J31</f>
+        <v>40.114000000000004</v>
+      </c>
       <c r="K183" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K31</f>
         <v>41.516000000000005</v>
@@ -6848,11 +8121,11 @@
         <v>45.35</v>
       </c>
       <c r="N183" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N31</f>
+        <f t="shared" ref="N183:N188" si="146">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N31</f>
         <v>8.5879999999999992</v>
       </c>
       <c r="O183" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O31</f>
+        <f t="shared" ref="O183:O188" si="147">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O31</f>
         <v>8.5</v>
       </c>
     </row>
@@ -6861,27 +8134,39 @@
         <v>129</v>
       </c>
       <c r="G184" s="58">
-        <f t="shared" ref="G184:G188" si="95">SUM(G$161:G$162)+G$159+G$158+G$157+G32</f>
+        <f t="shared" ref="G184:G188" si="148">SUM(G$161:G$162)+G$159+G$158+G$157+G32</f>
         <v>38.683999999999997</v>
       </c>
+      <c r="H184" s="58">
+        <f t="shared" ref="H184:H188" si="149">SUM(H$161:H$162)+H$159+H$158+H$157+$H32</f>
+        <v>39.387999999999998</v>
+      </c>
+      <c r="I184" s="58">
+        <f t="shared" ref="I184:I188" si="150">SUM(I$161:I$162)+I$159+I$158+I$157+$I32</f>
+        <v>40.69</v>
+      </c>
+      <c r="J184" s="58">
+        <f t="shared" ref="J184:J188" si="151">SUM(J$161:J$162)+J$159+J$158+J$157+$J32</f>
+        <v>42.634</v>
+      </c>
       <c r="K184" s="58">
-        <f t="shared" ref="K184:K188" si="96">SUM(K$161:K$162)+K$159+K$158+K$157+$K32</f>
+        <f t="shared" ref="K184:K188" si="152">SUM(K$161:K$162)+K$159+K$158+K$157+$K32</f>
         <v>45.043999999999997</v>
       </c>
       <c r="L184" s="58">
-        <f t="shared" ref="L184:L188" si="97">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
+        <f t="shared" ref="L184:L188" si="153">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
         <v>49.129999999999995</v>
       </c>
       <c r="M184" s="58">
-        <f t="shared" ref="M184:M188" si="98">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
+        <f t="shared" ref="M184:M188" si="154">SUM(L$161:L$162)+L$159+L$158+L$157+$L32</f>
         <v>49.129999999999995</v>
       </c>
       <c r="N184" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N32</f>
+        <f t="shared" si="146"/>
         <v>11.233999999999998</v>
       </c>
       <c r="O184" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O32</f>
+        <f t="shared" si="147"/>
         <v>10.57</v>
       </c>
     </row>
@@ -6890,27 +8175,39 @@
         <v>128</v>
       </c>
       <c r="G185" s="58">
-        <f t="shared" si="95"/>
+        <f t="shared" si="148"/>
         <v>37.753</v>
       </c>
+      <c r="H185" s="58">
+        <f t="shared" si="149"/>
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I185" s="58">
+        <f t="shared" si="150"/>
+        <v>38.885000000000005</v>
+      </c>
+      <c r="J185" s="58">
+        <f t="shared" si="151"/>
+        <v>39.974000000000004</v>
+      </c>
       <c r="K185" s="58">
-        <f t="shared" si="96"/>
+        <f t="shared" si="152"/>
         <v>41.32</v>
       </c>
       <c r="L185" s="58">
-        <f t="shared" si="97"/>
+        <f t="shared" si="153"/>
         <v>45.14</v>
       </c>
       <c r="M185" s="58">
-        <f t="shared" si="98"/>
+        <f t="shared" si="154"/>
         <v>45.14</v>
       </c>
       <c r="N185" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N33</f>
+        <f t="shared" si="146"/>
         <v>8.4409999999999989</v>
       </c>
       <c r="O185" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O33</f>
+        <f t="shared" si="147"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
@@ -6919,27 +8216,39 @@
         <v>127</v>
       </c>
       <c r="G186" s="58">
-        <f t="shared" si="95"/>
+        <f t="shared" si="148"/>
         <v>38.781999999999996</v>
       </c>
+      <c r="H186" s="58">
+        <f t="shared" si="149"/>
+        <v>39.518000000000001</v>
+      </c>
+      <c r="I186" s="58">
+        <f t="shared" si="150"/>
+        <v>40.880000000000003</v>
+      </c>
+      <c r="J186" s="58">
+        <f t="shared" si="151"/>
+        <v>42.914000000000001</v>
+      </c>
       <c r="K186" s="58">
-        <f t="shared" si="96"/>
+        <f t="shared" si="152"/>
         <v>45.436000000000007</v>
       </c>
       <c r="L186" s="58">
-        <f t="shared" si="97"/>
+        <f t="shared" si="153"/>
         <v>49.55</v>
       </c>
       <c r="M186" s="58">
-        <f t="shared" si="98"/>
+        <f t="shared" si="154"/>
         <v>49.55</v>
       </c>
       <c r="N186" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N34</f>
+        <f t="shared" si="146"/>
         <v>11.527999999999999</v>
       </c>
       <c r="O186" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O34</f>
+        <f t="shared" si="147"/>
         <v>10.8</v>
       </c>
     </row>
@@ -6948,27 +8257,39 @@
         <v>165</v>
       </c>
       <c r="G187" s="58">
-        <f t="shared" si="95"/>
+        <f t="shared" si="148"/>
         <v>37.753</v>
       </c>
+      <c r="H187" s="58">
+        <f t="shared" si="149"/>
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I187" s="58">
+        <f t="shared" si="150"/>
+        <v>38.885000000000005</v>
+      </c>
+      <c r="J187" s="58">
+        <f t="shared" si="151"/>
+        <v>39.974000000000004</v>
+      </c>
       <c r="K187" s="58">
-        <f t="shared" si="96"/>
+        <f t="shared" si="152"/>
         <v>41.32</v>
       </c>
       <c r="L187" s="58">
-        <f t="shared" si="97"/>
+        <f t="shared" si="153"/>
         <v>45.14</v>
       </c>
       <c r="M187" s="58">
-        <f t="shared" si="98"/>
+        <f t="shared" si="154"/>
         <v>45.14</v>
       </c>
       <c r="N187" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N35</f>
+        <f t="shared" si="146"/>
         <v>8.4409999999999989</v>
       </c>
       <c r="O187" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O35</f>
+        <f t="shared" si="147"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
@@ -6977,27 +8298,39 @@
         <v>126</v>
       </c>
       <c r="G188" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="148"/>
         <v>37.311999999999998</v>
       </c>
+      <c r="H188" s="58">
+        <f t="shared" si="149"/>
+        <v>37.567999999999998</v>
+      </c>
+      <c r="I188" s="58">
+        <f t="shared" si="150"/>
+        <v>38.03</v>
+      </c>
+      <c r="J188" s="58">
+        <f t="shared" si="151"/>
+        <v>38.713999999999999</v>
+      </c>
       <c r="K188" s="63">
-        <f t="shared" si="96"/>
+        <f t="shared" si="152"/>
         <v>39.555999999999997</v>
       </c>
       <c r="L188" s="63">
-        <f t="shared" si="97"/>
+        <f t="shared" si="153"/>
         <v>43.25</v>
       </c>
       <c r="M188" s="63">
-        <f t="shared" si="98"/>
+        <f t="shared" si="154"/>
         <v>43.25</v>
       </c>
       <c r="N188" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N36</f>
+        <f t="shared" si="146"/>
         <v>7.1179999999999994</v>
       </c>
       <c r="O188" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O36</f>
+        <f t="shared" si="147"/>
         <v>7.35</v>
       </c>
     </row>
@@ -7012,6 +8345,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$157+G38</f>
         <v>37.802</v>
       </c>
+      <c r="H190" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$157+$H38</f>
+        <v>38.218000000000004</v>
+      </c>
+      <c r="I190" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$157+$I38</f>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J190" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$157+$J38</f>
+        <v>41.273200000000003</v>
+      </c>
       <c r="K190" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$157+$K38</f>
         <v>41.516000000000005</v>
@@ -7025,11 +8370,11 @@
         <v>41.516000000000005</v>
       </c>
       <c r="N190" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N38</f>
+        <f t="shared" ref="N190:N195" si="155">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N38</f>
         <v>8.5879999999999992</v>
       </c>
       <c r="O190" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O38</f>
+        <f t="shared" ref="O190:O195" si="156">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O38</f>
         <v>8.5</v>
       </c>
     </row>
@@ -7038,27 +8383,39 @@
         <v>124</v>
       </c>
       <c r="G191" s="58">
-        <f t="shared" ref="G191:G195" si="99">SUM(G$161:G$162)+G$159+G$158+G$157+G39</f>
+        <f t="shared" ref="G191:G195" si="157">SUM(G$161:G$162)+G$159+G$158+G$157+G39</f>
         <v>38.683999999999997</v>
       </c>
+      <c r="H191" s="58">
+        <f t="shared" ref="H191:H195" si="158">SUM(H$161:H$162)+H$159+H$158+H$157+$H39</f>
+        <v>39.387999999999998</v>
+      </c>
+      <c r="I191" s="58">
+        <f t="shared" ref="I191:I195" si="159">SUM(I$161:I$162)+I$159+I$158+I$157+$I39</f>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J191" s="58">
+        <f t="shared" ref="J191:J195" si="160">SUM(J$161:J$162)+J$159+J$158+J$157+$J39</f>
+        <v>41.396680000000003</v>
+      </c>
       <c r="K191" s="58">
-        <f t="shared" ref="K191:K195" si="100">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
+        <f t="shared" ref="K191:K195" si="161">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
         <v>45.043999999999997</v>
       </c>
       <c r="L191" s="58">
-        <f t="shared" ref="L191:L195" si="101">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
+        <f t="shared" ref="L191:L195" si="162">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
         <v>45.043999999999997</v>
       </c>
       <c r="M191" s="58">
-        <f t="shared" ref="M191:M195" si="102">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
+        <f t="shared" ref="M191:M195" si="163">SUM(K$161:K$162)+K$159+K$158+K$157+$K39</f>
         <v>45.043999999999997</v>
       </c>
       <c r="N191" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N39</f>
+        <f t="shared" si="155"/>
         <v>11.233999999999998</v>
       </c>
       <c r="O191" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O39</f>
+        <f t="shared" si="156"/>
         <v>10.57</v>
       </c>
     </row>
@@ -7067,27 +8424,39 @@
         <v>123</v>
       </c>
       <c r="G192" s="58">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>37.753</v>
       </c>
+      <c r="H192" s="58">
+        <f t="shared" si="158"/>
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I192" s="58">
+        <f t="shared" si="159"/>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J192" s="58">
+        <f t="shared" si="160"/>
+        <v>41.26634</v>
+      </c>
       <c r="K192" s="58">
-        <f t="shared" si="100"/>
+        <f t="shared" si="161"/>
         <v>41.32</v>
       </c>
       <c r="L192" s="58">
-        <f t="shared" si="101"/>
+        <f t="shared" si="162"/>
         <v>41.32</v>
       </c>
       <c r="M192" s="58">
-        <f t="shared" si="102"/>
+        <f t="shared" si="163"/>
         <v>41.32</v>
       </c>
       <c r="N192" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N40</f>
+        <f t="shared" si="155"/>
         <v>8.4409999999999989</v>
       </c>
       <c r="O192" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O40</f>
+        <f t="shared" si="156"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
@@ -7096,27 +8465,39 @@
         <v>122</v>
       </c>
       <c r="G193" s="58">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>38.781999999999996</v>
       </c>
+      <c r="H193" s="58">
+        <f t="shared" si="158"/>
+        <v>39.518000000000001</v>
+      </c>
+      <c r="I193" s="58">
+        <f t="shared" si="159"/>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J193" s="58">
+        <f t="shared" si="160"/>
+        <v>41.410399999999996</v>
+      </c>
       <c r="K193" s="58">
-        <f t="shared" si="100"/>
+        <f t="shared" si="161"/>
         <v>45.436000000000007</v>
       </c>
       <c r="L193" s="58">
-        <f t="shared" si="101"/>
+        <f t="shared" si="162"/>
         <v>45.436000000000007</v>
       </c>
       <c r="M193" s="58">
-        <f t="shared" si="102"/>
+        <f t="shared" si="163"/>
         <v>45.436000000000007</v>
       </c>
       <c r="N193" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N41</f>
+        <f t="shared" si="155"/>
         <v>11.527999999999999</v>
       </c>
       <c r="O193" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O41</f>
+        <f t="shared" si="156"/>
         <v>10.8</v>
       </c>
     </row>
@@ -7125,27 +8506,39 @@
         <v>165</v>
       </c>
       <c r="G194" s="58">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>37.753</v>
       </c>
+      <c r="H194" s="58">
+        <f t="shared" si="158"/>
+        <v>38.152999999999999</v>
+      </c>
+      <c r="I194" s="58">
+        <f t="shared" si="159"/>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J194" s="58">
+        <f t="shared" si="160"/>
+        <v>41.26634</v>
+      </c>
       <c r="K194" s="58">
-        <f t="shared" si="100"/>
+        <f t="shared" si="161"/>
         <v>41.32</v>
       </c>
       <c r="L194" s="58">
-        <f t="shared" si="101"/>
+        <f t="shared" si="162"/>
         <v>41.32</v>
       </c>
       <c r="M194" s="58">
-        <f t="shared" si="102"/>
+        <f t="shared" si="163"/>
         <v>41.32</v>
       </c>
       <c r="N194" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N42</f>
+        <f t="shared" si="155"/>
         <v>8.4409999999999989</v>
       </c>
       <c r="O194" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O42</f>
+        <f t="shared" si="156"/>
         <v>8.3850000000000016</v>
       </c>
     </row>
@@ -7154,27 +8547,39 @@
         <v>121</v>
       </c>
       <c r="G195" s="63">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>37.311999999999998</v>
       </c>
+      <c r="H195" s="63">
+        <f t="shared" si="158"/>
+        <v>37.567999999999998</v>
+      </c>
+      <c r="I195" s="63">
+        <f t="shared" si="159"/>
+        <v>38.408100000000005</v>
+      </c>
+      <c r="J195" s="63">
+        <f t="shared" si="160"/>
+        <v>41.204599999999999</v>
+      </c>
       <c r="K195" s="63">
-        <f t="shared" si="100"/>
+        <f t="shared" si="161"/>
         <v>39.555999999999997</v>
       </c>
       <c r="L195" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="162"/>
         <v>39.555999999999997</v>
       </c>
       <c r="M195" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="163"/>
         <v>39.555999999999997</v>
       </c>
       <c r="N195" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$153+N$155+N$157+$N43</f>
+        <f t="shared" si="155"/>
         <v>7.1179999999999994</v>
       </c>
       <c r="O195" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$153+O$155+O$157+$O43</f>
+        <f t="shared" si="156"/>
         <v>7.35</v>
       </c>
     </row>
@@ -7189,6 +8594,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G45</f>
         <v>34.853999999999999</v>
       </c>
+      <c r="H197" s="63">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H45</f>
+        <v>35.461999999999996</v>
+      </c>
+      <c r="I197" s="63">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I45</f>
+        <v>36.575000000000003</v>
+      </c>
+      <c r="J197" s="63">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J45</f>
+        <v>38.231000000000002</v>
+      </c>
       <c r="K197" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K45</f>
         <v>40.278000000000006</v>
@@ -7218,16 +8635,28 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G46</f>
         <v>34.707000000000001</v>
       </c>
+      <c r="H198" s="63">
+        <f t="shared" ref="H198:H201" si="164">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H46</f>
+        <v>35.266999999999996</v>
+      </c>
+      <c r="I198" s="63">
+        <f t="shared" ref="I198:I201" si="165">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I46</f>
+        <v>36.29</v>
+      </c>
+      <c r="J198" s="63">
+        <f t="shared" ref="J198:J201" si="166">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J46</f>
+        <v>37.811</v>
+      </c>
       <c r="K198" s="58">
-        <f t="shared" ref="K198:M201" si="103">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K46</f>
+        <f t="shared" ref="K198:M201" si="167">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K46</f>
         <v>39.69</v>
       </c>
       <c r="L198" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>41.635000000000005</v>
       </c>
       <c r="M198" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>45.525000000000006</v>
       </c>
       <c r="N198" s="100">
@@ -7247,16 +8676,28 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G47</f>
         <v>34.510999999999996</v>
       </c>
+      <c r="H199" s="63">
+        <f t="shared" si="164"/>
+        <v>35.006999999999998</v>
+      </c>
+      <c r="I199" s="63">
+        <f t="shared" si="165"/>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="J199" s="63">
+        <f t="shared" si="166"/>
+        <v>37.250999999999998</v>
+      </c>
       <c r="K199" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>38.905999999999999</v>
       </c>
       <c r="L199" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>40.795000000000002</v>
       </c>
       <c r="M199" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N199" s="100">
@@ -7273,19 +8714,31 @@
         <v>166</v>
       </c>
       <c r="G200" s="63">
-        <f t="shared" ref="G198:G201" si="104">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G48</f>
+        <f t="shared" ref="G200:G201" si="168">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G48</f>
         <v>33.874000000000002</v>
       </c>
+      <c r="H200" s="63">
+        <f t="shared" si="164"/>
+        <v>34.161999999999999</v>
+      </c>
+      <c r="I200" s="63">
+        <f t="shared" si="165"/>
+        <v>34.674999999999997</v>
+      </c>
+      <c r="J200" s="63">
+        <f t="shared" si="166"/>
+        <v>35.430999999999997</v>
+      </c>
       <c r="K200" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>36.358000000000004</v>
       </c>
       <c r="L200" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>38.064999999999998</v>
       </c>
       <c r="M200" s="58">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>40</v>
       </c>
       <c r="N200" s="100">
@@ -7302,19 +8755,31 @@
         <v>151</v>
       </c>
       <c r="G201" s="63">
-        <f t="shared" si="104"/>
+        <f t="shared" si="168"/>
         <v>34.609000000000002</v>
       </c>
+      <c r="H201" s="63">
+        <f t="shared" si="164"/>
+        <v>35.137</v>
+      </c>
+      <c r="I201" s="63">
+        <f t="shared" si="165"/>
+        <v>36.1</v>
+      </c>
+      <c r="J201" s="63">
+        <f t="shared" si="166"/>
+        <v>37.530999999999999</v>
+      </c>
       <c r="K201" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>39.298000000000002</v>
       </c>
       <c r="L201" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>41.215000000000003</v>
       </c>
       <c r="M201" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="167"/>
         <v>44.875</v>
       </c>
       <c r="N201" s="100">
@@ -7337,6 +8802,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G51</f>
         <v>34.853999999999999</v>
       </c>
+      <c r="H203" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H51</f>
+        <v>35.461999999999996</v>
+      </c>
+      <c r="I203" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I51</f>
+        <v>36.575000000000003</v>
+      </c>
+      <c r="J203" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J51</f>
+        <v>38.231000000000002</v>
+      </c>
       <c r="K203" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K51</f>
         <v>40.278000000000006</v>
@@ -7363,19 +8840,31 @@
         <v>149</v>
       </c>
       <c r="G204" s="58">
-        <f t="shared" ref="G204:G207" si="105">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G52</f>
+        <f t="shared" ref="G204:G207" si="169">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G52</f>
         <v>34.510999999999996</v>
       </c>
+      <c r="H204" s="58">
+        <f t="shared" ref="H204:H207" si="170">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H52</f>
+        <v>35.006999999999998</v>
+      </c>
+      <c r="I204" s="58">
+        <f t="shared" ref="I204:I207" si="171">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I52</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="J204" s="58">
+        <f t="shared" ref="J204:J207" si="172">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J52</f>
+        <v>37.250999999999998</v>
+      </c>
       <c r="K204" s="58">
-        <f t="shared" ref="K204:M207" si="106">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K52</f>
+        <f t="shared" ref="K204:M207" si="173">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K52</f>
         <v>38.905999999999999</v>
       </c>
       <c r="L204" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>40.795000000000002</v>
       </c>
       <c r="M204" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N204" s="100">
@@ -7392,19 +8881,31 @@
         <v>148</v>
       </c>
       <c r="G205" s="58">
-        <f t="shared" si="105"/>
+        <f t="shared" si="169"/>
         <v>34.510999999999996</v>
       </c>
+      <c r="H205" s="58">
+        <f t="shared" si="170"/>
+        <v>35.006999999999998</v>
+      </c>
+      <c r="I205" s="58">
+        <f t="shared" si="171"/>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="J205" s="58">
+        <f t="shared" si="172"/>
+        <v>37.250999999999998</v>
+      </c>
       <c r="K205" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>38.905999999999999</v>
       </c>
       <c r="L205" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>40.795000000000002</v>
       </c>
       <c r="M205" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N205" s="100">
@@ -7421,19 +8922,31 @@
         <v>167</v>
       </c>
       <c r="G206" s="58">
-        <f t="shared" si="105"/>
+        <f t="shared" si="169"/>
         <v>33.874000000000002</v>
       </c>
+      <c r="H206" s="58">
+        <f t="shared" si="170"/>
+        <v>34.161999999999999</v>
+      </c>
+      <c r="I206" s="58">
+        <f t="shared" si="171"/>
+        <v>34.674999999999997</v>
+      </c>
+      <c r="J206" s="58">
+        <f t="shared" si="172"/>
+        <v>35.430999999999997</v>
+      </c>
       <c r="K206" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>36.358000000000004</v>
       </c>
       <c r="L206" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>38.064999999999998</v>
       </c>
       <c r="M206" s="58">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>40</v>
       </c>
       <c r="N206" s="100">
@@ -7450,19 +8963,31 @@
         <v>147</v>
       </c>
       <c r="G207" s="63">
-        <f t="shared" si="105"/>
+        <f t="shared" si="169"/>
         <v>34.609000000000002</v>
       </c>
+      <c r="H207" s="63">
+        <f t="shared" si="170"/>
+        <v>35.137</v>
+      </c>
+      <c r="I207" s="63">
+        <f t="shared" si="171"/>
+        <v>36.1</v>
+      </c>
+      <c r="J207" s="63">
+        <f t="shared" si="172"/>
+        <v>37.530999999999999</v>
+      </c>
       <c r="K207" s="63">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>39.298000000000002</v>
       </c>
       <c r="L207" s="63">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>41.215000000000003</v>
       </c>
       <c r="M207" s="63">
-        <f t="shared" si="106"/>
+        <f t="shared" si="173"/>
         <v>44.875</v>
       </c>
       <c r="N207" s="100">
@@ -7485,6 +9010,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G57</f>
         <v>36.412999999999997</v>
       </c>
+      <c r="H209" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H57</f>
+        <v>36.876999999999995</v>
+      </c>
+      <c r="I209" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I57</f>
+        <v>37.72</v>
+      </c>
+      <c r="J209" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J57</f>
+        <v>38.971000000000004</v>
+      </c>
       <c r="K209" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K57</f>
         <v>40.514000000000003</v>
@@ -7498,11 +9035,11 @@
         <v>46.575000000000003</v>
       </c>
       <c r="N209" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N57</f>
+        <f t="shared" ref="N209:N214" si="174">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N57</f>
         <v>7.7009999999999996</v>
       </c>
       <c r="O209" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O57</f>
+        <f t="shared" ref="O209:O214" si="175">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O57</f>
         <v>7.7000000000000011</v>
       </c>
     </row>
@@ -7511,27 +9048,39 @@
         <v>119</v>
       </c>
       <c r="G210" s="58">
-        <f t="shared" ref="G210:G214" si="107">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G58</f>
+        <f t="shared" ref="G210:G214" si="176">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G58</f>
         <v>37.295000000000002</v>
       </c>
+      <c r="H210" s="58">
+        <f t="shared" ref="H210:H214" si="177">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H58</f>
+        <v>38.046999999999997</v>
+      </c>
+      <c r="I210" s="58">
+        <f t="shared" ref="I210:I214" si="178">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I58</f>
+        <v>39.43</v>
+      </c>
+      <c r="J210" s="58">
+        <f t="shared" ref="J210:J214" si="179">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J58</f>
+        <v>41.491</v>
+      </c>
       <c r="K210" s="58">
-        <f t="shared" ref="K210:M214" si="108">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K58</f>
+        <f t="shared" ref="K210:M214" si="180">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K58</f>
         <v>44.042000000000002</v>
       </c>
       <c r="L210" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M210" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N210" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N58</f>
+        <f t="shared" si="174"/>
         <v>10.347</v>
       </c>
       <c r="O210" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O58</f>
+        <f t="shared" si="175"/>
         <v>9.77</v>
       </c>
     </row>
@@ -7540,27 +9089,39 @@
         <v>118</v>
       </c>
       <c r="G211" s="58">
-        <f t="shared" si="107"/>
+        <f t="shared" si="176"/>
         <v>36.364000000000004</v>
       </c>
+      <c r="H211" s="58">
+        <f t="shared" si="177"/>
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I211" s="58">
+        <f t="shared" si="178"/>
+        <v>37.625</v>
+      </c>
+      <c r="J211" s="58">
+        <f t="shared" si="179"/>
+        <v>38.831000000000003</v>
+      </c>
       <c r="K211" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L211" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M211" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>46.25</v>
       </c>
       <c r="N211" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N59</f>
+        <f t="shared" si="174"/>
         <v>7.5539999999999994</v>
       </c>
       <c r="O211" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O59</f>
+        <f t="shared" si="175"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
@@ -7569,27 +9130,39 @@
         <v>117</v>
       </c>
       <c r="G212" s="58">
-        <f t="shared" si="107"/>
+        <f t="shared" si="176"/>
         <v>37.393000000000001</v>
       </c>
+      <c r="H212" s="58">
+        <f t="shared" si="177"/>
+        <v>38.177</v>
+      </c>
+      <c r="I212" s="58">
+        <f t="shared" si="178"/>
+        <v>39.620000000000005</v>
+      </c>
+      <c r="J212" s="58">
+        <f t="shared" si="179"/>
+        <v>41.771000000000001</v>
+      </c>
       <c r="K212" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>44.434000000000005</v>
       </c>
       <c r="L212" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>47.575000000000003</v>
       </c>
       <c r="M212" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>53.075000000000003</v>
       </c>
       <c r="N212" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N60</f>
+        <f t="shared" si="174"/>
         <v>10.640999999999998</v>
       </c>
       <c r="O212" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O60</f>
+        <f t="shared" si="175"/>
         <v>10</v>
       </c>
     </row>
@@ -7598,27 +9171,39 @@
         <v>168</v>
       </c>
       <c r="G213" s="58">
-        <f t="shared" si="107"/>
+        <f t="shared" si="176"/>
         <v>36.364000000000004</v>
       </c>
+      <c r="H213" s="58">
+        <f t="shared" si="177"/>
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I213" s="58">
+        <f t="shared" si="178"/>
+        <v>37.625</v>
+      </c>
+      <c r="J213" s="58">
+        <f t="shared" si="179"/>
+        <v>38.831000000000003</v>
+      </c>
       <c r="K213" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L213" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M213" s="58">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>46.25</v>
       </c>
       <c r="N213" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N61</f>
+        <f t="shared" si="174"/>
         <v>7.5539999999999994</v>
       </c>
       <c r="O213" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O61</f>
+        <f t="shared" si="175"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
@@ -7627,27 +9212,39 @@
         <v>116</v>
       </c>
       <c r="G214" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="176"/>
         <v>35.923000000000002</v>
       </c>
+      <c r="H214" s="63">
+        <f t="shared" si="177"/>
+        <v>36.226999999999997</v>
+      </c>
+      <c r="I214" s="63">
+        <f t="shared" si="178"/>
+        <v>36.770000000000003</v>
+      </c>
+      <c r="J214" s="63">
+        <f t="shared" si="179"/>
+        <v>37.570999999999998</v>
+      </c>
       <c r="K214" s="63">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>38.554000000000002</v>
       </c>
       <c r="L214" s="63">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>41.275000000000006</v>
       </c>
       <c r="M214" s="63">
-        <f t="shared" si="108"/>
+        <f t="shared" si="180"/>
         <v>43.325000000000003</v>
       </c>
       <c r="N214" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N62</f>
+        <f t="shared" si="174"/>
         <v>6.2309999999999999</v>
       </c>
       <c r="O214" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O62</f>
+        <f t="shared" si="175"/>
         <v>6.5500000000000007</v>
       </c>
     </row>
@@ -7662,6 +9259,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G64</f>
         <v>36.412999999999997</v>
       </c>
+      <c r="H216" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H64</f>
+        <v>36.876999999999995</v>
+      </c>
+      <c r="I216" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I64</f>
+        <v>37.72</v>
+      </c>
+      <c r="J216" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J64</f>
+        <v>38.971000000000004</v>
+      </c>
       <c r="K216" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K64</f>
         <v>40.514000000000003</v>
@@ -7675,11 +9284,11 @@
         <v>46.575000000000003</v>
       </c>
       <c r="N216" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N64</f>
+        <f t="shared" ref="N216:N221" si="181">SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N64</f>
         <v>7.7009999999999996</v>
       </c>
       <c r="O216" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O64</f>
+        <f t="shared" ref="O216:O221" si="182">SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O64</f>
         <v>7.7000000000000011</v>
       </c>
     </row>
@@ -7688,27 +9297,39 @@
         <v>114</v>
       </c>
       <c r="G217" s="58">
-        <f t="shared" ref="G217:G221" si="109">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G65</f>
+        <f t="shared" ref="G217:G221" si="183">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$154+G65</f>
         <v>37.295000000000002</v>
       </c>
+      <c r="H217" s="58">
+        <f t="shared" ref="H217:H221" si="184">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$154+$H65</f>
+        <v>38.046999999999997</v>
+      </c>
+      <c r="I217" s="58">
+        <f t="shared" ref="I217:I221" si="185">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$154+$I65</f>
+        <v>39.43</v>
+      </c>
+      <c r="J217" s="58">
+        <f t="shared" ref="J217:J221" si="186">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$154+$J65</f>
+        <v>41.491</v>
+      </c>
       <c r="K217" s="58">
-        <f t="shared" ref="K217:M221" si="110">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K65</f>
+        <f t="shared" ref="K217:M221" si="187">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$154+K65</f>
         <v>44.042000000000002</v>
       </c>
       <c r="L217" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M217" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N217" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N65</f>
+        <f t="shared" si="181"/>
         <v>10.347</v>
       </c>
       <c r="O217" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O65</f>
+        <f t="shared" si="182"/>
         <v>9.77</v>
       </c>
     </row>
@@ -7717,27 +9338,39 @@
         <v>113</v>
       </c>
       <c r="G218" s="58">
-        <f t="shared" si="109"/>
+        <f t="shared" si="183"/>
         <v>36.364000000000004</v>
       </c>
+      <c r="H218" s="58">
+        <f t="shared" si="184"/>
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I218" s="58">
+        <f t="shared" si="185"/>
+        <v>37.625</v>
+      </c>
+      <c r="J218" s="58">
+        <f t="shared" si="186"/>
+        <v>38.831000000000003</v>
+      </c>
       <c r="K218" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L218" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M218" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>46.25</v>
       </c>
       <c r="N218" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N66</f>
+        <f t="shared" si="181"/>
         <v>7.5539999999999994</v>
       </c>
       <c r="O218" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O66</f>
+        <f t="shared" si="182"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
@@ -7746,27 +9379,39 @@
         <v>112</v>
       </c>
       <c r="G219" s="58">
-        <f t="shared" si="109"/>
+        <f t="shared" si="183"/>
         <v>37.295000000000002</v>
       </c>
+      <c r="H219" s="58">
+        <f t="shared" si="184"/>
+        <v>38.046999999999997</v>
+      </c>
+      <c r="I219" s="58">
+        <f t="shared" si="185"/>
+        <v>39.43</v>
+      </c>
+      <c r="J219" s="58">
+        <f t="shared" si="186"/>
+        <v>41.491</v>
+      </c>
       <c r="K219" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>44.042000000000002</v>
       </c>
       <c r="L219" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>47.155000000000001</v>
       </c>
       <c r="M219" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>52.424999999999997</v>
       </c>
       <c r="N219" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N67</f>
+        <f t="shared" si="181"/>
         <v>10.347</v>
       </c>
       <c r="O219" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O67</f>
+        <f t="shared" si="182"/>
         <v>9.77</v>
       </c>
     </row>
@@ -7775,27 +9420,39 @@
         <v>168</v>
       </c>
       <c r="G220" s="58">
-        <f t="shared" si="109"/>
+        <f t="shared" si="183"/>
         <v>36.364000000000004</v>
       </c>
+      <c r="H220" s="58">
+        <f t="shared" si="184"/>
+        <v>36.811999999999998</v>
+      </c>
+      <c r="I220" s="58">
+        <f t="shared" si="185"/>
+        <v>37.625</v>
+      </c>
+      <c r="J220" s="58">
+        <f t="shared" si="186"/>
+        <v>38.831000000000003</v>
+      </c>
       <c r="K220" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>40.317999999999998</v>
       </c>
       <c r="L220" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>43.165000000000006</v>
       </c>
       <c r="M220" s="58">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>46.25</v>
       </c>
       <c r="N220" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N68</f>
+        <f t="shared" si="181"/>
         <v>7.5539999999999994</v>
       </c>
       <c r="O220" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O68</f>
+        <f t="shared" si="182"/>
         <v>7.5850000000000009</v>
       </c>
     </row>
@@ -7804,27 +9461,39 @@
         <v>111</v>
       </c>
       <c r="G221" s="63">
-        <f t="shared" si="109"/>
+        <f t="shared" si="183"/>
         <v>35.923000000000002</v>
       </c>
+      <c r="H221" s="63">
+        <f t="shared" si="184"/>
+        <v>36.226999999999997</v>
+      </c>
+      <c r="I221" s="63">
+        <f t="shared" si="185"/>
+        <v>36.770000000000003</v>
+      </c>
+      <c r="J221" s="63">
+        <f t="shared" si="186"/>
+        <v>37.570999999999998</v>
+      </c>
       <c r="K221" s="63">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>38.554000000000002</v>
       </c>
       <c r="L221" s="63">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>41.275000000000006</v>
       </c>
       <c r="M221" s="63">
-        <f t="shared" si="110"/>
+        <f t="shared" si="187"/>
         <v>43.325000000000003</v>
       </c>
       <c r="N221" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$150+N$152+N$154+$N69</f>
+        <f t="shared" si="181"/>
         <v>6.2309999999999999</v>
       </c>
       <c r="O221" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$150+O$152+O$154+$O69</f>
+        <f t="shared" si="182"/>
         <v>6.5500000000000007</v>
       </c>
     </row>
@@ -7839,6 +9508,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G71</f>
         <v>37.265000000000001</v>
       </c>
+      <c r="H223" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H71</f>
+        <v>37.920999999999999</v>
+      </c>
+      <c r="I223" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I71</f>
+        <v>39.114999999999995</v>
+      </c>
+      <c r="J223" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J71</f>
+        <v>40.887999999999998</v>
+      </c>
       <c r="K223" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K71</f>
         <v>43.076000000000008</v>
@@ -7865,19 +9546,31 @@
         <v>145</v>
       </c>
       <c r="G224" s="58">
-        <f t="shared" ref="G224:G227" si="111">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G72</f>
+        <f t="shared" ref="G224:G227" si="188">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G72</f>
         <v>37.118000000000002</v>
       </c>
+      <c r="H224" s="58">
+        <f t="shared" ref="H224:H227" si="189">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H72</f>
+        <v>37.725999999999999</v>
+      </c>
+      <c r="I224" s="58">
+        <f t="shared" ref="I224:I227" si="190">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I72</f>
+        <v>38.83</v>
+      </c>
+      <c r="J224" s="58">
+        <f t="shared" ref="J224:J227" si="191">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J72</f>
+        <v>40.468000000000004</v>
+      </c>
       <c r="K224" s="58">
-        <f t="shared" ref="K224:M227" si="112">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K72</f>
+        <f t="shared" ref="K224:M227" si="192">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K72</f>
         <v>42.488</v>
       </c>
       <c r="L224" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>45.56</v>
       </c>
       <c r="M224" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>49.75</v>
       </c>
       <c r="N224" s="100">
@@ -7894,19 +9587,31 @@
         <v>144</v>
       </c>
       <c r="G225" s="58">
-        <f t="shared" si="111"/>
+        <f t="shared" si="188"/>
         <v>36.921999999999997</v>
       </c>
+      <c r="H225" s="58">
+        <f t="shared" si="189"/>
+        <v>37.466000000000001</v>
+      </c>
+      <c r="I225" s="58">
+        <f t="shared" si="190"/>
+        <v>38.450000000000003</v>
+      </c>
+      <c r="J225" s="58">
+        <f t="shared" si="191"/>
+        <v>39.908000000000001</v>
+      </c>
       <c r="K225" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L225" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>44.72</v>
       </c>
       <c r="M225" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>48.45</v>
       </c>
       <c r="N225" s="100">
@@ -7923,19 +9628,31 @@
         <v>143</v>
       </c>
       <c r="G226" s="58">
-        <f t="shared" si="111"/>
+        <f t="shared" si="188"/>
         <v>36.285000000000004</v>
       </c>
+      <c r="H226" s="58">
+        <f t="shared" si="189"/>
+        <v>36.621000000000002</v>
+      </c>
+      <c r="I226" s="58">
+        <f t="shared" si="190"/>
+        <v>37.215000000000003</v>
+      </c>
+      <c r="J226" s="58">
+        <f t="shared" si="191"/>
+        <v>38.088000000000001</v>
+      </c>
       <c r="K226" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L226" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>41.99</v>
       </c>
       <c r="M226" s="58">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N226" s="100">
@@ -7952,19 +9669,31 @@
         <v>142</v>
       </c>
       <c r="G227" s="63">
-        <f t="shared" si="111"/>
+        <f t="shared" si="188"/>
         <v>37.020000000000003</v>
       </c>
+      <c r="H227" s="63">
+        <f t="shared" si="189"/>
+        <v>37.596000000000004</v>
+      </c>
+      <c r="I227" s="63">
+        <f t="shared" si="190"/>
+        <v>38.64</v>
+      </c>
+      <c r="J227" s="63">
+        <f t="shared" si="191"/>
+        <v>40.188000000000002</v>
+      </c>
       <c r="K227" s="63">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L227" s="63">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>45.14</v>
       </c>
       <c r="M227" s="63">
-        <f t="shared" si="112"/>
+        <f t="shared" si="192"/>
         <v>49.099999999999994</v>
       </c>
       <c r="N227" s="100">
@@ -7987,6 +9716,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G77</f>
         <v>37.265000000000001</v>
       </c>
+      <c r="H229" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H77</f>
+        <v>37.920999999999999</v>
+      </c>
+      <c r="I229" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I77</f>
+        <v>39.114999999999995</v>
+      </c>
+      <c r="J229" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J77</f>
+        <v>40.887999999999998</v>
+      </c>
       <c r="K229" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K77</f>
         <v>43.076000000000008</v>
@@ -8013,19 +9754,31 @@
         <v>140</v>
       </c>
       <c r="G230" s="58">
-        <f t="shared" ref="G230:G233" si="113">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G78</f>
+        <f t="shared" ref="G230:G233" si="193">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G78</f>
         <v>36.921999999999997</v>
       </c>
+      <c r="H230" s="58">
+        <f t="shared" ref="H230:H233" si="194">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H78</f>
+        <v>37.466000000000001</v>
+      </c>
+      <c r="I230" s="58">
+        <f t="shared" ref="I230:I233" si="195">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I78</f>
+        <v>38.450000000000003</v>
+      </c>
+      <c r="J230" s="58">
+        <f t="shared" ref="J230:J233" si="196">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J78</f>
+        <v>39.908000000000001</v>
+      </c>
       <c r="K230" s="58">
-        <f t="shared" ref="K230:L233" si="114">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K78</f>
+        <f t="shared" ref="K230:L233" si="197">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K78</f>
         <v>41.704000000000001</v>
       </c>
       <c r="L230" s="58">
-        <f t="shared" si="114"/>
+        <f t="shared" si="197"/>
         <v>44.72</v>
       </c>
       <c r="M230" s="58">
-        <f t="shared" ref="M230:M233" si="115">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L78</f>
+        <f t="shared" ref="M230:M233" si="198">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L78</f>
         <v>44.72</v>
       </c>
       <c r="N230" s="100">
@@ -8042,19 +9795,31 @@
         <v>139</v>
       </c>
       <c r="G231" s="58">
-        <f t="shared" si="113"/>
+        <f t="shared" si="193"/>
         <v>36.921999999999997</v>
       </c>
+      <c r="H231" s="58">
+        <f t="shared" si="194"/>
+        <v>37.466000000000001</v>
+      </c>
+      <c r="I231" s="58">
+        <f t="shared" si="195"/>
+        <v>38.450000000000003</v>
+      </c>
+      <c r="J231" s="58">
+        <f t="shared" si="196"/>
+        <v>39.908000000000001</v>
+      </c>
       <c r="K231" s="58">
-        <f t="shared" si="114"/>
+        <f t="shared" si="197"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L231" s="58">
-        <f t="shared" si="114"/>
+        <f t="shared" si="197"/>
         <v>44.72</v>
       </c>
       <c r="M231" s="58">
-        <f t="shared" si="115"/>
+        <f t="shared" si="198"/>
         <v>44.72</v>
       </c>
       <c r="N231" s="100">
@@ -8071,19 +9836,31 @@
         <v>169</v>
       </c>
       <c r="G232" s="58">
-        <f t="shared" si="113"/>
+        <f t="shared" si="193"/>
         <v>36.285000000000004</v>
       </c>
+      <c r="H232" s="58">
+        <f t="shared" si="194"/>
+        <v>36.621000000000002</v>
+      </c>
+      <c r="I232" s="58">
+        <f t="shared" si="195"/>
+        <v>37.215000000000003</v>
+      </c>
+      <c r="J232" s="58">
+        <f t="shared" si="196"/>
+        <v>38.088000000000001</v>
+      </c>
       <c r="K232" s="58">
-        <f t="shared" si="114"/>
+        <f t="shared" si="197"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L232" s="58">
-        <f t="shared" si="114"/>
+        <f t="shared" si="197"/>
         <v>41.99</v>
       </c>
       <c r="M232" s="58">
-        <f t="shared" si="115"/>
+        <f t="shared" si="198"/>
         <v>41.99</v>
       </c>
       <c r="N232" s="100">
@@ -8100,19 +9877,31 @@
         <v>138</v>
       </c>
       <c r="G233" s="63">
-        <f t="shared" si="113"/>
+        <f t="shared" si="193"/>
         <v>37.020000000000003</v>
       </c>
+      <c r="H233" s="63">
+        <f t="shared" si="194"/>
+        <v>37.596000000000004</v>
+      </c>
+      <c r="I233" s="63">
+        <f t="shared" si="195"/>
+        <v>38.64</v>
+      </c>
+      <c r="J233" s="63">
+        <f t="shared" si="196"/>
+        <v>40.188000000000002</v>
+      </c>
       <c r="K233" s="63">
-        <f t="shared" si="114"/>
+        <f t="shared" si="197"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L233" s="63">
-        <f t="shared" si="114"/>
+        <f t="shared" si="197"/>
         <v>45.14</v>
       </c>
       <c r="M233" s="63">
-        <f t="shared" si="115"/>
+        <f t="shared" si="198"/>
         <v>45.14</v>
       </c>
       <c r="N233" s="100">
@@ -8135,6 +9924,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G83</f>
         <v>38.823999999999998</v>
       </c>
+      <c r="H235" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H83</f>
+        <v>39.335999999999999</v>
+      </c>
+      <c r="I235" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I83</f>
+        <v>40.26</v>
+      </c>
+      <c r="J235" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J83</f>
+        <v>41.628</v>
+      </c>
       <c r="K235" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K83</f>
         <v>43.312000000000005</v>
@@ -8148,11 +9949,11 @@
         <v>50.8</v>
       </c>
       <c r="N235" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N83</f>
+        <f t="shared" ref="N235:N240" si="199">SUM(N$161:N$162)+N$147+N$149+N$151+$N83</f>
         <v>6.8140000000000001</v>
       </c>
       <c r="O235" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O83</f>
+        <f t="shared" ref="O235:O240" si="200">SUM(O$161:O$162)+O$147+O$149+O$151+$O83</f>
         <v>6.9</v>
       </c>
     </row>
@@ -8161,27 +9962,39 @@
         <v>109</v>
       </c>
       <c r="G236" s="58">
-        <f t="shared" ref="G236:G240" si="116">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G84</f>
+        <f t="shared" ref="G236:G240" si="201">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G84</f>
         <v>39.706000000000003</v>
       </c>
+      <c r="H236" s="58">
+        <f t="shared" ref="H236:H240" si="202">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H84</f>
+        <v>40.506</v>
+      </c>
+      <c r="I236" s="58">
+        <f t="shared" ref="I236:I240" si="203">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I84</f>
+        <v>41.97</v>
+      </c>
+      <c r="J236" s="58">
+        <f t="shared" ref="J236:J240" si="204">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J84</f>
+        <v>44.147999999999996</v>
+      </c>
       <c r="K236" s="58">
-        <f t="shared" ref="K236:K240" si="117">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K84</f>
+        <f t="shared" ref="K236:K240" si="205">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K84</f>
         <v>46.84</v>
       </c>
       <c r="L236" s="58">
-        <f t="shared" ref="L236:L240" si="118">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L84</f>
+        <f t="shared" ref="L236:L240" si="206">SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$151+L84</f>
         <v>51.08</v>
       </c>
       <c r="M236" s="58">
-        <f t="shared" ref="M236:M240" si="119">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M84</f>
+        <f t="shared" ref="M236:M240" si="207">SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$151+M84</f>
         <v>56.65</v>
       </c>
       <c r="N236" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N84</f>
+        <f t="shared" si="199"/>
         <v>9.4599999999999991</v>
       </c>
       <c r="O236" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O84</f>
+        <f t="shared" si="200"/>
         <v>8.9700000000000006</v>
       </c>
     </row>
@@ -8190,27 +10003,39 @@
         <v>108</v>
       </c>
       <c r="G237" s="58">
-        <f t="shared" si="116"/>
+        <f t="shared" si="201"/>
         <v>38.775000000000006</v>
       </c>
+      <c r="H237" s="58">
+        <f t="shared" si="202"/>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I237" s="58">
+        <f t="shared" si="203"/>
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J237" s="58">
+        <f t="shared" si="204"/>
+        <v>41.488</v>
+      </c>
       <c r="K237" s="58">
-        <f t="shared" si="117"/>
+        <f t="shared" si="205"/>
         <v>43.116</v>
       </c>
       <c r="L237" s="58">
-        <f t="shared" si="118"/>
+        <f t="shared" si="206"/>
         <v>47.09</v>
       </c>
       <c r="M237" s="58">
-        <f t="shared" si="119"/>
+        <f t="shared" si="207"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N237" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N85</f>
+        <f t="shared" si="199"/>
         <v>6.6669999999999998</v>
       </c>
       <c r="O237" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O85</f>
+        <f t="shared" si="200"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
@@ -8219,27 +10044,39 @@
         <v>107</v>
       </c>
       <c r="G238" s="58">
-        <f t="shared" si="116"/>
+        <f t="shared" si="201"/>
         <v>39.804000000000002</v>
       </c>
+      <c r="H238" s="58">
+        <f t="shared" si="202"/>
+        <v>40.636000000000003</v>
+      </c>
+      <c r="I238" s="58">
+        <f t="shared" si="203"/>
+        <v>42.16</v>
+      </c>
+      <c r="J238" s="58">
+        <f t="shared" si="204"/>
+        <v>44.427999999999997</v>
+      </c>
       <c r="K238" s="58">
-        <f t="shared" si="117"/>
+        <f t="shared" si="205"/>
         <v>47.232000000000006</v>
       </c>
       <c r="L238" s="58">
-        <f t="shared" si="118"/>
+        <f t="shared" si="206"/>
         <v>51.5</v>
       </c>
       <c r="M238" s="58">
-        <f t="shared" si="119"/>
+        <f t="shared" si="207"/>
         <v>57.3</v>
       </c>
       <c r="N238" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N86</f>
+        <f t="shared" si="199"/>
         <v>9.7539999999999996</v>
       </c>
       <c r="O238" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O86</f>
+        <f t="shared" si="200"/>
         <v>9.2000000000000011</v>
       </c>
     </row>
@@ -8248,27 +10085,39 @@
         <v>170</v>
       </c>
       <c r="G239" s="58">
-        <f t="shared" si="116"/>
+        <f t="shared" si="201"/>
         <v>38.775000000000006</v>
       </c>
+      <c r="H239" s="58">
+        <f t="shared" si="202"/>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I239" s="58">
+        <f t="shared" si="203"/>
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J239" s="58">
+        <f t="shared" si="204"/>
+        <v>41.488</v>
+      </c>
       <c r="K239" s="58">
-        <f t="shared" si="117"/>
+        <f t="shared" si="205"/>
         <v>43.116</v>
       </c>
       <c r="L239" s="58">
-        <f t="shared" si="118"/>
+        <f t="shared" si="206"/>
         <v>47.09</v>
       </c>
       <c r="M239" s="58">
-        <f t="shared" si="119"/>
+        <f t="shared" si="207"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N239" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N87</f>
+        <f t="shared" si="199"/>
         <v>6.6669999999999998</v>
       </c>
       <c r="O239" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O87</f>
+        <f t="shared" si="200"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
@@ -8277,27 +10126,39 @@
         <v>106</v>
       </c>
       <c r="G240" s="63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="201"/>
         <v>38.334000000000003</v>
       </c>
+      <c r="H240" s="63">
+        <f t="shared" si="202"/>
+        <v>38.686</v>
+      </c>
+      <c r="I240" s="63">
+        <f t="shared" si="203"/>
+        <v>39.31</v>
+      </c>
+      <c r="J240" s="63">
+        <f t="shared" si="204"/>
+        <v>40.228000000000002</v>
+      </c>
       <c r="K240" s="63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="205"/>
         <v>41.352000000000004</v>
       </c>
       <c r="L240" s="63">
-        <f t="shared" si="118"/>
+        <f t="shared" si="206"/>
         <v>45.2</v>
       </c>
       <c r="M240" s="63">
-        <f t="shared" si="119"/>
+        <f t="shared" si="207"/>
         <v>47.55</v>
       </c>
       <c r="N240" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N88</f>
+        <f t="shared" si="199"/>
         <v>5.3439999999999994</v>
       </c>
       <c r="O240" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O88</f>
+        <f t="shared" si="200"/>
         <v>5.75</v>
       </c>
     </row>
@@ -8312,6 +10173,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G90</f>
         <v>38.823999999999998</v>
       </c>
+      <c r="H242" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H90</f>
+        <v>39.335999999999999</v>
+      </c>
+      <c r="I242" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I90</f>
+        <v>40.26</v>
+      </c>
+      <c r="J242" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J90</f>
+        <v>41.628</v>
+      </c>
       <c r="K242" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K90</f>
         <v>43.312000000000005</v>
@@ -8325,11 +10198,11 @@
         <v>50.8</v>
       </c>
       <c r="N242" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N90</f>
+        <f t="shared" ref="N242:N247" si="208">SUM(N$161:N$162)+N$147+N$149+N$151+$N90</f>
         <v>6.8140000000000001</v>
       </c>
       <c r="O242" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O90</f>
+        <f t="shared" ref="O242:O247" si="209">SUM(O$161:O$162)+O$147+O$149+O$151+$O90</f>
         <v>6.9</v>
       </c>
     </row>
@@ -8338,27 +10211,39 @@
         <v>104</v>
       </c>
       <c r="G243" s="58">
-        <f t="shared" ref="G243:G247" si="120">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G91</f>
+        <f t="shared" ref="G243:G247" si="210">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$151+G91</f>
         <v>39.706000000000003</v>
       </c>
+      <c r="H243" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H91</f>
+        <v>40.506</v>
+      </c>
+      <c r="I243" s="58">
+        <f t="shared" ref="I243:I247" si="211">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$151+$I91</f>
+        <v>41.97</v>
+      </c>
+      <c r="J243" s="58">
+        <f t="shared" ref="J243:J247" si="212">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$151+$J91</f>
+        <v>44.147999999999996</v>
+      </c>
       <c r="K243" s="58">
-        <f t="shared" ref="K243:M247" si="121">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K91</f>
+        <f t="shared" ref="K243:M247" si="213">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K91</f>
         <v>46.84</v>
       </c>
       <c r="L243" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>51.08</v>
       </c>
       <c r="M243" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>56.65</v>
       </c>
       <c r="N243" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N91</f>
+        <f t="shared" si="208"/>
         <v>9.4599999999999991</v>
       </c>
       <c r="O243" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O91</f>
+        <f t="shared" si="209"/>
         <v>8.9700000000000006</v>
       </c>
     </row>
@@ -8367,27 +10252,39 @@
         <v>103</v>
       </c>
       <c r="G244" s="58">
-        <f t="shared" si="120"/>
+        <f t="shared" si="210"/>
         <v>38.775000000000006</v>
       </c>
+      <c r="H244" s="58">
+        <f t="shared" ref="H244:H247" si="214">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$151+$H92</f>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I244" s="58">
+        <f t="shared" si="211"/>
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J244" s="58">
+        <f t="shared" si="212"/>
+        <v>41.488</v>
+      </c>
       <c r="K244" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>43.116</v>
       </c>
       <c r="L244" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>47.09</v>
       </c>
       <c r="M244" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N244" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N92</f>
+        <f t="shared" si="208"/>
         <v>6.6669999999999998</v>
       </c>
       <c r="O244" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O92</f>
+        <f t="shared" si="209"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
@@ -8396,27 +10293,39 @@
         <v>102</v>
       </c>
       <c r="G245" s="58">
-        <f t="shared" si="120"/>
+        <f t="shared" si="210"/>
         <v>39.706000000000003</v>
       </c>
+      <c r="H245" s="58">
+        <f t="shared" si="214"/>
+        <v>40.506</v>
+      </c>
+      <c r="I245" s="58">
+        <f t="shared" si="211"/>
+        <v>41.97</v>
+      </c>
+      <c r="J245" s="58">
+        <f t="shared" si="212"/>
+        <v>44.147999999999996</v>
+      </c>
       <c r="K245" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>46.84</v>
       </c>
       <c r="L245" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>51.08</v>
       </c>
       <c r="M245" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>56.65</v>
       </c>
       <c r="N245" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N93</f>
+        <f t="shared" si="208"/>
         <v>9.4599999999999991</v>
       </c>
       <c r="O245" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O93</f>
+        <f t="shared" si="209"/>
         <v>8.9700000000000006</v>
       </c>
     </row>
@@ -8425,27 +10334,39 @@
         <v>170</v>
       </c>
       <c r="G246" s="58">
-        <f t="shared" si="120"/>
+        <f t="shared" si="210"/>
         <v>38.775000000000006</v>
       </c>
+      <c r="H246" s="58">
+        <f t="shared" si="214"/>
+        <v>39.271000000000001</v>
+      </c>
+      <c r="I246" s="58">
+        <f t="shared" si="211"/>
+        <v>40.164999999999999</v>
+      </c>
+      <c r="J246" s="58">
+        <f t="shared" si="212"/>
+        <v>41.488</v>
+      </c>
       <c r="K246" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>43.116</v>
       </c>
       <c r="L246" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>47.09</v>
       </c>
       <c r="M246" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>50.475000000000001</v>
       </c>
       <c r="N246" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N94</f>
+        <f t="shared" si="208"/>
         <v>6.6669999999999998</v>
       </c>
       <c r="O246" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O94</f>
+        <f t="shared" si="209"/>
         <v>6.7850000000000001</v>
       </c>
     </row>
@@ -8454,27 +10375,39 @@
         <v>101</v>
       </c>
       <c r="G247" s="63">
-        <f t="shared" si="120"/>
+        <f t="shared" si="210"/>
         <v>38.334000000000003</v>
       </c>
+      <c r="H247" s="63">
+        <f t="shared" si="214"/>
+        <v>38.686</v>
+      </c>
+      <c r="I247" s="63">
+        <f t="shared" si="211"/>
+        <v>39.31</v>
+      </c>
+      <c r="J247" s="63">
+        <f t="shared" si="212"/>
+        <v>40.228000000000002</v>
+      </c>
       <c r="K247" s="63">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>41.352000000000004</v>
       </c>
       <c r="L247" s="63">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>45.2</v>
       </c>
       <c r="M247" s="63">
-        <f t="shared" si="121"/>
+        <f t="shared" si="213"/>
         <v>47.55</v>
       </c>
       <c r="N247" s="100">
-        <f>SUM(N$161:N$162)+N$147+N$149+N$151+$N95</f>
+        <f t="shared" si="208"/>
         <v>5.3439999999999994</v>
       </c>
       <c r="O247" s="100">
-        <f>SUM(O$161:O$162)+O$147+O$149+O$151+$O95</f>
+        <f t="shared" si="209"/>
         <v>5.75</v>
       </c>
     </row>
@@ -8489,6 +10422,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G97</f>
         <v>35.676000000000002</v>
       </c>
+      <c r="H249" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H97</f>
+        <v>36.379999999999995</v>
+      </c>
+      <c r="I249" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I97</f>
+        <v>37.655000000000001</v>
+      </c>
+      <c r="J249" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J97</f>
+        <v>39.545000000000002</v>
+      </c>
       <c r="K249" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K97</f>
         <v>43.076000000000008</v>
@@ -8515,19 +10460,31 @@
         <v>136</v>
       </c>
       <c r="G250" s="58">
-        <f t="shared" ref="G250:G253" si="122">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G98</f>
+        <f t="shared" ref="G250:G253" si="215">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G98</f>
         <v>35.332999999999998</v>
       </c>
+      <c r="H250" s="58">
+        <f t="shared" ref="H250:H253" si="216">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H98</f>
+        <v>35.924999999999997</v>
+      </c>
+      <c r="I250" s="58">
+        <f t="shared" ref="I250:I253" si="217">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I98</f>
+        <v>36.989999999999995</v>
+      </c>
+      <c r="J250" s="58">
+        <f t="shared" ref="J250:J253" si="218">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J98</f>
+        <v>38.564999999999998</v>
+      </c>
       <c r="K250" s="58">
-        <f t="shared" ref="K250:M253" si="123">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K98</f>
+        <f t="shared" ref="K250:M253" si="219">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$151+K98</f>
         <v>41.704000000000001</v>
       </c>
       <c r="L250" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>44.72</v>
       </c>
       <c r="M250" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>48.45</v>
       </c>
       <c r="N250" s="100">
@@ -8544,19 +10501,31 @@
         <v>135</v>
       </c>
       <c r="G251" s="58">
-        <f t="shared" si="122"/>
+        <f t="shared" si="215"/>
         <v>35.332999999999998</v>
       </c>
+      <c r="H251" s="58">
+        <f t="shared" si="216"/>
+        <v>35.924999999999997</v>
+      </c>
+      <c r="I251" s="58">
+        <f t="shared" si="217"/>
+        <v>36.989999999999995</v>
+      </c>
+      <c r="J251" s="58">
+        <f t="shared" si="218"/>
+        <v>38.564999999999998</v>
+      </c>
       <c r="K251" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>41.704000000000001</v>
       </c>
       <c r="L251" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>44.72</v>
       </c>
       <c r="M251" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>48.45</v>
       </c>
       <c r="N251" s="100">
@@ -8573,19 +10542,31 @@
         <v>171</v>
       </c>
       <c r="G252" s="58">
-        <f t="shared" si="122"/>
+        <f t="shared" si="215"/>
         <v>34.696000000000005</v>
       </c>
+      <c r="H252" s="58">
+        <f t="shared" si="216"/>
+        <v>35.08</v>
+      </c>
+      <c r="I252" s="58">
+        <f t="shared" si="217"/>
+        <v>35.754999999999995</v>
+      </c>
+      <c r="J252" s="58">
+        <f t="shared" si="218"/>
+        <v>36.744999999999997</v>
+      </c>
       <c r="K252" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>39.156000000000006</v>
       </c>
       <c r="L252" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>41.99</v>
       </c>
       <c r="M252" s="58">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>44.225000000000001</v>
       </c>
       <c r="N252" s="100">
@@ -8602,19 +10583,31 @@
         <v>134</v>
       </c>
       <c r="G253" s="63">
-        <f t="shared" si="122"/>
+        <f t="shared" si="215"/>
         <v>35.431000000000004</v>
       </c>
+      <c r="H253" s="63">
+        <f t="shared" si="216"/>
+        <v>36.055</v>
+      </c>
+      <c r="I253" s="63">
+        <f t="shared" si="217"/>
+        <v>37.18</v>
+      </c>
+      <c r="J253" s="63">
+        <f t="shared" si="218"/>
+        <v>38.844999999999999</v>
+      </c>
       <c r="K253" s="63">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>42.096000000000004</v>
       </c>
       <c r="L253" s="63">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>45.14</v>
       </c>
       <c r="M253" s="63">
-        <f t="shared" si="123"/>
+        <f t="shared" si="219"/>
         <v>49.099999999999994</v>
       </c>
       <c r="N253" s="100">
@@ -8637,6 +10630,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G103</f>
         <v>35.676000000000002</v>
       </c>
+      <c r="H255" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H103</f>
+        <v>36.379999999999995</v>
+      </c>
+      <c r="I255" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I103</f>
+        <v>37.655000000000001</v>
+      </c>
+      <c r="J255" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J103</f>
+        <v>39.545000000000002</v>
+      </c>
       <c r="K255" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K103</f>
         <v>41.873999999999995</v>
@@ -8663,15 +10668,27 @@
         <v>132</v>
       </c>
       <c r="G256" s="58">
-        <f t="shared" ref="G256:G259" si="124">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G104</f>
+        <f t="shared" ref="G256:G259" si="220">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G104</f>
         <v>35.332999999999998</v>
       </c>
+      <c r="H256" s="58">
+        <f t="shared" ref="H256:H259" si="221">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H104</f>
+        <v>35.924999999999997</v>
+      </c>
+      <c r="I256" s="58">
+        <f t="shared" ref="I256:I259" si="222">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I104</f>
+        <v>36.989999999999995</v>
+      </c>
+      <c r="J256" s="58">
+        <f t="shared" ref="J256:J259" si="223">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J104</f>
+        <v>38.564999999999998</v>
+      </c>
       <c r="K256" s="58">
-        <f t="shared" ref="K256:M259" si="125">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K104</f>
+        <f t="shared" ref="K256:L259" si="224">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K104</f>
         <v>40.501999999999995</v>
       </c>
       <c r="L256" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="224"/>
         <v>44.645000000000003</v>
       </c>
       <c r="M256" s="58">
@@ -8692,15 +10709,27 @@
         <v>131</v>
       </c>
       <c r="G257" s="58">
-        <f t="shared" si="124"/>
+        <f t="shared" si="220"/>
         <v>35.332999999999998</v>
       </c>
+      <c r="H257" s="58">
+        <f t="shared" si="221"/>
+        <v>35.924999999999997</v>
+      </c>
+      <c r="I257" s="58">
+        <f t="shared" si="222"/>
+        <v>36.989999999999995</v>
+      </c>
+      <c r="J257" s="58">
+        <f t="shared" si="223"/>
+        <v>38.564999999999998</v>
+      </c>
       <c r="K257" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="224"/>
         <v>40.501999999999995</v>
       </c>
       <c r="L257" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="224"/>
         <v>44.645000000000003</v>
       </c>
       <c r="M257" s="58">
@@ -8721,15 +10750,27 @@
         <v>172</v>
       </c>
       <c r="G258" s="58">
-        <f t="shared" si="124"/>
+        <f t="shared" si="220"/>
         <v>34.696000000000005</v>
       </c>
+      <c r="H258" s="58">
+        <f t="shared" si="221"/>
+        <v>35.08</v>
+      </c>
+      <c r="I258" s="58">
+        <f t="shared" si="222"/>
+        <v>35.754999999999995</v>
+      </c>
+      <c r="J258" s="58">
+        <f t="shared" si="223"/>
+        <v>36.744999999999997</v>
+      </c>
       <c r="K258" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="224"/>
         <v>37.953999999999994</v>
       </c>
       <c r="L258" s="58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="224"/>
         <v>41.915000000000006</v>
       </c>
       <c r="M258" s="58">
@@ -8750,15 +10791,27 @@
         <v>100</v>
       </c>
       <c r="G259" s="63">
-        <f t="shared" si="124"/>
+        <f t="shared" si="220"/>
         <v>35.431000000000004</v>
       </c>
+      <c r="H259" s="63">
+        <f t="shared" si="221"/>
+        <v>36.055</v>
+      </c>
+      <c r="I259" s="63">
+        <f t="shared" si="222"/>
+        <v>37.18</v>
+      </c>
+      <c r="J259" s="63">
+        <f t="shared" si="223"/>
+        <v>38.844999999999999</v>
+      </c>
       <c r="K259" s="63">
-        <f t="shared" si="125"/>
+        <f t="shared" si="224"/>
         <v>40.893999999999998</v>
       </c>
       <c r="L259" s="63">
-        <f t="shared" si="125"/>
+        <f t="shared" si="224"/>
         <v>45.064999999999998</v>
       </c>
       <c r="M259" s="63">
@@ -8785,6 +10838,18 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G109</f>
         <v>37.234999999999999</v>
       </c>
+      <c r="H261" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H109</f>
+        <v>37.795000000000002</v>
+      </c>
+      <c r="I261" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I109</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J261" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J109</f>
+        <v>40.284999999999997</v>
+      </c>
       <c r="K261" s="58">
         <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K109</f>
         <v>42.11</v>
@@ -8798,11 +10863,11 @@
         <v>51.025000000000006</v>
       </c>
       <c r="N261" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N109</f>
+        <f t="shared" ref="N261:N266" si="225">SUM(N$161:N$162)+N$148+$N109</f>
         <v>5.9269999999999996</v>
       </c>
       <c r="O261" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O109</f>
+        <f t="shared" ref="O261:O266" si="226">SUM(O$161:O$162)+O$148+$O109</f>
         <v>6.1000000000000005</v>
       </c>
     </row>
@@ -8811,27 +10876,39 @@
         <v>98</v>
       </c>
       <c r="G262" s="58">
-        <f t="shared" ref="G262:G266" si="126">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G110</f>
+        <f t="shared" ref="G262:G266" si="227">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G110</f>
         <v>38.117000000000004</v>
       </c>
+      <c r="H262" s="58">
+        <f t="shared" ref="H262:H266" si="228">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H110</f>
+        <v>38.964999999999996</v>
+      </c>
+      <c r="I262" s="58">
+        <f t="shared" ref="I262:I266" si="229">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I110</f>
+        <v>40.51</v>
+      </c>
+      <c r="J262" s="58">
+        <f t="shared" ref="J262:J266" si="230">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J110</f>
+        <v>42.805</v>
+      </c>
       <c r="K262" s="58">
-        <f t="shared" ref="K262:M266" si="127">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K110</f>
+        <f t="shared" ref="K262:M266" si="231">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K110</f>
         <v>45.637999999999998</v>
       </c>
       <c r="L262" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>51.005000000000003</v>
       </c>
       <c r="M262" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>56.875</v>
       </c>
       <c r="N262" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N110</f>
+        <f t="shared" si="225"/>
         <v>8.5730000000000004</v>
       </c>
       <c r="O262" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O110</f>
+        <f t="shared" si="226"/>
         <v>8.17</v>
       </c>
     </row>
@@ -8840,11 +10917,23 @@
         <v>97</v>
       </c>
       <c r="G263" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="227"/>
         <v>37.186000000000007</v>
       </c>
+      <c r="H263" s="58">
+        <f t="shared" si="228"/>
+        <v>37.729999999999997</v>
+      </c>
+      <c r="I263" s="58">
+        <f t="shared" si="229"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J263" s="58">
+        <f t="shared" si="230"/>
+        <v>40.144999999999996</v>
+      </c>
       <c r="K263" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L263" s="58">
@@ -8856,11 +10945,11 @@
         <v>50.7</v>
       </c>
       <c r="N263" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N111</f>
+        <f t="shared" si="225"/>
         <v>5.7799999999999994</v>
       </c>
       <c r="O263" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O111</f>
+        <f t="shared" si="226"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
@@ -8869,27 +10958,39 @@
         <v>96</v>
       </c>
       <c r="G264" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="227"/>
         <v>38.215000000000003</v>
       </c>
+      <c r="H264" s="58">
+        <f t="shared" si="228"/>
+        <v>39.094999999999999</v>
+      </c>
+      <c r="I264" s="58">
+        <f t="shared" si="229"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J264" s="58">
+        <f t="shared" si="230"/>
+        <v>43.085000000000001</v>
+      </c>
       <c r="K264" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>46.03</v>
       </c>
       <c r="L264" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>51.425000000000004</v>
       </c>
       <c r="M264" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>57.525000000000006</v>
       </c>
       <c r="N264" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N112</f>
+        <f t="shared" si="225"/>
         <v>8.8669999999999991</v>
       </c>
       <c r="O264" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O112</f>
+        <f t="shared" si="226"/>
         <v>8.4</v>
       </c>
     </row>
@@ -8898,15 +10999,27 @@
         <v>173</v>
       </c>
       <c r="G265" s="58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="227"/>
         <v>37.186000000000007</v>
       </c>
+      <c r="H265" s="58">
+        <f t="shared" si="228"/>
+        <v>37.729999999999997</v>
+      </c>
+      <c r="I265" s="58">
+        <f t="shared" si="229"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J265" s="58">
+        <f t="shared" si="230"/>
+        <v>40.144999999999996</v>
+      </c>
       <c r="K265" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L265" s="58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M265" s="58">
@@ -8914,11 +11027,11 @@
         <v>50.7</v>
       </c>
       <c r="N265" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N113</f>
+        <f t="shared" si="225"/>
         <v>5.7799999999999994</v>
       </c>
       <c r="O265" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O113</f>
+        <f t="shared" si="226"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
@@ -8927,11 +11040,23 @@
         <v>95</v>
       </c>
       <c r="G266" s="63">
-        <f t="shared" si="126"/>
+        <f t="shared" si="227"/>
         <v>36.745000000000005</v>
       </c>
+      <c r="H266" s="63">
+        <f t="shared" si="228"/>
+        <v>37.144999999999996</v>
+      </c>
+      <c r="I266" s="63">
+        <f t="shared" si="229"/>
+        <v>37.85</v>
+      </c>
+      <c r="J266" s="63">
+        <f t="shared" si="230"/>
+        <v>38.884999999999998</v>
+      </c>
       <c r="K266" s="63">
-        <f t="shared" si="127"/>
+        <f t="shared" si="231"/>
         <v>40.15</v>
       </c>
       <c r="L266" s="63">
@@ -8943,11 +11068,11 @@
         <v>47.775000000000006</v>
       </c>
       <c r="N266" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N114</f>
+        <f t="shared" si="225"/>
         <v>4.4569999999999999</v>
       </c>
       <c r="O266" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O114</f>
+        <f t="shared" si="226"/>
         <v>4.95</v>
       </c>
     </row>
@@ -8962,24 +11087,36 @@
         <f>SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G116</f>
         <v>37.234999999999999</v>
       </c>
+      <c r="H268" s="58">
+        <f>SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H116</f>
+        <v>37.795000000000002</v>
+      </c>
+      <c r="I268" s="58">
+        <f>SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I116</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J268" s="58">
+        <f>SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J116</f>
+        <v>40.284999999999997</v>
+      </c>
       <c r="K268" s="58">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K116</f>
+        <f t="shared" ref="K268:M273" si="232">SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K116</f>
         <v>42.11</v>
       </c>
       <c r="L268" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$150+L$149+L$148+L116</f>
+        <f t="shared" si="232"/>
         <v>47.225000000000009</v>
       </c>
       <c r="M268" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$150+M$149+M$148+M116</f>
+        <f t="shared" si="232"/>
         <v>51.025000000000006</v>
       </c>
       <c r="N268" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N116</f>
+        <f t="shared" ref="N268:N273" si="233">SUM(N$161:N$162)+N$148+$N116</f>
         <v>5.9269999999999996</v>
       </c>
       <c r="O268" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O116</f>
+        <f t="shared" ref="O268:O273" si="234">SUM(O$161:O$162)+O$148+$O116</f>
         <v>6.1000000000000005</v>
       </c>
     </row>
@@ -8988,27 +11125,39 @@
         <v>93</v>
       </c>
       <c r="G269" s="58">
-        <f t="shared" ref="G269:G273" si="128">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G117</f>
+        <f t="shared" ref="G269:G273" si="235">SUM(G$161:G$162)+G$159+G$158+G$156+G$155+G$153+G$152+G$150+G$149+G$148+G117</f>
         <v>38.117000000000004</v>
       </c>
+      <c r="H269" s="58">
+        <f t="shared" ref="H269:H273" si="236">SUM(H$161:H$162)+H$159+H$158+H$156+H$155+H$153+H$152+H$150+H$149+H$148+$H117</f>
+        <v>38.964999999999996</v>
+      </c>
+      <c r="I269" s="58">
+        <f t="shared" ref="I269:I273" si="237">SUM(I$161:I$162)+I$159+I$158+I$156+I$155+I$153+I$152+I$150+I$149+I$148+$I117</f>
+        <v>40.51</v>
+      </c>
+      <c r="J269" s="58">
+        <f t="shared" ref="J269:J273" si="238">SUM(J$161:J$162)+J$159+J$158+J$156+J$155+J$153+J$152+J$150+J$149+J$148+$J117</f>
+        <v>42.805</v>
+      </c>
       <c r="K269" s="58">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K117</f>
+        <f t="shared" si="232"/>
         <v>45.637999999999998</v>
       </c>
       <c r="L269" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$150+L$149+L$148+L117</f>
+        <f t="shared" si="232"/>
         <v>51.005000000000003</v>
       </c>
       <c r="M269" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$150+M$149+M$148+M117</f>
+        <f t="shared" si="232"/>
         <v>56.875</v>
       </c>
       <c r="N269" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N117</f>
+        <f t="shared" si="233"/>
         <v>8.5730000000000004</v>
       </c>
       <c r="O269" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O117</f>
+        <f t="shared" si="234"/>
         <v>8.17</v>
       </c>
     </row>
@@ -9017,27 +11166,39 @@
         <v>92</v>
       </c>
       <c r="G270" s="58">
-        <f t="shared" si="128"/>
+        <f t="shared" si="235"/>
         <v>37.186000000000007</v>
       </c>
+      <c r="H270" s="58">
+        <f t="shared" si="236"/>
+        <v>37.729999999999997</v>
+      </c>
+      <c r="I270" s="58">
+        <f t="shared" si="237"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J270" s="58">
+        <f t="shared" si="238"/>
+        <v>40.144999999999996</v>
+      </c>
       <c r="K270" s="58">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K118</f>
+        <f t="shared" si="232"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L270" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$150+L$149+L$148+L118</f>
+        <f t="shared" si="232"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M270" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$150+M$149+M$148+M118</f>
+        <f t="shared" si="232"/>
         <v>50.7</v>
       </c>
       <c r="N270" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N118</f>
+        <f t="shared" si="233"/>
         <v>5.7799999999999994</v>
       </c>
       <c r="O270" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O118</f>
+        <f t="shared" si="234"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
@@ -9046,27 +11207,39 @@
         <v>91</v>
       </c>
       <c r="G271" s="58">
-        <f t="shared" si="128"/>
+        <f t="shared" si="235"/>
         <v>38.215000000000003</v>
       </c>
+      <c r="H271" s="58">
+        <f t="shared" si="236"/>
+        <v>39.094999999999999</v>
+      </c>
+      <c r="I271" s="58">
+        <f t="shared" si="237"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J271" s="58">
+        <f t="shared" si="238"/>
+        <v>43.085000000000001</v>
+      </c>
       <c r="K271" s="58">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K119</f>
+        <f t="shared" si="232"/>
         <v>46.03</v>
       </c>
       <c r="L271" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$150+L$149+L$148+L119</f>
+        <f t="shared" si="232"/>
         <v>51.425000000000004</v>
       </c>
       <c r="M271" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$150+M$149+M$148+M119</f>
+        <f t="shared" si="232"/>
         <v>57.525000000000006</v>
       </c>
       <c r="N271" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N119</f>
+        <f t="shared" si="233"/>
         <v>8.8669999999999991</v>
       </c>
       <c r="O271" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O119</f>
+        <f t="shared" si="234"/>
         <v>8.4</v>
       </c>
     </row>
@@ -9075,27 +11248,39 @@
         <v>173</v>
       </c>
       <c r="G272" s="58">
-        <f t="shared" si="128"/>
+        <f t="shared" si="235"/>
         <v>37.186000000000007</v>
       </c>
+      <c r="H272" s="58">
+        <f t="shared" si="236"/>
+        <v>37.729999999999997</v>
+      </c>
+      <c r="I272" s="58">
+        <f t="shared" si="237"/>
+        <v>38.704999999999998</v>
+      </c>
+      <c r="J272" s="58">
+        <f t="shared" si="238"/>
+        <v>40.144999999999996</v>
+      </c>
       <c r="K272" s="58">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K120</f>
+        <f t="shared" si="232"/>
         <v>41.914000000000001</v>
       </c>
       <c r="L272" s="58">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$150+L$149+L$148+L120</f>
+        <f t="shared" si="232"/>
         <v>47.015000000000001</v>
       </c>
       <c r="M272" s="58">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$150+M$149+M$148+M120</f>
+        <f t="shared" si="232"/>
         <v>50.7</v>
       </c>
       <c r="N272" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N120</f>
+        <f t="shared" si="233"/>
         <v>5.7799999999999994</v>
       </c>
       <c r="O272" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O120</f>
+        <f t="shared" si="234"/>
         <v>5.9850000000000003</v>
       </c>
     </row>
@@ -9104,27 +11289,39 @@
         <v>90</v>
       </c>
       <c r="G273" s="63">
-        <f t="shared" si="128"/>
+        <f t="shared" si="235"/>
         <v>36.745000000000005</v>
       </c>
+      <c r="H273" s="63">
+        <f t="shared" si="236"/>
+        <v>37.144999999999996</v>
+      </c>
+      <c r="I273" s="63">
+        <f t="shared" si="237"/>
+        <v>37.85</v>
+      </c>
+      <c r="J273" s="63">
+        <f t="shared" si="238"/>
+        <v>38.884999999999998</v>
+      </c>
       <c r="K273" s="63">
-        <f>SUM(K$161:K$162)+K$159+K$158+K$156+K$155+K$153+K$152+K$150+K$149+K$148+K121</f>
+        <f t="shared" si="232"/>
         <v>40.15</v>
       </c>
       <c r="L273" s="63">
-        <f>SUM(L$161:L$162)+L$159+L$158+L$156+L$155+L$153+L$152+L$150+L$149+L$148+L121</f>
+        <f t="shared" si="232"/>
         <v>45.125</v>
       </c>
       <c r="M273" s="63">
-        <f>SUM(M$161:M$162)+M$159+M$158+M$156+M$155+M$153+M$152+M$150+M$149+M$148+M121</f>
+        <f t="shared" si="232"/>
         <v>47.775000000000006</v>
       </c>
       <c r="N273" s="100">
-        <f>SUM(N$161:N$162)+N$148+$N121</f>
+        <f t="shared" si="233"/>
         <v>4.4569999999999999</v>
       </c>
       <c r="O273" s="100">
-        <f>SUM(O$161:O$162)+O$148+$O121</f>
+        <f t="shared" si="234"/>
         <v>4.95</v>
       </c>
     </row>
@@ -9140,6 +11337,18 @@
         <f>MIN(G167:G273)</f>
         <v>33.874000000000002</v>
       </c>
+      <c r="H276" s="78">
+        <f>MIN(H167:H273)</f>
+        <v>34.161999999999999</v>
+      </c>
+      <c r="I276" s="78">
+        <f t="shared" ref="I276:J276" si="239">MIN(I167:I273)</f>
+        <v>34.674999999999997</v>
+      </c>
+      <c r="J276" s="78">
+        <f t="shared" si="239"/>
+        <v>35.430999999999997</v>
+      </c>
       <c r="K276" s="78">
         <f>MIN(K167:K273)</f>
         <v>36.358000000000004</v>
@@ -9168,6 +11377,18 @@
       <c r="G277" s="78">
         <f>MAX(G167:G273)</f>
         <v>43.888999999999996</v>
+      </c>
+      <c r="H277" s="78">
+        <f t="shared" ref="H277:J277" si="240">MAX(H167:H273)</f>
+        <v>44.809000000000005</v>
+      </c>
+      <c r="I277" s="78">
+        <f t="shared" si="240"/>
+        <v>45.03</v>
+      </c>
+      <c r="J277" s="78">
+        <f t="shared" si="240"/>
+        <v>46.137</v>
       </c>
       <c r="K277" s="78">
         <f>MAX(K167:K273)</f>
@@ -9195,28 +11416,28 @@
       <c r="A280" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C280" s="115" t="s">
+      <c r="C280" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="D280" s="116"/>
-      <c r="E280" s="117"/>
-      <c r="G280" s="115" t="s">
+      <c r="D280" s="120"/>
+      <c r="E280" s="121"/>
+      <c r="G280" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="H280" s="116"/>
-      <c r="I280" s="117"/>
+      <c r="H280" s="120"/>
+      <c r="I280" s="121"/>
     </row>
     <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C281" s="121">
+      <c r="C281" s="118">
         <v>47</v>
       </c>
       <c r="D281" s="104">
         <v>862</v>
       </c>
-      <c r="E281" s="120" t="s">
+      <c r="E281" s="117" t="s">
         <v>85</v>
       </c>
       <c r="G281" s="103">
@@ -9225,7 +11446,7 @@
       <c r="H281" s="104">
         <v>2150</v>
       </c>
-      <c r="I281" s="118" t="s">
+      <c r="I281" s="115" t="s">
         <v>85</v>
       </c>
     </row>
@@ -9233,15 +11454,15 @@
       <c r="A282" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C282" s="119">
+      <c r="C282" s="116">
         <f>G276</f>
         <v>33.874000000000002</v>
       </c>
-      <c r="D282" s="119">
+      <c r="D282" s="116">
         <f>K276</f>
         <v>36.358000000000004</v>
       </c>
-      <c r="E282" s="119">
+      <c r="E282" s="116">
         <f>D282-C282</f>
         <v>2.4840000000000018</v>
       </c>
@@ -9354,6 +11575,9 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H38:H43" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -9361,7 +11585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D52DB39-8578-429A-9498-50C656F3D0E2}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>

--- a/3C/ITSIT/PRE_ENTREGA_12DIC/CTI3.xlsx
+++ b/3C/ITSIT/PRE_ENTREGA_12DIC/CTI3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/cribella_upv_edu_es/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="893" documentId="13_ncr:1_{BCABF17B-4915-49D3-973F-BDBDC320AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BEC26D2-BFA3-4AC2-8600-EF07DBB822DA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4347C519-B6F4-4BE5-85E3-94D0FBA9924D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
     <sheet name="Antenna +Headend" sheetId="2" r:id="rId2"/>
+    <sheet name="Satellite" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="256">
   <si>
     <t>TECHNICAL CHARACTERISTICS OF ELEMENTS FROM CATALOGUE</t>
   </si>
@@ -661,13 +661,161 @@
   </si>
   <si>
     <t>470 MHz</t>
+  </si>
+  <si>
+    <t>ASTRA antenna</t>
+  </si>
+  <si>
+    <t>HISPASAT antenna</t>
+  </si>
+  <si>
+    <t>Parámetros recepción SAT</t>
+  </si>
+  <si>
+    <t>HISPASAT</t>
+  </si>
+  <si>
+    <t>ASTRA</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Radio Tierra (km)</t>
+  </si>
+  <si>
+    <t>Altura satélite (km)</t>
+  </si>
+  <si>
+    <t>d(km)</t>
+  </si>
+  <si>
+    <t>Elevación</t>
+  </si>
+  <si>
+    <t>Azimut</t>
+  </si>
+  <si>
+    <t>PIRE</t>
+  </si>
+  <si>
+    <t>Vrec_0dBi</t>
+  </si>
+  <si>
+    <t>C/Nout</t>
+  </si>
+  <si>
+    <t>Cin</t>
+  </si>
+  <si>
+    <t>Gpar</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>Te,sis</t>
+  </si>
+  <si>
+    <t>Nin</t>
+  </si>
+  <si>
+    <t>C/Nin</t>
+  </si>
+  <si>
+    <t>Beq</t>
+  </si>
+  <si>
+    <t>C/I(Samp)</t>
+  </si>
+  <si>
+    <t>C/I(Smax)</t>
+  </si>
+  <si>
+    <t>Samp</t>
+  </si>
+  <si>
+    <t>Smax30ch</t>
+  </si>
+  <si>
+    <t>Smax2ch</t>
+  </si>
+  <si>
+    <t>Amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset </t>
+  </si>
+  <si>
+    <t>BW (MHz)</t>
+  </si>
+  <si>
+    <t>F_lnb</t>
+  </si>
+  <si>
+    <t>Frec (GHz)</t>
+  </si>
+  <si>
+    <t>ThermalNoise(dBW)</t>
+  </si>
+  <si>
+    <t>Margen (dB)</t>
+  </si>
+  <si>
+    <t>Temp ambiente (K)</t>
+  </si>
+  <si>
+    <t>PIRE (dBW)</t>
+  </si>
+  <si>
+    <t>L_fs (dB)</t>
+  </si>
+  <si>
+    <t>L_atmos (dB)</t>
+  </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>C/N (dB) DVB-S</t>
+  </si>
+  <si>
+    <t>Gain dish antenna (dB)</t>
+  </si>
+  <si>
+    <t>lambda (m)</t>
+  </si>
+  <si>
+    <t>D (dB)</t>
+  </si>
+  <si>
+    <t>G/T (dB)</t>
+  </si>
+  <si>
+    <t>k (J/K)</t>
+  </si>
+  <si>
+    <t>Usaremos el amplificador TECATEL 40dB 13/18v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,8 +884,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,8 +989,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1196,11 +1369,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1489,8 +1742,66 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1813,11 +2124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555848AA-6603-4FF7-9150-EEA00320E63B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11582,11 +11893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D52DB39-8578-429A-9498-50C656F3D0E2}">
-  <dimension ref="A1:P34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11595,7 +11906,7 @@
     <col min="9" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -11637,7 +11948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
@@ -11679,17 +11990,17 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
         <v>54</v>
       </c>
@@ -11727,15 +12038,15 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
         <v>74</v>
       </c>
@@ -11743,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -11751,7 +12062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
@@ -11780,541 +12091,560 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="101" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P12" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="101" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F16" s="2">
         <v>40</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G16" s="2">
         <v>48</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H16" s="2">
         <v>50</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I16" s="2">
         <v>50</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J16" s="2">
         <v>50</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K16" s="2">
         <v>50</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L16" s="2">
         <v>50</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M16" s="2">
         <v>50</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N16" s="2">
         <v>50</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O16" s="2">
         <v>50</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P16" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="2">
-        <v>35</v>
-      </c>
-      <c r="G15" s="2">
-        <v>35</v>
-      </c>
-      <c r="H15" s="2">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2">
-        <v>30</v>
-      </c>
-      <c r="J15" s="2">
-        <v>30</v>
-      </c>
-      <c r="K15" s="2">
-        <v>30</v>
-      </c>
-      <c r="L15" s="2">
-        <v>30</v>
-      </c>
-      <c r="M15" s="2">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2">
-        <v>30</v>
-      </c>
-      <c r="O15" s="2">
-        <v>30</v>
-      </c>
-      <c r="P15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="2">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2">
-        <v>9</v>
-      </c>
-      <c r="I16" s="2">
-        <v>9</v>
-      </c>
-      <c r="J16" s="2">
-        <v>9</v>
-      </c>
-      <c r="K16" s="2">
-        <v>9</v>
-      </c>
-      <c r="L16" s="2">
-        <v>9</v>
-      </c>
-      <c r="M16" s="2">
-        <v>9</v>
-      </c>
-      <c r="N16" s="2">
-        <v>9</v>
-      </c>
-      <c r="O16" s="2">
-        <v>9</v>
-      </c>
-      <c r="P16" s="2">
-        <v>9</v>
+      <c r="R16" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F17" s="2">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="O17" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>9</v>
+      </c>
+      <c r="O18" s="2">
+        <v>9</v>
+      </c>
+      <c r="P18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="2">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2">
+        <v>110</v>
+      </c>
+      <c r="H19" s="2">
+        <v>110</v>
+      </c>
+      <c r="I19" s="2">
+        <v>110</v>
+      </c>
+      <c r="J19" s="2">
+        <v>110</v>
+      </c>
+      <c r="K19" s="2">
+        <v>110</v>
+      </c>
+      <c r="L19" s="2">
+        <v>110</v>
+      </c>
+      <c r="M19" s="2">
+        <v>110</v>
+      </c>
+      <c r="N19" s="2">
+        <v>110</v>
+      </c>
+      <c r="O19" s="2">
+        <v>110</v>
+      </c>
+      <c r="P19" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F20" s="2">
         <v>35</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G20" s="2">
         <v>35</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H20" s="2">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I20" s="2">
         <v>35</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J20" s="2">
         <v>35</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K20" s="2">
         <v>35</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L20" s="2">
         <v>35</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M20" s="2">
         <v>35</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N20" s="2">
         <v>35</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O20" s="2">
         <v>35</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P20" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="101" t="s">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="101" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="2">
-        <v>28</v>
-      </c>
-      <c r="I22" s="2">
-        <v>28</v>
-      </c>
-      <c r="J22" s="2">
-        <v>28</v>
-      </c>
-      <c r="K22" s="2">
-        <v>28</v>
-      </c>
-      <c r="L22" s="2">
-        <v>28</v>
-      </c>
-      <c r="M22" s="2">
-        <v>28</v>
-      </c>
-      <c r="N22" s="2">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" s="2">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2">
-        <v>20</v>
-      </c>
-      <c r="L23" s="2">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2">
-        <v>20</v>
-      </c>
-      <c r="N23" s="2">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
       <c r="I24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
       <c r="J24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
       <c r="K24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
       <c r="M24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
       <c r="N24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
       <c r="O24" s="2">
-        <v>6.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="J25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="M25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="N25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O25" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="2">
+        <v>106</v>
+      </c>
+      <c r="I27" s="2">
+        <v>106</v>
+      </c>
+      <c r="J27" s="2">
+        <v>106</v>
+      </c>
+      <c r="K27" s="2">
+        <v>106</v>
+      </c>
+      <c r="L27" s="2">
+        <v>106</v>
+      </c>
+      <c r="M27" s="2">
+        <v>106</v>
+      </c>
+      <c r="N27" s="2">
+        <v>106</v>
+      </c>
+      <c r="O27" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H28" s="2">
         <v>35</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I28" s="2">
         <v>35</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J28" s="2">
         <v>35</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K28" s="2">
         <v>35</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L28" s="2">
         <v>35</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M28" s="2">
         <v>35</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N28" s="2">
         <v>35</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O28" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="105" t="s">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="105" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" s="106">
-        <v>70</v>
-      </c>
-      <c r="G30" s="106">
-        <v>58</v>
-      </c>
-      <c r="H30" s="106">
-        <v>50</v>
-      </c>
-      <c r="I30" s="106">
-        <v>50</v>
-      </c>
-      <c r="J30" s="106">
-        <v>50</v>
-      </c>
-      <c r="K30" s="106">
-        <v>50</v>
-      </c>
-      <c r="L30" s="106">
-        <v>50</v>
-      </c>
-      <c r="M30" s="106">
-        <v>50</v>
-      </c>
-      <c r="N30" s="106">
-        <v>50</v>
-      </c>
-      <c r="O30" s="106">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="106">
-        <v>1</v>
-      </c>
-      <c r="G31" s="106">
-        <v>8</v>
-      </c>
-      <c r="H31" s="106">
-        <v>15</v>
-      </c>
-      <c r="I31" s="106">
-        <v>15</v>
-      </c>
-      <c r="J31" s="106">
-        <v>15</v>
-      </c>
-      <c r="K31" s="106">
-        <v>15</v>
-      </c>
-      <c r="L31" s="106">
-        <v>15</v>
-      </c>
-      <c r="M31" s="106">
-        <v>15</v>
-      </c>
-      <c r="N31" s="106">
-        <v>15</v>
-      </c>
-      <c r="O31" s="106">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F32" s="106">
-        <f>F30-F31-31.54+20*LOG(F2)</f>
-        <v>77.460000000000008</v>
-      </c>
-      <c r="G32" s="108">
-        <f>G30-G31-31.54+20*LOG(G2)</f>
-        <v>64.904385894678384</v>
-      </c>
-      <c r="H32" s="108">
-        <f t="shared" ref="H32:O32" si="0">H30-H31-31.54+20*LOG(H2)</f>
-        <v>57.120940764776996</v>
-      </c>
-      <c r="I32" s="108">
-        <f t="shared" si="0"/>
-        <v>57.679262379905516</v>
-      </c>
-      <c r="J32" s="108">
-        <f t="shared" si="0"/>
-        <v>57.94551739201578</v>
-      </c>
-      <c r="K32" s="108">
-        <f t="shared" si="0"/>
-        <v>58.57749711344983</v>
-      </c>
-      <c r="L32" s="108">
-        <f t="shared" si="0"/>
-        <v>59.391486664208593</v>
-      </c>
-      <c r="M32" s="108">
-        <f t="shared" si="0"/>
-        <v>59.718267132857115</v>
-      </c>
-      <c r="N32" s="108">
-        <f t="shared" si="0"/>
-        <v>60.0331979307064</v>
-      </c>
-      <c r="O32" s="108">
-        <f t="shared" si="0"/>
-        <v>61.189814503449639</v>
+        <v>70</v>
+      </c>
+      <c r="G32" s="106">
+        <v>58</v>
+      </c>
+      <c r="H32" s="106">
+        <v>50</v>
+      </c>
+      <c r="I32" s="106">
+        <v>50</v>
+      </c>
+      <c r="J32" s="106">
+        <v>50</v>
+      </c>
+      <c r="K32" s="106">
+        <v>50</v>
+      </c>
+      <c r="L32" s="106">
+        <v>50</v>
+      </c>
+      <c r="M32" s="106">
+        <v>50</v>
+      </c>
+      <c r="N32" s="106">
+        <v>50</v>
+      </c>
+      <c r="O32" s="106">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F33" s="106">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="G33" s="106">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="H33" s="106">
-        <v>56.66</v>
+        <v>15</v>
       </c>
       <c r="I33" s="106">
-        <v>57.22</v>
+        <v>15</v>
       </c>
       <c r="J33" s="106">
-        <v>57.49</v>
+        <v>15</v>
       </c>
       <c r="K33" s="106">
-        <v>58.12</v>
+        <v>15</v>
       </c>
       <c r="L33" s="106">
-        <v>58.93</v>
+        <v>15</v>
       </c>
       <c r="M33" s="106">
-        <v>59.26</v>
+        <v>15</v>
       </c>
       <c r="N33" s="106">
-        <v>59.57</v>
+        <v>15</v>
       </c>
       <c r="O33" s="106">
-        <v>60.73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="106">
+        <f>F32-F33-31.54+20*LOG(F2)</f>
+        <v>77.460000000000008</v>
+      </c>
+      <c r="G34" s="108">
+        <f>G32-G33-31.54+20*LOG(G2)</f>
+        <v>64.904385894678384</v>
+      </c>
+      <c r="H34" s="108">
+        <f>H32-H33-31.54+20*LOG(H2)</f>
+        <v>57.120940764776996</v>
+      </c>
+      <c r="I34" s="108">
+        <f>I32-I33-31.54+20*LOG(I2)</f>
+        <v>57.679262379905516</v>
+      </c>
+      <c r="J34" s="108">
+        <f>J32-J33-31.54+20*LOG(J2)</f>
+        <v>57.94551739201578</v>
+      </c>
+      <c r="K34" s="108">
+        <f>K32-K33-31.54+20*LOG(K2)</f>
+        <v>58.57749711344983</v>
+      </c>
+      <c r="L34" s="108">
+        <f>L32-L33-31.54+20*LOG(L2)</f>
+        <v>59.391486664208593</v>
+      </c>
+      <c r="M34" s="108">
+        <f>M32-M33-31.54+20*LOG(M2)</f>
+        <v>59.718267132857115</v>
+      </c>
+      <c r="N34" s="108">
+        <f>N32-N33-31.54+20*LOG(N2)</f>
+        <v>60.0331979307064</v>
+      </c>
+      <c r="O34" s="108">
+        <f>O32-O33-31.54+20*LOG(O2)</f>
+        <v>61.189814503449639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="106">
+        <v>66</v>
+      </c>
+      <c r="G35" s="106">
+        <v>58</v>
+      </c>
+      <c r="H35" s="106">
+        <v>56.66</v>
+      </c>
+      <c r="I35" s="106">
+        <v>57.22</v>
+      </c>
+      <c r="J35" s="106">
+        <v>57.49</v>
+      </c>
+      <c r="K35" s="106">
+        <v>58.12</v>
+      </c>
+      <c r="L35" s="106">
+        <v>58.93</v>
+      </c>
+      <c r="M35" s="106">
+        <v>59.26</v>
+      </c>
+      <c r="N35" s="106">
+        <v>59.57</v>
+      </c>
+      <c r="O35" s="106">
+        <v>60.73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="109" t="s">
+      <c r="F36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="G34" s="109" t="s">
+      <c r="G36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="109" t="s">
+      <c r="H36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="109" t="s">
+      <c r="I36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="J34" s="109" t="s">
+      <c r="J36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="K34" s="109" t="s">
+      <c r="K36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="L34" s="109" t="s">
+      <c r="L36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="M34" s="109" t="s">
+      <c r="M36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="N34" s="109" t="s">
+      <c r="N36" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="O34" s="109" t="s">
+      <c r="O36" s="109" t="s">
         <v>176</v>
       </c>
     </row>
@@ -12322,4 +12652,567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="123"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="126" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="127">
+        <v>39.49</v>
+      </c>
+      <c r="C4" s="127">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="128" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="129">
+        <v>30</v>
+      </c>
+      <c r="C5" s="129">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="128" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="129">
+        <f>B5-0.36</f>
+        <v>29.64</v>
+      </c>
+      <c r="C6" s="129">
+        <f>-0.36-19.2</f>
+        <v>-19.559999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="127">
+        <v>47.88</v>
+      </c>
+      <c r="C7" s="127">
+        <v>43.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="128" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="127">
+        <v>6378.16</v>
+      </c>
+      <c r="C8" s="127">
+        <v>6378.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="127">
+        <v>35786.300000000003</v>
+      </c>
+      <c r="C9" s="127">
+        <v>35786.300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="127">
+        <v>38180.474999999999</v>
+      </c>
+      <c r="C10" s="127">
+        <v>37780.794999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="128" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="127">
+        <v>35</v>
+      </c>
+      <c r="C11" s="127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="128" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="127">
+        <v>221.82</v>
+      </c>
+      <c r="C12" s="127">
+        <v>150.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="125" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="127">
+        <v>54</v>
+      </c>
+      <c r="C14" s="127">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="127">
+        <f>B14-20*LOG10((4*PI()*B10*10^3)/((3*10^8)/(12.75*10^9)))-1.8+138.75</f>
+        <v>-15.238802423677953</v>
+      </c>
+      <c r="C15" s="127">
+        <f>C14-20*LOG10((4*PI()*C10*10^3)/((3*10^8)/(12.75*10^9)))-1.8+138.75</f>
+        <v>-18.147397727373288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="131"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="127">
+        <f>B23-10*LOG10(1+(B21/B20))</f>
+        <v>17.132739049129246</v>
+      </c>
+      <c r="C17" s="127">
+        <f>C23-10*LOG10(1+(C21/C20))</f>
+        <v>14.22414374543391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="127">
+        <f>B15+B19</f>
+        <v>23.761197576322047</v>
+      </c>
+      <c r="C18" s="127">
+        <f>C15+C19</f>
+        <v>20.852602272626712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="127">
+        <v>39</v>
+      </c>
+      <c r="C19" s="127">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="127">
+        <v>110</v>
+      </c>
+      <c r="C20" s="127">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="125" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="127">
+        <f>290*(10^(0.75/10)-1)</f>
+        <v>54.665645956735368</v>
+      </c>
+      <c r="C21" s="127">
+        <f>290*(10^(0.75/10)-1)</f>
+        <v>54.665645956735368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="127">
+        <f>10*LOG10((1.38*10^(-23))*B20*B24)+138.75</f>
+        <v>4.8763553571844795</v>
+      </c>
+      <c r="C22" s="127">
+        <f>10*LOG10((1.38*10^(-23))*C20*C24)+138.75</f>
+        <v>4.8763553571844795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="127">
+        <f>B18-B22</f>
+        <v>18.884842219137568</v>
+      </c>
+      <c r="C23" s="127">
+        <f>C18-C22</f>
+        <v>15.976246915442232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="127">
+        <f>27*1000000</f>
+        <v>27000000</v>
+      </c>
+      <c r="C24" s="127">
+        <f>27*1000000</f>
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="133"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="135">
+        <v>25</v>
+      </c>
+      <c r="C26" s="135">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="136" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="137">
+        <v>35</v>
+      </c>
+      <c r="C27" s="137">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="136" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="137">
+        <v>110</v>
+      </c>
+      <c r="C28" s="137">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="136" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="137">
+        <f>B28+(B26-B27)/2</f>
+        <v>105</v>
+      </c>
+      <c r="C29" s="137">
+        <f>C28+(C26-C27)/2</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="136" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="137">
+        <f>B29+7.5*LOG10(30-1)</f>
+        <v>115.96798498424216</v>
+      </c>
+      <c r="C30" s="137">
+        <f>C29+7.5*LOG10(30-1)</f>
+        <v>115.96798498424216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="136" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="137">
+        <v>118.5</v>
+      </c>
+      <c r="C31" s="137">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="138">
+        <v>54</v>
+      </c>
+      <c r="C34" s="138">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="138">
+        <v>0.7</v>
+      </c>
+      <c r="C35" s="138">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="138">
+        <v>50</v>
+      </c>
+      <c r="C36" s="138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="138">
+        <v>3</v>
+      </c>
+      <c r="C37" s="138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="138">
+        <v>27</v>
+      </c>
+      <c r="C38" s="138">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="138">
+        <v>0.7</v>
+      </c>
+      <c r="C39" s="138">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="138">
+        <v>12.75</v>
+      </c>
+      <c r="C40" s="138">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="134" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="138">
+        <f>92.44+20*LOG10(B40)+20*LOG10(B10)</f>
+        <v>206.18703023762927</v>
+      </c>
+      <c r="C41" s="138">
+        <f>92.44+20*LOG10(C40)+20*LOG10(C10)</f>
+        <v>206.09562554132461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="138">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C42" s="138">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="134" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="139">
+        <v>1.3800000000000001E-23</v>
+      </c>
+      <c r="C43" s="139">
+        <v>1.3800000000000001E-23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="134" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="138">
+        <f>B36+290*(POWER(10,B39/10)-1)</f>
+        <v>100.72029093246357</v>
+      </c>
+      <c r="C44" s="138">
+        <f>C36+290*(POWER(10,C39/10)-1)</f>
+        <v>100.72029093246357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="134" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="140">
+        <f>11+B37</f>
+        <v>14</v>
+      </c>
+      <c r="C45" s="138">
+        <f>11+C37</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="139">
+        <f>10*LOG10(B43*B44*B38*1000000)</f>
+        <v>-134.25640177870341</v>
+      </c>
+      <c r="C46" s="139">
+        <f>10*LOG10(C43*C44*C38*1000000)</f>
+        <v>-134.25640177870341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="134" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="139">
+        <f>B45-B34+B41+B42+B46</f>
+        <v>37.030628458925861</v>
+      </c>
+      <c r="C47" s="139">
+        <f>C45-C34+C41+C42+C46</f>
+        <v>39.939223762621197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="134" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="138">
+        <f>300000000/(B40*1000000000)</f>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="C48" s="138">
+        <f>300000000/(C40*1000000000)</f>
+        <v>2.3529411764705882E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="134"/>
+      <c r="B50" s="139">
+        <f>B48*POWER(10,(B47/20))</f>
+        <v>1.671638992470837</v>
+      </c>
+      <c r="C50" s="139">
+        <f>C48*POWER(10,(C47/20))</f>
+        <v>2.3365348234310672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="134" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="139">
+        <f>B50/(PI()*SQRT(B35))</f>
+        <v>0.63598020768129437</v>
+      </c>
+      <c r="C51" s="139">
+        <f>C50/(PI()*SQRT(C35))</f>
+        <v>0.8889418761785618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="139">
+        <f>B47-10*LOG10(B44)</f>
+        <v>16.999458743231507</v>
+      </c>
+      <c r="C52" s="139">
+        <f>C47-10*LOG10(C44)</f>
+        <v>19.908054046926843</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>